--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,8 +11,10 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$308</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="953">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2866,40 +2868,47 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">264
-267
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">265
+266
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">267
 270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265
-266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -3181,7 +3190,7 @@
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3230,6 +3239,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3240,8 +3254,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -3265,7 +3279,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -3322,7 +3336,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3415,6 +3429,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3465,7 +3483,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -3483,7 +3501,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -3509,7 +3527,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL308"/>
+  <dimension ref="A1:AL307"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
@@ -3517,46 +3535,46 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.55"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2955465587045"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="57.5101214574899"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.5910931174089"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25295,7 +25313,7 @@
       <c r="AJ279" s="5" t="n">
         <v>263</v>
       </c>
-      <c r="AK279" s="11" t="s">
+      <c r="AK279" s="23" t="s">
         <v>860</v>
       </c>
       <c r="AL279" s="21" t="n">
@@ -25304,7 +25322,7 @@
     </row>
     <row r="280" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>605</v>
@@ -25323,21 +25341,31 @@
         <v>862</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>86</v>
+        <v>772</v>
       </c>
       <c r="I280" s="5"/>
-      <c r="J280" s="5"/>
+      <c r="J280" s="5" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
-      <c r="M280" s="5"/>
-      <c r="N280" s="9"/>
+      <c r="M280" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N280" s="9" t="s">
+        <v>864</v>
+      </c>
       <c r="O280" s="9"/>
       <c r="P280" s="9"/>
-      <c r="Q280" s="9"/>
+      <c r="Q280" s="9" t="s">
+        <v>864</v>
+      </c>
       <c r="R280" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S280" s="5"/>
+      <c r="S280" s="12" t="s">
+        <v>865</v>
+      </c>
       <c r="T280" s="5"/>
       <c r="U280" s="5"/>
       <c r="V280" s="5"/>
@@ -25345,18 +25373,20 @@
       <c r="X280" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="Y280" s="5"/>
+      <c r="Y280" s="5" t="s">
+        <v>866</v>
+      </c>
       <c r="Z280" s="5"/>
       <c r="AA280" s="5"/>
       <c r="AB280" s="5"/>
       <c r="AC280" s="5"/>
       <c r="AD280" s="5" t="s">
-        <v>97</v>
+        <v>859</v>
       </c>
       <c r="AE280" s="8"/>
       <c r="AF280" s="5"/>
       <c r="AG280" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="AH280" s="5" t="s">
         <v>842</v>
@@ -25365,18 +25395,16 @@
         <v>3</v>
       </c>
       <c r="AJ280" s="5" t="n">
-        <v>264</v>
-      </c>
-      <c r="AK280" s="11" t="s">
-        <v>864</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="AK280" s="5"/>
       <c r="AL280" s="5" t="n">
         <v>263</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>605</v>
@@ -25389,36 +25417,36 @@
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>772</v>
       </c>
       <c r="I281" s="5"/>
       <c r="J281" s="5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="N281" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="O281" s="9"/>
       <c r="P281" s="9"/>
       <c r="Q281" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="R281" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S281" s="12" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
@@ -25440,25 +25468,25 @@
       <c r="AE281" s="8"/>
       <c r="AF281" s="5"/>
       <c r="AG281" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="AH281" s="5" t="s">
         <v>842</v>
       </c>
       <c r="AI281" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ281" s="5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK281" s="5"/>
       <c r="AL281" s="5" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>605</v>
@@ -25477,31 +25505,23 @@
         <v>872</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>772</v>
+        <v>644</v>
       </c>
       <c r="I282" s="5"/>
       <c r="J282" s="5" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
-      <c r="M282" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="N282" s="9" t="s">
-        <v>868</v>
-      </c>
+      <c r="M282" s="5"/>
+      <c r="N282" s="9"/>
       <c r="O282" s="9"/>
       <c r="P282" s="9"/>
-      <c r="Q282" s="9" t="s">
-        <v>868</v>
-      </c>
+      <c r="Q282" s="9"/>
       <c r="R282" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S282" s="12" t="s">
-        <v>869</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="S282" s="5"/>
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
       <c r="V282" s="5"/>
@@ -25509,9 +25529,7 @@
       <c r="X282" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="Y282" s="5" t="s">
-        <v>873</v>
-      </c>
+      <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
       <c r="AA282" s="5"/>
       <c r="AB282" s="5"/>
@@ -25521,26 +25539,24 @@
       </c>
       <c r="AE282" s="8"/>
       <c r="AF282" s="5"/>
-      <c r="AG282" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="AH282" s="5" t="s">
-        <v>842</v>
-      </c>
+      <c r="AG282" s="5"/>
+      <c r="AH282" s="5"/>
       <c r="AI282" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ282" s="5" t="n">
-        <v>266</v>
-      </c>
-      <c r="AK282" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="AK282" s="11" t="s">
+        <v>873</v>
+      </c>
       <c r="AL282" s="5" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>605</v>
@@ -25559,23 +25575,31 @@
         <v>875</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>777</v>
+        <v>91</v>
       </c>
       <c r="I283" s="5"/>
       <c r="J283" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
-      <c r="M283" s="5"/>
-      <c r="N283" s="9"/>
+      <c r="M283" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N283" s="9" t="s">
+        <v>864</v>
+      </c>
       <c r="O283" s="9"/>
       <c r="P283" s="9"/>
-      <c r="Q283" s="9"/>
+      <c r="Q283" s="9" t="s">
+        <v>864</v>
+      </c>
       <c r="R283" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="S283" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="S283" s="12" t="s">
+        <v>865</v>
+      </c>
       <c r="T283" s="5"/>
       <c r="U283" s="5"/>
       <c r="V283" s="5"/>
@@ -25587,30 +25611,34 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="5"/>
       <c r="AB283" s="5"/>
-      <c r="AC283" s="5"/>
+      <c r="AC283" s="5" t="s">
+        <v>778</v>
+      </c>
       <c r="AD283" s="5" t="s">
-        <v>859</v>
+        <v>97</v>
       </c>
       <c r="AE283" s="8"/>
       <c r="AF283" s="5"/>
-      <c r="AG283" s="5"/>
-      <c r="AH283" s="5"/>
+      <c r="AG283" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="AH283" s="5" t="s">
+        <v>842</v>
+      </c>
       <c r="AI283" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ283" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="AK283" s="5"/>
+      <c r="AL283" s="5" t="n">
         <v>267</v>
-      </c>
-      <c r="AK283" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="AL283" s="5" t="n">
-        <v>263</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>605</v>
@@ -25623,10 +25651,10 @@
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G284" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="G284" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>91</v>
@@ -25638,21 +25666,21 @@
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="N284" s="9" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="O284" s="9"/>
       <c r="P284" s="9"/>
       <c r="Q284" s="9" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="R284" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S284" s="12" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
@@ -25674,7 +25702,7 @@
       <c r="AE284" s="8"/>
       <c r="AF284" s="5"/>
       <c r="AG284" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="AH284" s="5" t="s">
         <v>842</v>
@@ -25683,7 +25711,7 @@
         <v>4</v>
       </c>
       <c r="AJ284" s="5" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK284" s="5"/>
       <c r="AL284" s="5" t="n">
@@ -25692,7 +25720,7 @@
     </row>
     <row r="285" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>605</v>
@@ -25705,36 +25733,34 @@
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>91</v>
+        <v>881</v>
+      </c>
+      <c r="H285" s="22" t="s">
+        <v>882</v>
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5" t="s">
-        <v>881</v>
+        <v>608</v>
       </c>
       <c r="N285" s="9" t="s">
-        <v>882</v>
+        <v>697</v>
       </c>
       <c r="O285" s="9"/>
       <c r="P285" s="9"/>
-      <c r="Q285" s="9" t="s">
-        <v>882</v>
-      </c>
+      <c r="Q285" s="9"/>
       <c r="R285" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="12" t="s">
-        <v>869</v>
+        <v>699</v>
       </c>
       <c r="T285" s="5"/>
       <c r="U285" s="5"/>
@@ -25747,37 +25773,35 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="5"/>
       <c r="AB285" s="5"/>
-      <c r="AC285" s="5" t="s">
-        <v>778</v>
-      </c>
+      <c r="AC285" s="5"/>
       <c r="AD285" s="5" t="s">
         <v>97</v>
       </c>
       <c r="AE285" s="8"/>
       <c r="AF285" s="5"/>
       <c r="AG285" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="AH285" s="5" t="s">
         <v>842</v>
       </c>
       <c r="AI285" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ285" s="5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK285" s="5"/>
       <c r="AL285" s="5" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>605</v>
+        <v>38</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>39</v>
@@ -25785,35 +25809,31 @@
       <c r="D286" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E286" s="5"/>
+      <c r="E286" s="5" t="s">
+        <v>625</v>
+      </c>
       <c r="F286" s="5" t="s">
         <v>883</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="H286" s="22" t="s">
+      <c r="H286" s="5" t="s">
         <v>885</v>
       </c>
       <c r="I286" s="5"/>
-      <c r="J286" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J286" s="5"/>
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
-      <c r="M286" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="M286" s="5"/>
       <c r="N286" s="9" t="s">
         <v>697</v>
       </c>
       <c r="O286" s="9"/>
       <c r="P286" s="9"/>
       <c r="Q286" s="9"/>
-      <c r="R286" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S286" s="12" t="s">
+      <c r="R286" s="5"/>
+      <c r="S286" s="5" t="s">
         <v>699</v>
       </c>
       <c r="T286" s="5"/>
@@ -25829,30 +25849,32 @@
       <c r="AB286" s="5"/>
       <c r="AC286" s="5"/>
       <c r="AD286" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE286" s="8"/>
+        <v>774</v>
+      </c>
+      <c r="AE286" s="8" t="n">
+        <v>0.01625</v>
+      </c>
       <c r="AF286" s="5"/>
       <c r="AG286" s="5" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="AH286" s="5" t="s">
         <v>842</v>
       </c>
       <c r="AI286" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ286" s="5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK286" s="5"/>
-      <c r="AL286" s="5" t="n">
-        <v>263</v>
+      <c r="AL286" s="21" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>38</v>
@@ -25861,9 +25883,9 @@
         <v>39</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E287" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E287" s="24" t="s">
         <v>625</v>
       </c>
       <c r="F287" s="5" t="s">
@@ -25873,29 +25895,29 @@
         <v>887</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>888</v>
+        <v>837</v>
       </c>
       <c r="I287" s="5"/>
-      <c r="J287" s="5"/>
+      <c r="J287" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
-      <c r="N287" s="9" t="s">
-        <v>697</v>
-      </c>
+      <c r="N287" s="9"/>
       <c r="O287" s="9"/>
       <c r="P287" s="9"/>
       <c r="Q287" s="9"/>
-      <c r="R287" s="5"/>
-      <c r="S287" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="R287" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S287" s="5"/>
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
       <c r="V287" s="5"/>
       <c r="W287" s="5"/>
-      <c r="X287" s="5" t="s">
-        <v>839</v>
+      <c r="X287" s="25" t="s">
+        <v>886</v>
       </c>
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
@@ -25906,32 +25928,30 @@
         <v>774</v>
       </c>
       <c r="AE287" s="8" t="n">
-        <v>0.01625</v>
+        <v>0.03</v>
       </c>
       <c r="AF287" s="5"/>
-      <c r="AG287" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="AH287" s="5" t="s">
-        <v>842</v>
-      </c>
+      <c r="AG287" s="5"/>
+      <c r="AH287" s="5"/>
       <c r="AI287" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AJ287" s="5" t="n">
-        <v>271</v>
-      </c>
-      <c r="AK287" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="AK287" s="14" t="n">
+        <v>273</v>
+      </c>
       <c r="AL287" s="21" t="n">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>38</v>
+        <v>605</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>39</v>
@@ -25939,39 +25959,47 @@
       <c r="D288" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E288" s="23" t="s">
+      <c r="E288" s="24" t="s">
         <v>625</v>
       </c>
       <c r="F288" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="G288" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="G288" s="5" t="s">
+      <c r="H288" s="5" t="s">
         <v>890</v>
-      </c>
-      <c r="H288" s="5" t="s">
-        <v>837</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K288" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="K288" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="L288" s="5"/>
-      <c r="M288" s="5"/>
-      <c r="N288" s="9"/>
+      <c r="M288" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="N288" s="9" t="s">
+        <v>697</v>
+      </c>
       <c r="O288" s="9"/>
       <c r="P288" s="9"/>
       <c r="Q288" s="9"/>
       <c r="R288" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S288" s="5"/>
+      <c r="S288" s="5" t="s">
+        <v>699</v>
+      </c>
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
       <c r="V288" s="5"/>
       <c r="W288" s="5"/>
-      <c r="X288" s="24" t="s">
-        <v>889</v>
+      <c r="X288" s="25" t="s">
+        <v>886</v>
       </c>
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
@@ -25979,33 +26007,31 @@
       <c r="AB288" s="5"/>
       <c r="AC288" s="5"/>
       <c r="AD288" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="AE288" s="8" t="n">
-        <v>0.03</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="AE288" s="8"/>
       <c r="AF288" s="5"/>
-      <c r="AG288" s="5"/>
+      <c r="AG288" s="5" t="s">
+        <v>892</v>
+      </c>
       <c r="AH288" s="5"/>
       <c r="AI288" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ288" s="5" t="n">
+        <v>273</v>
+      </c>
+      <c r="AK288" s="5"/>
+      <c r="AL288" s="5" t="n">
         <v>272</v>
-      </c>
-      <c r="AK288" s="14" t="n">
-        <v>273</v>
-      </c>
-      <c r="AL288" s="21" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>605</v>
+        <v>38</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>39</v>
@@ -26013,79 +26039,63 @@
       <c r="D289" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E289" s="23" t="s">
-        <v>625</v>
-      </c>
+      <c r="E289" s="5"/>
       <c r="F289" s="5" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>893</v>
+        <v>86</v>
       </c>
       <c r="I289" s="5"/>
-      <c r="J289" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K289" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
       <c r="L289" s="5"/>
-      <c r="M289" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="N289" s="9" t="s">
-        <v>697</v>
-      </c>
+      <c r="M289" s="5"/>
+      <c r="N289" s="9"/>
       <c r="O289" s="9"/>
       <c r="P289" s="9"/>
-      <c r="Q289" s="9"/>
-      <c r="R289" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S289" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
       <c r="V289" s="5"/>
       <c r="W289" s="5"/>
-      <c r="X289" s="24" t="s">
-        <v>889</v>
-      </c>
+      <c r="X289" s="5"/>
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
-      <c r="AA289" s="5"/>
+      <c r="AA289" s="14"/>
       <c r="AB289" s="5"/>
       <c r="AC289" s="5"/>
       <c r="AD289" s="5" t="s">
-        <v>894</v>
+        <v>87</v>
       </c>
       <c r="AE289" s="8"/>
       <c r="AF289" s="5"/>
-      <c r="AG289" s="5" t="s">
-        <v>895</v>
-      </c>
+      <c r="AG289" s="5"/>
       <c r="AH289" s="5"/>
       <c r="AI289" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ289" s="5" t="n">
-        <v>273</v>
-      </c>
-      <c r="AK289" s="5"/>
-      <c r="AL289" s="5" t="n">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="AK289" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="AL289" s="21" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>38</v>
+        <v>605</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>39</v>
@@ -26093,60 +26103,72 @@
       <c r="D290" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E290" s="5"/>
+      <c r="E290" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="F290" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>86</v>
+        <v>899</v>
       </c>
       <c r="I290" s="5"/>
-      <c r="J290" s="5"/>
+      <c r="J290" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
-      <c r="N290" s="9"/>
+      <c r="N290" s="5" t="s">
+        <v>900</v>
+      </c>
       <c r="O290" s="9"/>
       <c r="P290" s="9"/>
       <c r="Q290" s="5"/>
-      <c r="R290" s="5"/>
-      <c r="S290" s="5"/>
+      <c r="R290" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S290" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="T290" s="5"/>
       <c r="U290" s="5"/>
       <c r="V290" s="5"/>
       <c r="W290" s="5"/>
       <c r="X290" s="5"/>
-      <c r="Y290" s="5"/>
+      <c r="Y290" s="5" t="s">
+        <v>900</v>
+      </c>
       <c r="Z290" s="5"/>
       <c r="AA290" s="14"/>
       <c r="AB290" s="5"/>
       <c r="AC290" s="5"/>
       <c r="AD290" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE290" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="AE290" s="8" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AF290" s="5"/>
       <c r="AG290" s="5"/>
       <c r="AH290" s="5"/>
       <c r="AI290" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ290" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="AK290" s="5"/>
+      <c r="AL290" s="5" t="n">
         <v>274</v>
-      </c>
-      <c r="AK290" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="AL290" s="21" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>605</v>
@@ -26158,16 +26180,16 @@
         <v>620</v>
       </c>
       <c r="E291" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="H291" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="F291" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="G291" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="H291" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="I291" s="5"/>
       <c r="J291" s="5" t="n">
@@ -26176,7 +26198,7 @@
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
-      <c r="N291" s="5" t="s">
+      <c r="N291" s="9" t="s">
         <v>903</v>
       </c>
       <c r="O291" s="9"/>
@@ -26213,16 +26235,16 @@
         <v>3</v>
       </c>
       <c r="AJ291" s="5" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK291" s="5"/>
-      <c r="AL291" s="5" t="n">
+      <c r="AL291" s="24" t="n">
         <v>274</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>605</v>
@@ -26234,7 +26256,7 @@
         <v>620</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>904</v>
@@ -26243,7 +26265,7 @@
         <v>905</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="5" t="n">
@@ -26289,92 +26311,80 @@
         <v>3</v>
       </c>
       <c r="AJ292" s="5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK292" s="5"/>
-      <c r="AL292" s="23" t="n">
+      <c r="AL292" s="24" t="n">
         <v>274</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>605</v>
+        <v>38</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="F293" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G293" s="5" t="s">
+      <c r="E293" s="24" t="s">
         <v>908</v>
       </c>
+      <c r="F293" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="G293" s="24" t="s">
+        <v>910</v>
+      </c>
       <c r="H293" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="I293" s="5"/>
-      <c r="J293" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="I293" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="J293" s="5"/>
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
-      <c r="N293" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="O293" s="9"/>
-      <c r="P293" s="9"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
       <c r="Q293" s="5"/>
-      <c r="R293" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="R293" s="5"/>
       <c r="S293" s="5" t="s">
-        <v>851</v>
+        <v>913</v>
       </c>
       <c r="T293" s="5"/>
       <c r="U293" s="5"/>
       <c r="V293" s="5"/>
       <c r="W293" s="5"/>
       <c r="X293" s="5"/>
-      <c r="Y293" s="5" t="s">
-        <v>909</v>
-      </c>
+      <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
-      <c r="AA293" s="14"/>
+      <c r="AA293" s="5"/>
       <c r="AB293" s="5"/>
       <c r="AC293" s="5"/>
-      <c r="AD293" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE293" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AD293" s="5"/>
+      <c r="AE293" s="8"/>
       <c r="AF293" s="5"/>
-      <c r="AG293" s="5"/>
+      <c r="AG293" s="5" t="s">
+        <v>914</v>
+      </c>
       <c r="AH293" s="5"/>
-      <c r="AI293" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI293" s="5"/>
       <c r="AJ293" s="5" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK293" s="5"/>
-      <c r="AL293" s="23" t="n">
-        <v>274</v>
-      </c>
+      <c r="AL293" s="5"/>
     </row>
     <row r="294" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>38</v>
@@ -26383,22 +26393,22 @@
         <v>39</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E294" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="G294" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="H294" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="F294" s="23" t="s">
+      <c r="I294" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="G294" s="23" t="s">
-        <v>913</v>
-      </c>
-      <c r="H294" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>915</v>
       </c>
       <c r="J294" s="5"/>
       <c r="K294" s="5"/>
@@ -26410,7 +26420,7 @@
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
       <c r="S294" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T294" s="5"/>
       <c r="U294" s="5"/>
@@ -26425,20 +26435,18 @@
       <c r="AD294" s="5"/>
       <c r="AE294" s="8"/>
       <c r="AF294" s="5"/>
-      <c r="AG294" s="5" t="s">
-        <v>917</v>
-      </c>
+      <c r="AG294" s="5"/>
       <c r="AH294" s="5"/>
       <c r="AI294" s="5"/>
       <c r="AJ294" s="5" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK294" s="5"/>
       <c r="AL294" s="5"/>
     </row>
     <row r="295" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>38</v>
@@ -26447,34 +26455,36 @@
         <v>39</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E295" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E295" s="24" t="s">
         <v>918</v>
       </c>
-      <c r="F295" s="5" t="s">
+      <c r="F295" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="G295" s="20" t="s">
+      <c r="G295" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="H295" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="H295" s="5" t="s">
-        <v>914</v>
-      </c>
       <c r="I295" s="5" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="J295" s="5"/>
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
-      <c r="N295" s="5"/>
+      <c r="N295" s="11" t="s">
+        <v>922</v>
+      </c>
       <c r="O295" s="5"/>
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
       <c r="S295" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T295" s="5"/>
       <c r="U295" s="5"/>
@@ -26493,14 +26503,14 @@
       <c r="AH295" s="5"/>
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK295" s="5"/>
       <c r="AL295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>38</v>
@@ -26509,36 +26519,36 @@
         <v>39</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E296" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E296" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="F296" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="G296" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="I296" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="F296" s="23" t="s">
-        <v>922</v>
-      </c>
-      <c r="G296" s="23" t="s">
-        <v>896</v>
-      </c>
-      <c r="H296" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I296" s="5" t="s">
-        <v>924</v>
       </c>
       <c r="J296" s="5"/>
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
       <c r="N296" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="O296" s="5"/>
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
       <c r="S296" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T296" s="5"/>
       <c r="U296" s="5"/>
@@ -26557,14 +26567,14 @@
       <c r="AH296" s="5"/>
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK296" s="5"/>
       <c r="AL296" s="5"/>
     </row>
     <row r="297" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>38</v>
@@ -26573,36 +26583,34 @@
         <v>39</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E297" s="23" t="s">
-        <v>921</v>
-      </c>
-      <c r="F297" s="23" t="s">
-        <v>922</v>
-      </c>
-      <c r="G297" s="23" t="s">
-        <v>896</v>
+        <v>907</v>
+      </c>
+      <c r="E297" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="F297" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="G297" s="24" t="s">
+        <v>926</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
-      <c r="N297" s="11" t="s">
-        <v>926</v>
-      </c>
+      <c r="N297" s="5"/>
       <c r="O297" s="5"/>
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
       <c r="S297" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T297" s="5"/>
       <c r="U297" s="5"/>
@@ -26621,14 +26629,14 @@
       <c r="AH297" s="5"/>
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK297" s="5"/>
       <c r="AL297" s="5"/>
     </row>
     <row r="298" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>38</v>
@@ -26637,22 +26645,22 @@
         <v>39</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E298" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="F298" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E298" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="F298" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="G298" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="I298" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="G298" s="23" t="s">
-        <v>929</v>
-      </c>
-      <c r="H298" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="I298" s="5" t="s">
-        <v>931</v>
       </c>
       <c r="J298" s="5"/>
       <c r="K298" s="5"/>
@@ -26664,7 +26672,7 @@
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
       <c r="S298" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T298" s="5"/>
       <c r="U298" s="5"/>
@@ -26683,14 +26691,14 @@
       <c r="AH298" s="5"/>
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK298" s="5"/>
       <c r="AL298" s="5"/>
     </row>
     <row r="299" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>38</v>
@@ -26699,34 +26707,36 @@
         <v>39</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E299" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="F299" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E299" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="G299" s="23" t="s">
+      <c r="F299" s="24" t="s">
         <v>934</v>
       </c>
+      <c r="G299" s="24" t="s">
+        <v>935</v>
+      </c>
       <c r="H299" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
-      <c r="N299" s="5"/>
+      <c r="N299" s="5" t="s">
+        <v>937</v>
+      </c>
       <c r="O299" s="5"/>
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
       <c r="S299" s="5" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="T299" s="5"/>
       <c r="U299" s="5"/>
@@ -26745,14 +26755,14 @@
       <c r="AH299" s="5"/>
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK299" s="5"/>
       <c r="AL299" s="5"/>
     </row>
     <row r="300" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>38</v>
@@ -26761,36 +26771,36 @@
         <v>39</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E300" s="23" t="s">
-        <v>936</v>
-      </c>
-      <c r="F300" s="23" t="s">
-        <v>937</v>
-      </c>
-      <c r="G300" s="23" t="s">
-        <v>938</v>
+        <v>907</v>
+      </c>
+      <c r="E300" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="F300" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="G300" s="24" t="s">
+        <v>941</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="J300" s="5"/>
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
       <c r="N300" s="5" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O300" s="5"/>
       <c r="P300" s="5"/>
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
       <c r="S300" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="T300" s="5"/>
       <c r="U300" s="5"/>
@@ -26809,14 +26819,14 @@
       <c r="AH300" s="5"/>
       <c r="AI300" s="5"/>
       <c r="AJ300" s="5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK300" s="5"/>
       <c r="AL300" s="5"/>
     </row>
     <row r="301" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>38</v>
@@ -26825,36 +26835,38 @@
         <v>39</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301" s="23" t="s">
-        <v>942</v>
-      </c>
-      <c r="F301" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G301" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E301" s="24" t="s">
         <v>944</v>
       </c>
+      <c r="F301" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G301" s="24" t="s">
+        <v>946</v>
+      </c>
       <c r="H301" s="5" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J301" s="5"/>
       <c r="K301" s="5"/>
       <c r="L301" s="5"/>
-      <c r="M301" s="5"/>
-      <c r="N301" s="5" t="s">
-        <v>946</v>
+      <c r="M301" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="N301" s="11" t="s">
+        <v>948</v>
       </c>
       <c r="O301" s="5"/>
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
       <c r="S301" s="5" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="T301" s="5"/>
       <c r="U301" s="5"/>
@@ -26873,14 +26885,14 @@
       <c r="AH301" s="5"/>
       <c r="AI301" s="5"/>
       <c r="AJ301" s="5" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK301" s="5"/>
       <c r="AL301" s="5"/>
     </row>
     <row r="302" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>38</v>
@@ -26889,38 +26901,38 @@
         <v>39</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E302" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F302" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G302" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E302" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F302" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G302" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J302" s="5"/>
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
       <c r="M302" s="12" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="N302" s="11" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="O302" s="5"/>
       <c r="P302" s="5"/>
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
       <c r="S302" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T302" s="5"/>
       <c r="U302" s="5"/>
@@ -26939,14 +26951,14 @@
       <c r="AH302" s="5"/>
       <c r="AI302" s="5"/>
       <c r="AJ302" s="5" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK302" s="5"/>
       <c r="AL302" s="5"/>
     </row>
     <row r="303" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>38</v>
@@ -26955,38 +26967,38 @@
         <v>39</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E303" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F303" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G303" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E303" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F303" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G303" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J303" s="5"/>
       <c r="K303" s="5"/>
       <c r="L303" s="5"/>
       <c r="M303" s="12" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="N303" s="11" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="O303" s="5"/>
       <c r="P303" s="5"/>
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
       <c r="S303" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T303" s="5"/>
       <c r="U303" s="5"/>
@@ -27005,14 +27017,14 @@
       <c r="AH303" s="5"/>
       <c r="AI303" s="5"/>
       <c r="AJ303" s="5" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK303" s="5"/>
       <c r="AL303" s="5"/>
     </row>
     <row r="304" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>38</v>
@@ -27021,38 +27033,38 @@
         <v>39</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E304" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F304" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G304" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E304" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F304" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G304" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J304" s="5"/>
       <c r="K304" s="5"/>
       <c r="L304" s="5"/>
       <c r="M304" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="N304" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
+      </c>
+      <c r="N304" s="26" t="s">
+        <v>949</v>
       </c>
       <c r="O304" s="5"/>
       <c r="P304" s="5"/>
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
       <c r="S304" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T304" s="5"/>
       <c r="U304" s="5"/>
@@ -27071,14 +27083,14 @@
       <c r="AH304" s="5"/>
       <c r="AI304" s="5"/>
       <c r="AJ304" s="5" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK304" s="5"/>
       <c r="AL304" s="5"/>
     </row>
     <row r="305" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>38</v>
@@ -27087,38 +27099,38 @@
         <v>39</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E305" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F305" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G305" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F305" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G305" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J305" s="5"/>
       <c r="K305" s="5"/>
       <c r="L305" s="5"/>
       <c r="M305" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="N305" s="26" t="s">
         <v>950</v>
-      </c>
-      <c r="N305" s="25" t="s">
-        <v>952</v>
       </c>
       <c r="O305" s="5"/>
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
       <c r="S305" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T305" s="5"/>
       <c r="U305" s="5"/>
@@ -27137,14 +27149,14 @@
       <c r="AH305" s="5"/>
       <c r="AI305" s="5"/>
       <c r="AJ305" s="5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK305" s="5"/>
       <c r="AL305" s="5"/>
     </row>
     <row r="306" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>38</v>
@@ -27153,38 +27165,38 @@
         <v>39</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E306" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F306" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G306" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E306" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F306" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G306" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J306" s="5"/>
       <c r="K306" s="5"/>
       <c r="L306" s="5"/>
       <c r="M306" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="N306" s="25" t="s">
-        <v>953</v>
+        <v>947</v>
+      </c>
+      <c r="N306" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="O306" s="5"/>
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
       <c r="S306" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
@@ -27203,14 +27215,14 @@
       <c r="AH306" s="5"/>
       <c r="AI306" s="5"/>
       <c r="AJ306" s="5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK306" s="5"/>
       <c r="AL306" s="5"/>
     </row>
     <row r="307" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>38</v>
@@ -27219,38 +27231,38 @@
         <v>39</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E307" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F307" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G307" s="23" t="s">
-        <v>949</v>
+        <v>907</v>
+      </c>
+      <c r="E307" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="F307" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="G307" s="24" t="s">
+        <v>946</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J307" s="5"/>
       <c r="K307" s="5"/>
       <c r="L307" s="5"/>
       <c r="M307" s="12" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="N307" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="O307" s="5"/>
       <c r="P307" s="5"/>
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
       <c r="S307" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="T307" s="5"/>
       <c r="U307" s="5"/>
@@ -27269,79 +27281,13 @@
       <c r="AH307" s="5"/>
       <c r="AI307" s="5"/>
       <c r="AJ307" s="5" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK307" s="5"/>
       <c r="AL307" s="5"/>
     </row>
-    <row r="308" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="5" t="n">
-        <v>292</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E308" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="F308" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G308" s="23" t="s">
-        <v>949</v>
-      </c>
-      <c r="H308" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I308" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="J308" s="5"/>
-      <c r="K308" s="5"/>
-      <c r="L308" s="5"/>
-      <c r="M308" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="N308" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="O308" s="5"/>
-      <c r="P308" s="5"/>
-      <c r="Q308" s="5"/>
-      <c r="R308" s="5"/>
-      <c r="S308" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="T308" s="5"/>
-      <c r="U308" s="5"/>
-      <c r="V308" s="5"/>
-      <c r="W308" s="5"/>
-      <c r="X308" s="5"/>
-      <c r="Y308" s="5"/>
-      <c r="Z308" s="5"/>
-      <c r="AA308" s="5"/>
-      <c r="AB308" s="5"/>
-      <c r="AC308" s="5"/>
-      <c r="AD308" s="5"/>
-      <c r="AE308" s="8"/>
-      <c r="AF308" s="5"/>
-      <c r="AG308" s="5"/>
-      <c r="AH308" s="5"/>
-      <c r="AI308" s="5"/>
-      <c r="AJ308" s="5" t="n">
-        <v>292</v>
-      </c>
-      <c r="AK308" s="5"/>
-      <c r="AL308" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL308"/>
+  <autoFilter ref="A1:AL307"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2868,26 +2869,10 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">265
+    <t xml:space="preserve">265
 266
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">267
+267
 270</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -3190,7 +3175,7 @@
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3238,11 +3223,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3336,7 +3316,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3427,10 +3407,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3529,48 +3505,48 @@
   </sheetPr>
   <dimension ref="A1:AL307"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
@@ -25313,7 +25289,7 @@
       <c r="AJ279" s="5" t="n">
         <v>263</v>
       </c>
-      <c r="AK279" s="23" t="s">
+      <c r="AK279" s="11" t="s">
         <v>860</v>
       </c>
       <c r="AL279" s="21" t="n">
@@ -25885,7 +25861,7 @@
       <c r="D287" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E287" s="24" t="s">
+      <c r="E287" s="23" t="s">
         <v>625</v>
       </c>
       <c r="F287" s="5" t="s">
@@ -25916,7 +25892,7 @@
       <c r="U287" s="5"/>
       <c r="V287" s="5"/>
       <c r="W287" s="5"/>
-      <c r="X287" s="25" t="s">
+      <c r="X287" s="24" t="s">
         <v>886</v>
       </c>
       <c r="Y287" s="5"/>
@@ -25959,7 +25935,7 @@
       <c r="D288" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E288" s="24" t="s">
+      <c r="E288" s="23" t="s">
         <v>625</v>
       </c>
       <c r="F288" s="5" t="s">
@@ -25998,7 +25974,7 @@
       <c r="U288" s="5"/>
       <c r="V288" s="5"/>
       <c r="W288" s="5"/>
-      <c r="X288" s="25" t="s">
+      <c r="X288" s="24" t="s">
         <v>886</v>
       </c>
       <c r="Y288" s="5"/>
@@ -26238,7 +26214,7 @@
         <v>276</v>
       </c>
       <c r="AK291" s="5"/>
-      <c r="AL291" s="24" t="n">
+      <c r="AL291" s="23" t="n">
         <v>274</v>
       </c>
     </row>
@@ -26314,7 +26290,7 @@
         <v>277</v>
       </c>
       <c r="AK292" s="5"/>
-      <c r="AL292" s="24" t="n">
+      <c r="AL292" s="23" t="n">
         <v>274</v>
       </c>
     </row>
@@ -26331,13 +26307,13 @@
       <c r="D293" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E293" s="24" t="s">
+      <c r="E293" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="F293" s="24" t="s">
+      <c r="F293" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="G293" s="24" t="s">
+      <c r="G293" s="23" t="s">
         <v>910</v>
       </c>
       <c r="H293" s="5" t="s">
@@ -26457,13 +26433,13 @@
       <c r="D295" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E295" s="24" t="s">
+      <c r="E295" s="23" t="s">
         <v>918</v>
       </c>
-      <c r="F295" s="24" t="s">
+      <c r="F295" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="G295" s="24" t="s">
+      <c r="G295" s="23" t="s">
         <v>893</v>
       </c>
       <c r="H295" s="5" t="s">
@@ -26521,13 +26497,13 @@
       <c r="D296" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E296" s="24" t="s">
+      <c r="E296" s="23" t="s">
         <v>918</v>
       </c>
-      <c r="F296" s="24" t="s">
+      <c r="F296" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="G296" s="24" t="s">
+      <c r="G296" s="23" t="s">
         <v>893</v>
       </c>
       <c r="H296" s="5" t="s">
@@ -26585,13 +26561,13 @@
       <c r="D297" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E297" s="24" t="s">
+      <c r="E297" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="G297" s="24" t="s">
+      <c r="G297" s="23" t="s">
         <v>926</v>
       </c>
       <c r="H297" s="5" t="s">
@@ -26647,13 +26623,13 @@
       <c r="D298" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E298" s="24" t="s">
+      <c r="E298" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="F298" s="24" t="s">
+      <c r="F298" s="23" t="s">
         <v>930</v>
       </c>
-      <c r="G298" s="24" t="s">
+      <c r="G298" s="23" t="s">
         <v>931</v>
       </c>
       <c r="H298" s="5" t="s">
@@ -26709,13 +26685,13 @@
       <c r="D299" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E299" s="24" t="s">
+      <c r="E299" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="F299" s="24" t="s">
+      <c r="F299" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="G299" s="24" t="s">
+      <c r="G299" s="23" t="s">
         <v>935</v>
       </c>
       <c r="H299" s="5" t="s">
@@ -26773,13 +26749,13 @@
       <c r="D300" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E300" s="24" t="s">
+      <c r="E300" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="F300" s="24" t="s">
+      <c r="F300" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="G300" s="24" t="s">
+      <c r="G300" s="23" t="s">
         <v>941</v>
       </c>
       <c r="H300" s="5" t="s">
@@ -26837,13 +26813,13 @@
       <c r="D301" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E301" s="24" t="s">
+      <c r="E301" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F301" s="24" t="s">
+      <c r="F301" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G301" s="24" t="s">
+      <c r="G301" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H301" s="5" t="s">
@@ -26903,13 +26879,13 @@
       <c r="D302" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E302" s="24" t="s">
+      <c r="E302" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F302" s="24" t="s">
+      <c r="F302" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G302" s="24" t="s">
+      <c r="G302" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H302" s="5" t="s">
@@ -26969,13 +26945,13 @@
       <c r="D303" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E303" s="24" t="s">
+      <c r="E303" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F303" s="24" t="s">
+      <c r="F303" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G303" s="24" t="s">
+      <c r="G303" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H303" s="5" t="s">
@@ -27035,13 +27011,13 @@
       <c r="D304" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E304" s="24" t="s">
+      <c r="E304" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F304" s="24" t="s">
+      <c r="F304" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G304" s="24" t="s">
+      <c r="G304" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H304" s="5" t="s">
@@ -27056,7 +27032,7 @@
       <c r="M304" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="N304" s="26" t="s">
+      <c r="N304" s="25" t="s">
         <v>949</v>
       </c>
       <c r="O304" s="5"/>
@@ -27101,13 +27077,13 @@
       <c r="D305" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E305" s="24" t="s">
+      <c r="E305" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F305" s="24" t="s">
+      <c r="F305" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G305" s="24" t="s">
+      <c r="G305" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H305" s="5" t="s">
@@ -27122,7 +27098,7 @@
       <c r="M305" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="N305" s="26" t="s">
+      <c r="N305" s="25" t="s">
         <v>950</v>
       </c>
       <c r="O305" s="5"/>
@@ -27167,13 +27143,13 @@
       <c r="D306" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E306" s="24" t="s">
+      <c r="E306" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F306" s="24" t="s">
+      <c r="F306" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G306" s="24" t="s">
+      <c r="G306" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H306" s="5" t="s">
@@ -27233,13 +27209,13 @@
       <c r="D307" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E307" s="24" t="s">
+      <c r="E307" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F307" s="24" t="s">
+      <c r="F307" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="G307" s="24" t="s">
+      <c r="G307" s="23" t="s">
         <v>946</v>
       </c>
       <c r="H307" s="5" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$307</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="952">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -726,16 +728,16 @@
     <t xml:space="preserve">5449000224385</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Ginger Ale - 1L Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс новый вкус 1.0л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Ginger Ale - 0.5L Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс новый вкус 0.5л</t>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerade Ice Storm - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пауэр Рейд Ледяная Буря - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.33L</t>
@@ -2091,10 +2093,10 @@
     <t xml:space="preserve">1/3 of the Store</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2л</t>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола 1.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Lead SKU</t>
@@ -2124,31 +2126,28 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Sprite - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Display 1st</t>
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
   </si>
   <si>
     <t xml:space="preserve">186
@@ -2381,31 +2380,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass -1.5L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon-Lemongrass-Lemongrass- 1.5L share on Display</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Green Strawberry-Raspberry - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Зеленый Клубника-Малина - 1.5л</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1.5L share on Display</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной БонАква Негаз - 2л</t>
+    <t xml:space="preserve">NCB Display: Lead BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной БонАква Негаз - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
@@ -3517,48 +3516,48 @@
   </sheetPr>
   <dimension ref="A1:AL307"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="Y217" activeCellId="0" sqref="Y217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -7724,7 +7723,7 @@
         <v>207</v>
       </c>
       <c r="N56" s="10" t="n">
-        <v>111111</v>
+        <v>5449000109125</v>
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -7804,7 +7803,7 @@
         <v>209</v>
       </c>
       <c r="N57" s="10" t="n">
-        <v>111111</v>
+        <v>54492653</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -18637,9 +18636,7 @@
       <c r="U193" s="6"/>
       <c r="V193" s="16"/>
       <c r="W193" s="6"/>
-      <c r="X193" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X193" s="6"/>
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
       <c r="AA193" s="6" t="n">
@@ -18721,9 +18718,7 @@
       <c r="U194" s="6"/>
       <c r="V194" s="16"/>
       <c r="W194" s="6"/>
-      <c r="X194" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X194" s="6"/>
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
       <c r="AA194" s="6" t="n">
@@ -18797,9 +18792,7 @@
         <v>615</v>
       </c>
       <c r="W195" s="6"/>
-      <c r="X195" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X195" s="6"/>
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
       <c r="AA195" s="6" t="n">
@@ -18855,10 +18848,10 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
       <c r="M196" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N196" s="10" t="n">
-        <v>5449000000286</v>
+        <v>5449000000439</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>609</v>
@@ -18875,9 +18868,7 @@
       <c r="U196" s="6"/>
       <c r="V196" s="16"/>
       <c r="W196" s="6"/>
-      <c r="X196" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X196" s="6"/>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
       <c r="AA196" s="6" t="n">
@@ -18947,9 +18938,7 @@
       <c r="U197" s="6"/>
       <c r="V197" s="16"/>
       <c r="W197" s="6"/>
-      <c r="X197" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X197" s="6"/>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="6" t="n">
@@ -19015,10 +19004,10 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
       <c r="M198" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N198" s="10" t="n">
-        <v>5449000000286</v>
+        <v>5449000000439</v>
       </c>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
@@ -19033,9 +19022,7 @@
       <c r="U198" s="6"/>
       <c r="V198" s="16"/>
       <c r="W198" s="6"/>
-      <c r="X198" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X198" s="6"/>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="6" t="n">
@@ -19093,10 +19080,10 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N199" s="10" t="n">
-        <v>5449000004864</v>
+        <v>5449000012203</v>
       </c>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
@@ -19111,9 +19098,7 @@
       <c r="U199" s="6"/>
       <c r="V199" s="16"/>
       <c r="W199" s="6"/>
-      <c r="X199" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X199" s="6"/>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="6" t="n">
@@ -19171,10 +19156,10 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
       <c r="M200" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N200" s="10" t="n">
-        <v>5449000004840</v>
+        <v>5449000052926</v>
       </c>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
@@ -19189,9 +19174,7 @@
       <c r="U200" s="6"/>
       <c r="V200" s="16"/>
       <c r="W200" s="6"/>
-      <c r="X200" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X200" s="6"/>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="6" t="n">
@@ -19261,9 +19244,7 @@
       <c r="U201" s="6"/>
       <c r="V201" s="16"/>
       <c r="W201" s="6"/>
-      <c r="X201" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X201" s="6"/>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="6" t="n">
@@ -19287,7 +19268,7 @@
         <v>185</v>
       </c>
       <c r="AK201" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AL201" s="13" t="n">
         <v>303</v>
@@ -19310,10 +19291,10 @@
         <v>599</v>
       </c>
       <c r="F202" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>91</v>
@@ -19328,10 +19309,10 @@
         <v>608</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O202" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P202" s="10"/>
       <c r="Q202" s="10"/>
@@ -19345,9 +19326,7 @@
       <c r="U202" s="6"/>
       <c r="V202" s="16"/>
       <c r="W202" s="6"/>
-      <c r="X202" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X202" s="6"/>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
       <c r="AA202" s="6" t="n">
@@ -19390,10 +19369,10 @@
         <v>599</v>
       </c>
       <c r="F203" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>613</v>
@@ -19418,12 +19397,10 @@
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W203" s="6"/>
-      <c r="X203" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X203" s="6"/>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
       <c r="AA203" s="6" t="n">
@@ -19466,13 +19443,13 @@
         <v>599</v>
       </c>
       <c r="F204" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G204" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G204" s="6" t="s">
+      <c r="H204" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>644</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6" t="n">
@@ -19493,9 +19470,7 @@
       <c r="U204" s="6"/>
       <c r="V204" s="16"/>
       <c r="W204" s="6"/>
-      <c r="X204" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X204" s="6"/>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
       <c r="AA204" s="6" t="n">
@@ -19517,7 +19492,7 @@
         <v>188</v>
       </c>
       <c r="AK204" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AL204" s="6" t="n">
         <v>185</v>
@@ -19540,10 +19515,10 @@
         <v>599</v>
       </c>
       <c r="F205" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G205" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>647</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>618</v>
@@ -19571,9 +19546,7 @@
       <c r="U205" s="6"/>
       <c r="V205" s="16"/>
       <c r="W205" s="6"/>
-      <c r="X205" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X205" s="6"/>
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
       <c r="AA205" s="6" t="n">
@@ -19587,7 +19560,7 @@
       <c r="AE205" s="9"/>
       <c r="AF205" s="6"/>
       <c r="AG205" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AH205" s="6"/>
       <c r="AI205" s="6" t="n">
@@ -19618,10 +19591,10 @@
         <v>599</v>
       </c>
       <c r="F206" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>618</v>
@@ -19649,9 +19622,7 @@
       <c r="U206" s="6"/>
       <c r="V206" s="16"/>
       <c r="W206" s="6"/>
-      <c r="X206" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X206" s="6"/>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
       <c r="AA206" s="6" t="n">
@@ -19665,7 +19636,7 @@
       <c r="AE206" s="9"/>
       <c r="AF206" s="6"/>
       <c r="AG206" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH206" s="6"/>
       <c r="AI206" s="6" t="n">
@@ -19696,10 +19667,10 @@
         <v>625</v>
       </c>
       <c r="F207" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="G207" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>602</v>
@@ -19723,9 +19694,7 @@
       <c r="U207" s="6"/>
       <c r="V207" s="16"/>
       <c r="W207" s="6"/>
-      <c r="X207" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X207" s="6"/>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
       <c r="AA207" s="6" t="n">
@@ -19741,7 +19710,7 @@
       </c>
       <c r="AF207" s="6"/>
       <c r="AG207" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH207" s="6" t="s">
         <v>632</v>
@@ -19753,7 +19722,7 @@
         <v>191</v>
       </c>
       <c r="AK207" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL207" s="13" t="n">
         <v>303</v>
@@ -19776,10 +19745,10 @@
         <v>625</v>
       </c>
       <c r="F208" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="G208" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>91</v>
@@ -19809,9 +19778,7 @@
       <c r="U208" s="6"/>
       <c r="V208" s="16"/>
       <c r="W208" s="6"/>
-      <c r="X208" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X208" s="6"/>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
       <c r="AA208" s="6" t="n">
@@ -19854,10 +19821,10 @@
         <v>625</v>
       </c>
       <c r="F209" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>659</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>91</v>
@@ -19887,9 +19854,7 @@
       <c r="U209" s="6"/>
       <c r="V209" s="16"/>
       <c r="W209" s="6"/>
-      <c r="X209" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X209" s="6"/>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
       <c r="AA209" s="6" t="n">
@@ -19932,10 +19897,10 @@
         <v>625</v>
       </c>
       <c r="F210" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G210" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>91</v>
@@ -19965,9 +19930,7 @@
       <c r="U210" s="6"/>
       <c r="V210" s="16"/>
       <c r="W210" s="6"/>
-      <c r="X210" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X210" s="6"/>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
       <c r="AA210" s="6" t="n">
@@ -20010,10 +19973,10 @@
         <v>625</v>
       </c>
       <c r="F211" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G211" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>91</v>
@@ -20043,9 +20006,7 @@
       <c r="U211" s="6"/>
       <c r="V211" s="16"/>
       <c r="W211" s="6"/>
-      <c r="X211" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X211" s="6"/>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
       <c r="AA211" s="6" t="n">
@@ -20088,10 +20049,10 @@
         <v>625</v>
       </c>
       <c r="F212" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="G212" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>91</v>
@@ -20121,9 +20082,7 @@
       <c r="U212" s="6"/>
       <c r="V212" s="16"/>
       <c r="W212" s="6"/>
-      <c r="X212" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X212" s="6"/>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
       <c r="AA212" s="6" t="n">
@@ -20166,10 +20125,10 @@
         <v>599</v>
       </c>
       <c r="F213" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>602</v>
@@ -20193,9 +20152,7 @@
       <c r="U213" s="6"/>
       <c r="V213" s="16"/>
       <c r="W213" s="6"/>
-      <c r="X213" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X213" s="6"/>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
       <c r="AA213" s="6" t="n">
@@ -20219,7 +20176,7 @@
         <v>197</v>
       </c>
       <c r="AK213" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AL213" s="13" t="n">
         <v>302</v>
@@ -20242,10 +20199,10 @@
         <v>599</v>
       </c>
       <c r="F214" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G214" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>91</v>
@@ -20277,9 +20234,7 @@
       <c r="U214" s="6"/>
       <c r="V214" s="16"/>
       <c r="W214" s="6"/>
-      <c r="X214" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X214" s="6"/>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
       <c r="AA214" s="6" t="n">
@@ -20322,10 +20277,10 @@
         <v>599</v>
       </c>
       <c r="F215" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G215" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="G215" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>613</v>
@@ -20350,12 +20305,10 @@
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W215" s="6"/>
-      <c r="X215" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X215" s="6"/>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
       <c r="AA215" s="6" t="n">
@@ -20398,10 +20351,10 @@
         <v>599</v>
       </c>
       <c r="F216" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>618</v>
@@ -20431,9 +20384,7 @@
       <c r="U216" s="6"/>
       <c r="V216" s="16"/>
       <c r="W216" s="6"/>
-      <c r="X216" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="X216" s="6"/>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6" t="n">
@@ -20447,7 +20398,7 @@
       <c r="AE216" s="9"/>
       <c r="AF216" s="6"/>
       <c r="AG216" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AH216" s="6"/>
       <c r="AI216" s="6" t="n">
@@ -20478,10 +20429,10 @@
         <v>599</v>
       </c>
       <c r="F217" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>602</v>
@@ -20505,9 +20456,7 @@
       <c r="U217" s="6"/>
       <c r="V217" s="16"/>
       <c r="W217" s="6"/>
-      <c r="X217" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X217" s="6"/>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6" t="n">
@@ -20531,7 +20480,7 @@
         <v>201</v>
       </c>
       <c r="AK217" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL217" s="13" t="n">
         <v>303</v>
@@ -20554,10 +20503,10 @@
         <v>599</v>
       </c>
       <c r="F218" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>91</v>
@@ -20572,10 +20521,10 @@
         <v>608</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O218" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P218" s="10"/>
       <c r="Q218" s="10"/>
@@ -20589,9 +20538,7 @@
       <c r="U218" s="6"/>
       <c r="V218" s="16"/>
       <c r="W218" s="6"/>
-      <c r="X218" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X218" s="6"/>
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6" t="n">
@@ -20634,10 +20581,10 @@
         <v>599</v>
       </c>
       <c r="F219" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>613</v>
@@ -20662,12 +20609,10 @@
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W219" s="6"/>
-      <c r="X219" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X219" s="6"/>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
       <c r="AA219" s="6" t="n">
@@ -20710,13 +20655,13 @@
         <v>599</v>
       </c>
       <c r="F220" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="G220" s="6" t="s">
-        <v>686</v>
-      </c>
       <c r="H220" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="6" t="n">
@@ -20737,9 +20682,7 @@
       <c r="U220" s="6"/>
       <c r="V220" s="16"/>
       <c r="W220" s="6"/>
-      <c r="X220" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X220" s="6"/>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
       <c r="AA220" s="6" t="n">
@@ -20761,7 +20704,7 @@
         <v>204</v>
       </c>
       <c r="AK220" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AL220" s="6" t="n">
         <v>201</v>
@@ -20784,10 +20727,10 @@
         <v>599</v>
       </c>
       <c r="F221" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>618</v>
@@ -20815,9 +20758,7 @@
       <c r="U221" s="6"/>
       <c r="V221" s="16"/>
       <c r="W221" s="6"/>
-      <c r="X221" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X221" s="6"/>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
       <c r="AA221" s="6" t="n">
@@ -20831,7 +20772,7 @@
       <c r="AE221" s="9"/>
       <c r="AF221" s="6"/>
       <c r="AG221" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AH221" s="6"/>
       <c r="AI221" s="6" t="n">
@@ -20862,10 +20803,10 @@
         <v>599</v>
       </c>
       <c r="F222" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G222" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>618</v>
@@ -20893,9 +20834,7 @@
       <c r="U222" s="6"/>
       <c r="V222" s="16"/>
       <c r="W222" s="6"/>
-      <c r="X222" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X222" s="6"/>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
       <c r="AA222" s="6" t="n">
@@ -20909,7 +20848,7 @@
       <c r="AE222" s="9"/>
       <c r="AF222" s="6"/>
       <c r="AG222" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH222" s="6"/>
       <c r="AI222" s="6" t="n">
@@ -20940,10 +20879,10 @@
         <v>599</v>
       </c>
       <c r="F223" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>602</v>
@@ -20970,6 +20909,7 @@
       <c r="X223" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
       <c r="AA223" s="6"/>
       <c r="AB223" s="6"/>
@@ -20990,7 +20930,7 @@
         <v>207</v>
       </c>
       <c r="AK223" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AL223" s="13" t="n">
         <v>320</v>
@@ -21013,10 +20953,10 @@
         <v>599</v>
       </c>
       <c r="F224" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>91</v>
@@ -21031,20 +20971,20 @@
         <v>608</v>
       </c>
       <c r="N224" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="O224" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="O224" s="10" t="s">
-        <v>698</v>
-      </c>
       <c r="P224" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q224" s="10"/>
       <c r="R224" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S224" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
@@ -21053,6 +20993,7 @@
       <c r="X224" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
       <c r="AA224" s="6"/>
       <c r="AB224" s="6"/>
@@ -21092,10 +21033,10 @@
         <v>599</v>
       </c>
       <c r="F225" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>701</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>613</v>
@@ -21120,12 +21061,13 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W225" s="6"/>
       <c r="X225" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
@@ -21165,13 +21107,13 @@
         <v>599</v>
       </c>
       <c r="F226" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="G226" s="6" t="s">
-        <v>704</v>
-      </c>
       <c r="H226" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="n">
@@ -21195,6 +21137,7 @@
       <c r="X226" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="6"/>
@@ -21213,7 +21156,7 @@
         <v>210</v>
       </c>
       <c r="AK226" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AL226" s="6" t="n">
         <v>207</v>
@@ -21236,10 +21179,10 @@
         <v>599</v>
       </c>
       <c r="F227" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="G227" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="G227" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>618</v>
@@ -21249,10 +21192,10 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="N227" s="10" t="n">
-        <v>5449000193223</v>
+        <v>707</v>
+      </c>
+      <c r="N227" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
@@ -21270,6 +21213,7 @@
       <c r="X227" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
@@ -21280,7 +21224,7 @@
       <c r="AE227" s="9"/>
       <c r="AF227" s="6"/>
       <c r="AG227" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AH227" s="6"/>
       <c r="AI227" s="6" t="n">
@@ -21311,10 +21255,10 @@
         <v>599</v>
       </c>
       <c r="F228" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G228" s="10" t="s">
         <v>710</v>
-      </c>
-      <c r="G228" s="10" t="s">
-        <v>711</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>618</v>
@@ -21324,10 +21268,10 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="N228" s="10" t="n">
-        <v>5449000233592</v>
+        <v>323</v>
+      </c>
+      <c r="N228" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
@@ -21345,6 +21289,7 @@
       <c r="X228" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y228" s="6"/>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
@@ -21355,7 +21300,7 @@
       <c r="AE228" s="9"/>
       <c r="AF228" s="6"/>
       <c r="AG228" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AH228" s="6"/>
       <c r="AI228" s="6" t="n">
@@ -21386,10 +21331,10 @@
         <v>599</v>
       </c>
       <c r="F229" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G229" s="10" t="s">
         <v>713</v>
-      </c>
-      <c r="G229" s="10" t="s">
-        <v>714</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>618</v>
@@ -21399,10 +21344,10 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N229" s="10" t="n">
-        <v>5449000032805</v>
+        <v>5449000005489</v>
       </c>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
@@ -21420,6 +21365,7 @@
       <c r="X229" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
@@ -21430,7 +21376,7 @@
       <c r="AE229" s="9"/>
       <c r="AF229" s="6"/>
       <c r="AG229" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AH229" s="6"/>
       <c r="AI229" s="6" t="n">
@@ -21461,10 +21407,10 @@
         <v>599</v>
       </c>
       <c r="F230" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G230" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>602</v>
@@ -21512,7 +21458,7 @@
         <v>214</v>
       </c>
       <c r="AK230" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AL230" s="13" t="n">
         <v>302</v>
@@ -21535,10 +21481,10 @@
         <v>599</v>
       </c>
       <c r="F231" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G231" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21613,10 +21559,10 @@
         <v>599</v>
       </c>
       <c r="F232" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G232" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>613</v>
@@ -21641,7 +21587,7 @@
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W232" s="6"/>
       <c r="X232" s="6"/>
@@ -21687,13 +21633,13 @@
         <v>599</v>
       </c>
       <c r="F233" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="G233" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G233" s="6" t="s">
-        <v>725</v>
-      </c>
       <c r="H233" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6" t="n">
@@ -21759,7 +21705,7 @@
         <v>599</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G234" s="10" t="s">
         <v>144</v>
@@ -21806,7 +21752,7 @@
       <c r="AE234" s="9"/>
       <c r="AF234" s="6"/>
       <c r="AG234" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AH234" s="6"/>
       <c r="AI234" s="6" t="n">
@@ -21837,10 +21783,10 @@
         <v>599</v>
       </c>
       <c r="F235" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G235" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="H235" s="6" t="s">
         <v>602</v>
@@ -21864,9 +21810,7 @@
       <c r="U235" s="6"/>
       <c r="V235" s="16"/>
       <c r="W235" s="6"/>
-      <c r="X235" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X235" s="6"/>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
       <c r="AA235" s="6" t="n">
@@ -21890,7 +21834,7 @@
         <v>219</v>
       </c>
       <c r="AK235" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AL235" s="13" t="n">
         <v>303</v>
@@ -21913,10 +21857,10 @@
         <v>599</v>
       </c>
       <c r="F236" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>91</v>
@@ -21931,10 +21875,10 @@
         <v>608</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O236" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
@@ -21948,9 +21892,7 @@
       <c r="U236" s="6"/>
       <c r="V236" s="16"/>
       <c r="W236" s="6"/>
-      <c r="X236" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X236" s="6"/>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
       <c r="AA236" s="6" t="n">
@@ -21993,10 +21935,10 @@
         <v>599</v>
       </c>
       <c r="F237" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G237" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>613</v>
@@ -22021,12 +21963,10 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W237" s="6"/>
-      <c r="X237" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X237" s="6"/>
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
       <c r="AA237" s="6" t="n">
@@ -22069,10 +22009,10 @@
         <v>599</v>
       </c>
       <c r="F238" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="G238" s="10" t="s">
         <v>735</v>
-      </c>
-      <c r="G238" s="10" t="s">
-        <v>736</v>
       </c>
       <c r="H238" s="6" t="s">
         <v>91</v>
@@ -22102,9 +22042,7 @@
       <c r="U238" s="6"/>
       <c r="V238" s="16"/>
       <c r="W238" s="6"/>
-      <c r="X238" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="X238" s="6"/>
       <c r="Y238" s="6"/>
       <c r="Z238" s="6"/>
       <c r="AA238" s="6" t="n">
@@ -22118,7 +22056,7 @@
       <c r="AE238" s="9"/>
       <c r="AF238" s="6"/>
       <c r="AG238" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AH238" s="6"/>
       <c r="AI238" s="6" t="n">
@@ -22149,10 +22087,10 @@
         <v>599</v>
       </c>
       <c r="F239" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G239" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="H239" s="6" t="s">
         <v>602</v>
@@ -22200,7 +22138,7 @@
         <v>223</v>
       </c>
       <c r="AK239" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AL239" s="13" t="n">
         <v>321</v>
@@ -22223,10 +22161,10 @@
         <v>599</v>
       </c>
       <c r="F240" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="G240" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="H240" s="6" t="s">
         <v>91</v>
@@ -22241,10 +22179,10 @@
         <v>608</v>
       </c>
       <c r="N240" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O240" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
@@ -22301,10 +22239,10 @@
         <v>599</v>
       </c>
       <c r="F241" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G241" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>745</v>
       </c>
       <c r="H241" s="6" t="s">
         <v>613</v>
@@ -22329,7 +22267,7 @@
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W241" s="6"/>
       <c r="X241" s="6" t="s">
@@ -22375,13 +22313,13 @@
         <v>599</v>
       </c>
       <c r="F242" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G242" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="G242" s="6" t="s">
-        <v>748</v>
-      </c>
       <c r="H242" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I242" s="6"/>
       <c r="J242" s="6" t="n">
@@ -22424,7 +22362,7 @@
         <v>226</v>
       </c>
       <c r="AK242" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AL242" s="6" t="n">
         <v>223</v>
@@ -22447,10 +22385,10 @@
         <v>599</v>
       </c>
       <c r="F243" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G243" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>751</v>
       </c>
       <c r="H243" s="6" t="s">
         <v>618</v>
@@ -22492,7 +22430,7 @@
       <c r="AE243" s="9"/>
       <c r="AF243" s="6"/>
       <c r="AG243" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AH243" s="6"/>
       <c r="AI243" s="6" t="n">
@@ -22523,10 +22461,10 @@
         <v>599</v>
       </c>
       <c r="F244" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G244" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="G244" s="6" t="s">
-        <v>754</v>
       </c>
       <c r="H244" s="6" t="s">
         <v>618</v>
@@ -22568,7 +22506,7 @@
       <c r="AE244" s="9"/>
       <c r="AF244" s="6"/>
       <c r="AG244" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH244" s="6"/>
       <c r="AI244" s="6" t="n">
@@ -22599,10 +22537,10 @@
         <v>599</v>
       </c>
       <c r="F245" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G245" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="H245" s="6" t="s">
         <v>602</v>
@@ -22630,7 +22568,7 @@
       <c r="Y245" s="6"/>
       <c r="Z245" s="6"/>
       <c r="AA245" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB245" s="6"/>
       <c r="AC245" s="6"/>
@@ -22650,7 +22588,7 @@
         <v>229</v>
       </c>
       <c r="AK245" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AL245" s="13" t="n">
         <v>302</v>
@@ -22673,10 +22611,10 @@
         <v>599</v>
       </c>
       <c r="F246" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="G246" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="H246" s="6" t="s">
         <v>91</v>
@@ -22712,7 +22650,7 @@
       <c r="Y246" s="6"/>
       <c r="Z246" s="6"/>
       <c r="AA246" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB246" s="6"/>
       <c r="AC246" s="6"/>
@@ -22751,10 +22689,10 @@
         <v>599</v>
       </c>
       <c r="F247" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="G247" s="6" t="s">
         <v>762</v>
-      </c>
-      <c r="G247" s="6" t="s">
-        <v>763</v>
       </c>
       <c r="H247" s="6" t="s">
         <v>613</v>
@@ -22779,14 +22717,14 @@
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="W247" s="6"/>
       <c r="X247" s="6"/>
       <c r="Y247" s="6"/>
       <c r="Z247" s="6"/>
       <c r="AA247" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB247" s="6"/>
       <c r="AC247" s="6"/>
@@ -22825,10 +22763,10 @@
         <v>599</v>
       </c>
       <c r="F248" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G248" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="H248" s="6" t="s">
         <v>618</v>
@@ -22838,7 +22776,7 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N248" s="10" t="s">
         <v>103</v>
@@ -22862,7 +22800,7 @@
       <c r="Y248" s="6"/>
       <c r="Z248" s="6"/>
       <c r="AA248" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB248" s="6"/>
       <c r="AC248" s="6"/>
@@ -22872,7 +22810,7 @@
       <c r="AE248" s="9"/>
       <c r="AF248" s="6"/>
       <c r="AG248" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH248" s="6"/>
       <c r="AI248" s="6" t="n">
@@ -22900,16 +22838,16 @@
         <v>620</v>
       </c>
       <c r="E249" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="F249" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="F249" s="6" t="s">
+      <c r="G249" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="G249" s="6" t="s">
+      <c r="H249" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="H249" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="7" t="n">
@@ -22937,7 +22875,7 @@
       <c r="V249" s="6"/>
       <c r="W249" s="6"/>
       <c r="X249" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y249" s="6"/>
       <c r="Z249" s="6"/>
@@ -22945,7 +22883,7 @@
       <c r="AB249" s="6"/>
       <c r="AC249" s="6"/>
       <c r="AD249" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE249" s="9" t="n">
         <v>0.0725</v>
@@ -22981,13 +22919,13 @@
         <v>625</v>
       </c>
       <c r="F250" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="G250" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="G250" s="6" t="s">
+      <c r="H250" s="6" t="s">
         <v>776</v>
-      </c>
-      <c r="H250" s="6" t="s">
-        <v>777</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6" t="n">
@@ -23009,14 +22947,14 @@
       <c r="V250" s="6"/>
       <c r="W250" s="6"/>
       <c r="X250" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
       <c r="AA250" s="15"/>
       <c r="AB250" s="6"/>
       <c r="AC250" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD250" s="6" t="s">
         <v>97</v>
@@ -23034,7 +22972,7 @@
         <v>234</v>
       </c>
       <c r="AK250" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AL250" s="20" t="n">
         <v>501</v>
@@ -23057,10 +22995,10 @@
         <v>625</v>
       </c>
       <c r="F251" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="G251" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>91</v>
@@ -23091,14 +23029,14 @@
       <c r="V251" s="6"/>
       <c r="W251" s="6"/>
       <c r="X251" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
       <c r="AA251" s="15"/>
       <c r="AB251" s="6"/>
       <c r="AC251" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD251" s="6" t="s">
         <v>97</v>
@@ -23135,10 +23073,10 @@
         <v>625</v>
       </c>
       <c r="F252" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G252" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="H252" s="6" t="s">
         <v>91</v>
@@ -23150,7 +23088,7 @@
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N252" s="10" t="s">
         <v>103</v>
@@ -23169,14 +23107,14 @@
       <c r="V252" s="6"/>
       <c r="W252" s="6"/>
       <c r="X252" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y252" s="6"/>
       <c r="Z252" s="6"/>
       <c r="AA252" s="15"/>
       <c r="AB252" s="6"/>
       <c r="AC252" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD252" s="6" t="s">
         <v>97</v>
@@ -23213,10 +23151,10 @@
         <v>625</v>
       </c>
       <c r="F253" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G253" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="H253" s="6" t="s">
         <v>91</v>
@@ -23247,14 +23185,14 @@
       <c r="V253" s="6"/>
       <c r="W253" s="6"/>
       <c r="X253" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y253" s="6"/>
       <c r="Z253" s="6"/>
       <c r="AA253" s="15"/>
       <c r="AB253" s="6"/>
       <c r="AC253" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD253" s="6" t="s">
         <v>97</v>
@@ -23291,10 +23229,10 @@
         <v>625</v>
       </c>
       <c r="F254" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="G254" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>91</v>
@@ -23325,14 +23263,14 @@
       <c r="V254" s="6"/>
       <c r="W254" s="6"/>
       <c r="X254" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y254" s="6"/>
       <c r="Z254" s="6"/>
       <c r="AA254" s="15"/>
       <c r="AB254" s="6"/>
       <c r="AC254" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD254" s="6" t="s">
         <v>97</v>
@@ -23369,10 +23307,10 @@
         <v>625</v>
       </c>
       <c r="F255" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="G255" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>91</v>
@@ -23403,14 +23341,14 @@
       <c r="V255" s="6"/>
       <c r="W255" s="6"/>
       <c r="X255" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y255" s="6"/>
       <c r="Z255" s="6"/>
       <c r="AA255" s="15"/>
       <c r="AB255" s="6"/>
       <c r="AC255" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD255" s="6" t="s">
         <v>97</v>
@@ -23447,10 +23385,10 @@
         <v>625</v>
       </c>
       <c r="F256" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G256" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="H256" s="6" t="s">
         <v>91</v>
@@ -23462,7 +23400,7 @@
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
       <c r="M256" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N256" s="10" t="s">
         <v>157</v>
@@ -23481,14 +23419,14 @@
       <c r="V256" s="6"/>
       <c r="W256" s="6"/>
       <c r="X256" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y256" s="6"/>
       <c r="Z256" s="6"/>
       <c r="AA256" s="15"/>
       <c r="AB256" s="6"/>
       <c r="AC256" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD256" s="6" t="s">
         <v>97</v>
@@ -23525,10 +23463,10 @@
         <v>625</v>
       </c>
       <c r="F257" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="G257" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="H257" s="6" t="s">
         <v>91</v>
@@ -23559,14 +23497,14 @@
       <c r="V257" s="6"/>
       <c r="W257" s="6"/>
       <c r="X257" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
       <c r="AA257" s="15"/>
       <c r="AB257" s="6"/>
       <c r="AC257" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD257" s="6" t="s">
         <v>97</v>
@@ -23603,10 +23541,10 @@
         <v>625</v>
       </c>
       <c r="F258" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="G258" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>796</v>
       </c>
       <c r="H258" s="6" t="s">
         <v>91</v>
@@ -23637,14 +23575,14 @@
       <c r="V258" s="6"/>
       <c r="W258" s="6"/>
       <c r="X258" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y258" s="6"/>
       <c r="Z258" s="6"/>
       <c r="AA258" s="15"/>
       <c r="AB258" s="6"/>
       <c r="AC258" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD258" s="6" t="s">
         <v>97</v>
@@ -23678,16 +23616,16 @@
         <v>40</v>
       </c>
       <c r="E259" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="F259" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="F259" s="6" t="s">
+      <c r="G259" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="G259" s="6" t="s">
-        <v>799</v>
-      </c>
       <c r="H259" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="7" t="n">
@@ -23699,10 +23637,10 @@
         <v>608</v>
       </c>
       <c r="N259" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O259" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P259" s="10"/>
       <c r="Q259" s="6"/>
@@ -23715,7 +23653,7 @@
       <c r="V259" s="6"/>
       <c r="W259" s="6"/>
       <c r="X259" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
@@ -23723,7 +23661,7 @@
       <c r="AB259" s="6"/>
       <c r="AC259" s="6"/>
       <c r="AD259" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE259" s="9" t="n">
         <v>0.0625</v>
@@ -23759,13 +23697,13 @@
         <v>625</v>
       </c>
       <c r="F260" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="G260" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="G260" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="H260" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="6" t="n">
@@ -23787,14 +23725,14 @@
       <c r="V260" s="6"/>
       <c r="W260" s="6"/>
       <c r="X260" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
       <c r="AA260" s="15"/>
       <c r="AB260" s="6"/>
       <c r="AC260" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD260" s="6" t="s">
         <v>97</v>
@@ -23812,7 +23750,7 @@
         <v>244</v>
       </c>
       <c r="AK260" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AL260" s="20" t="n">
         <v>502</v>
@@ -23835,10 +23773,10 @@
         <v>625</v>
       </c>
       <c r="F261" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="G261" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="G261" s="6" t="s">
-        <v>804</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>91</v>
@@ -23869,14 +23807,14 @@
       <c r="V261" s="6"/>
       <c r="W261" s="6"/>
       <c r="X261" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y261" s="6"/>
       <c r="Z261" s="6"/>
       <c r="AA261" s="15"/>
       <c r="AB261" s="6"/>
       <c r="AC261" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD261" s="6" t="s">
         <v>97</v>
@@ -23913,10 +23851,10 @@
         <v>625</v>
       </c>
       <c r="F262" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="G262" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="G262" s="6" t="s">
-        <v>806</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>91</v>
@@ -23947,14 +23885,14 @@
       <c r="V262" s="6"/>
       <c r="W262" s="6"/>
       <c r="X262" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y262" s="6"/>
       <c r="Z262" s="6"/>
       <c r="AA262" s="15"/>
       <c r="AB262" s="6"/>
       <c r="AC262" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD262" s="6" t="s">
         <v>97</v>
@@ -23991,10 +23929,10 @@
         <v>625</v>
       </c>
       <c r="F263" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G263" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>808</v>
       </c>
       <c r="H263" s="6" t="s">
         <v>91</v>
@@ -24025,14 +23963,14 @@
       <c r="V263" s="6"/>
       <c r="W263" s="6"/>
       <c r="X263" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
       <c r="AA263" s="15"/>
       <c r="AB263" s="6"/>
       <c r="AC263" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD263" s="6" t="s">
         <v>97</v>
@@ -24069,10 +24007,10 @@
         <v>625</v>
       </c>
       <c r="F264" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="G264" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="G264" s="6" t="s">
-        <v>810</v>
       </c>
       <c r="H264" s="6" t="s">
         <v>91</v>
@@ -24103,14 +24041,14 @@
       <c r="V264" s="6"/>
       <c r="W264" s="6"/>
       <c r="X264" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
       <c r="AA264" s="15"/>
       <c r="AB264" s="6"/>
       <c r="AC264" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD264" s="6" t="s">
         <v>97</v>
@@ -24147,10 +24085,10 @@
         <v>625</v>
       </c>
       <c r="F265" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G265" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="H265" s="6" t="s">
         <v>91</v>
@@ -24181,14 +24119,14 @@
       <c r="V265" s="6"/>
       <c r="W265" s="6"/>
       <c r="X265" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y265" s="6"/>
       <c r="Z265" s="6"/>
       <c r="AA265" s="15"/>
       <c r="AB265" s="6"/>
       <c r="AC265" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD265" s="6" t="s">
         <v>97</v>
@@ -24222,16 +24160,16 @@
         <v>40</v>
       </c>
       <c r="E266" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="F266" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="F266" s="6" t="s">
+      <c r="G266" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="G266" s="6" t="s">
-        <v>815</v>
-      </c>
       <c r="H266" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I266" s="6"/>
       <c r="J266" s="7" t="n">
@@ -24243,10 +24181,10 @@
         <v>608</v>
       </c>
       <c r="N266" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O266" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P266" s="10"/>
       <c r="Q266" s="6"/>
@@ -24259,7 +24197,7 @@
       <c r="V266" s="6"/>
       <c r="W266" s="6"/>
       <c r="X266" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
@@ -24267,7 +24205,7 @@
       <c r="AB266" s="6"/>
       <c r="AC266" s="6"/>
       <c r="AD266" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE266" s="9" t="n">
         <v>0.0225</v>
@@ -24303,13 +24241,13 @@
         <v>625</v>
       </c>
       <c r="F267" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G267" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="G267" s="6" t="s">
-        <v>818</v>
-      </c>
       <c r="H267" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I267" s="6"/>
       <c r="J267" s="6" t="n">
@@ -24331,14 +24269,14 @@
       <c r="V267" s="6"/>
       <c r="W267" s="6"/>
       <c r="X267" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
       <c r="AA267" s="15"/>
       <c r="AB267" s="6"/>
       <c r="AC267" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD267" s="6" t="s">
         <v>97</v>
@@ -24379,7 +24317,7 @@
         <v>625</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G268" s="6" t="s">
         <v>232</v>
@@ -24413,14 +24351,14 @@
       <c r="V268" s="6"/>
       <c r="W268" s="6"/>
       <c r="X268" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y268" s="6"/>
       <c r="Z268" s="6"/>
       <c r="AA268" s="15"/>
       <c r="AB268" s="6"/>
       <c r="AC268" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD268" s="6" t="s">
         <v>97</v>
@@ -24454,16 +24392,16 @@
         <v>40</v>
       </c>
       <c r="E269" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="F269" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="F269" s="6" t="s">
+      <c r="G269" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="G269" s="6" t="s">
-        <v>822</v>
-      </c>
       <c r="H269" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I269" s="6"/>
       <c r="J269" s="7" t="n">
@@ -24475,10 +24413,10 @@
         <v>608</v>
       </c>
       <c r="N269" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O269" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P269" s="10"/>
       <c r="Q269" s="6"/>
@@ -24491,7 +24429,7 @@
       <c r="V269" s="6"/>
       <c r="W269" s="6"/>
       <c r="X269" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y269" s="6"/>
       <c r="Z269" s="6"/>
@@ -24499,7 +24437,7 @@
       <c r="AB269" s="6"/>
       <c r="AC269" s="6"/>
       <c r="AD269" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE269" s="9" t="n">
         <v>0.0425</v>
@@ -24535,13 +24473,13 @@
         <v>625</v>
       </c>
       <c r="F270" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="G270" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="G270" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="H270" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I270" s="6"/>
       <c r="J270" s="6" t="n">
@@ -24563,14 +24501,14 @@
       <c r="V270" s="6"/>
       <c r="W270" s="6"/>
       <c r="X270" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y270" s="6"/>
       <c r="Z270" s="6"/>
       <c r="AA270" s="15"/>
       <c r="AB270" s="6"/>
       <c r="AC270" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD270" s="6" t="s">
         <v>97</v>
@@ -24588,7 +24526,7 @@
         <v>254</v>
       </c>
       <c r="AK270" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AL270" s="20" t="n">
         <v>504</v>
@@ -24611,10 +24549,10 @@
         <v>625</v>
       </c>
       <c r="F271" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="G271" s="6" t="s">
         <v>827</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>828</v>
       </c>
       <c r="H271" s="6" t="s">
         <v>91</v>
@@ -24645,14 +24583,14 @@
       <c r="V271" s="6"/>
       <c r="W271" s="6"/>
       <c r="X271" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y271" s="6"/>
       <c r="Z271" s="6"/>
       <c r="AA271" s="15"/>
       <c r="AB271" s="6"/>
       <c r="AC271" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD271" s="6" t="s">
         <v>97</v>
@@ -24689,10 +24627,10 @@
         <v>625</v>
       </c>
       <c r="F272" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="G272" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>830</v>
       </c>
       <c r="H272" s="6" t="s">
         <v>91</v>
@@ -24723,14 +24661,14 @@
       <c r="V272" s="6"/>
       <c r="W272" s="6"/>
       <c r="X272" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y272" s="6"/>
       <c r="Z272" s="6"/>
       <c r="AA272" s="15"/>
       <c r="AB272" s="6"/>
       <c r="AC272" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD272" s="6" t="s">
         <v>97</v>
@@ -24764,16 +24702,16 @@
         <v>40</v>
       </c>
       <c r="E273" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="F273" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="F273" s="6" t="s">
+      <c r="G273" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G273" s="6" t="s">
-        <v>833</v>
-      </c>
       <c r="H273" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I273" s="6"/>
       <c r="J273" s="7" t="n">
@@ -24785,10 +24723,10 @@
         <v>608</v>
       </c>
       <c r="N273" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O273" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P273" s="10"/>
       <c r="Q273" s="6"/>
@@ -24801,7 +24739,7 @@
       <c r="V273" s="6"/>
       <c r="W273" s="6"/>
       <c r="X273" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
@@ -24809,7 +24747,7 @@
       <c r="AB273" s="6"/>
       <c r="AC273" s="6"/>
       <c r="AD273" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE273" s="9" t="n">
         <v>0.04</v>
@@ -24842,16 +24780,16 @@
         <v>40</v>
       </c>
       <c r="E274" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="F274" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="F274" s="6" t="s">
+      <c r="G274" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="G274" s="6" t="s">
+      <c r="H274" s="6" t="s">
         <v>836</v>
-      </c>
-      <c r="H274" s="6" t="s">
-        <v>837</v>
       </c>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
@@ -24863,7 +24801,7 @@
       <c r="P274" s="10"/>
       <c r="Q274" s="10"/>
       <c r="R274" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
@@ -24871,7 +24809,7 @@
       <c r="V274" s="6"/>
       <c r="W274" s="6"/>
       <c r="X274" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y274" s="6"/>
       <c r="Z274" s="6"/>
@@ -24879,14 +24817,14 @@
       <c r="AB274" s="6"/>
       <c r="AC274" s="6"/>
       <c r="AD274" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE274" s="9" t="n">
         <v>0.065</v>
       </c>
       <c r="AF274" s="6"/>
       <c r="AG274" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AH274" s="6"/>
       <c r="AI274" s="6" t="n">
@@ -24896,7 +24834,7 @@
         <v>258</v>
       </c>
       <c r="AK274" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AL274" s="13" t="n">
         <v>311</v>
@@ -24916,16 +24854,16 @@
         <v>40</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F275" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G275" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="G275" s="6" t="s">
+      <c r="H275" s="6" t="s">
         <v>843</v>
-      </c>
-      <c r="H275" s="6" t="s">
-        <v>844</v>
       </c>
       <c r="I275" s="6"/>
       <c r="J275" s="6" t="n">
@@ -24939,21 +24877,21 @@
         <v>608</v>
       </c>
       <c r="N275" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O275" s="10"/>
       <c r="P275" s="10"/>
       <c r="Q275" s="10"/>
       <c r="R275" s="6"/>
       <c r="S275" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T275" s="6"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
       <c r="W275" s="6"/>
       <c r="X275" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y275" s="6"/>
       <c r="Z275" s="6"/>
@@ -24992,16 +24930,16 @@
         <v>40</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F276" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="G276" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="G276" s="6" t="s">
+      <c r="H276" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="H276" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="I276" s="6"/>
       <c r="J276" s="6" t="n">
@@ -25013,21 +24951,21 @@
         <v>608</v>
       </c>
       <c r="N276" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O276" s="10"/>
       <c r="P276" s="10"/>
       <c r="Q276" s="10"/>
       <c r="R276" s="6"/>
       <c r="S276" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
       <c r="W276" s="6"/>
       <c r="X276" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Y276" s="6"/>
       <c r="Z276" s="6"/>
@@ -25069,10 +25007,10 @@
         <v>625</v>
       </c>
       <c r="F277" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="G277" s="6" t="s">
         <v>849</v>
-      </c>
-      <c r="G277" s="6" t="s">
-        <v>850</v>
       </c>
       <c r="H277" s="6" t="s">
         <v>613</v>
@@ -25090,16 +25028,16 @@
       <c r="Q277" s="10"/>
       <c r="R277" s="6"/>
       <c r="S277" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="W277" s="6"/>
       <c r="X277" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y277" s="6"/>
       <c r="Z277" s="6"/>
@@ -25114,10 +25052,10 @@
       </c>
       <c r="AF277" s="6"/>
       <c r="AG277" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AH277" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI277" s="6" t="n">
         <v>2</v>
@@ -25147,13 +25085,13 @@
         <v>625</v>
       </c>
       <c r="F278" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="G278" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="G278" s="6" t="s">
+      <c r="H278" s="24" t="s">
         <v>855</v>
-      </c>
-      <c r="H278" s="24" t="s">
-        <v>856</v>
       </c>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
@@ -25167,21 +25105,21 @@
         <v>608</v>
       </c>
       <c r="N278" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O278" s="10"/>
       <c r="P278" s="10"/>
       <c r="Q278" s="10"/>
       <c r="R278" s="6"/>
       <c r="S278" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
       <c r="W278" s="6"/>
       <c r="X278" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
@@ -25196,10 +25134,10 @@
       </c>
       <c r="AF278" s="6"/>
       <c r="AG278" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AH278" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI278" s="6" t="n">
         <v>2</v>
@@ -25229,10 +25167,10 @@
         <v>625</v>
       </c>
       <c r="F279" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="G279" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="G279" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="H279" s="6" t="s">
         <v>86</v>
@@ -25255,7 +25193,7 @@
       <c r="V279" s="6"/>
       <c r="W279" s="6"/>
       <c r="X279" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y279" s="6"/>
       <c r="Z279" s="6"/>
@@ -25263,7 +25201,7 @@
       <c r="AB279" s="6"/>
       <c r="AC279" s="6"/>
       <c r="AD279" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE279" s="9" t="n">
         <v>0.01625</v>
@@ -25272,10 +25210,10 @@
         <v>1</v>
       </c>
       <c r="AG279" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AH279" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI279" s="6" t="n">
         <v>2</v>
@@ -25284,7 +25222,7 @@
         <v>263</v>
       </c>
       <c r="AK279" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL279" s="23" t="n">
         <v>312</v>
@@ -25305,13 +25243,13 @@
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="G280" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="G280" s="6" t="s">
-        <v>862</v>
-      </c>
       <c r="H280" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I280" s="6"/>
       <c r="J280" s="6" t="n">
@@ -25320,46 +25258,46 @@
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
       <c r="M280" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="N280" s="10" t="s">
         <v>863</v>
-      </c>
-      <c r="N280" s="10" t="s">
-        <v>864</v>
       </c>
       <c r="O280" s="10"/>
       <c r="P280" s="10"/>
       <c r="Q280" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R280" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S280" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T280" s="6"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
       <c r="W280" s="6"/>
       <c r="X280" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y280" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Z280" s="6"/>
       <c r="AA280" s="6"/>
       <c r="AB280" s="6"/>
       <c r="AC280" s="6"/>
       <c r="AD280" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE280" s="9"/>
       <c r="AF280" s="6"/>
       <c r="AG280" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH280" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI280" s="6" t="n">
         <v>3</v>
@@ -25387,13 +25325,13 @@
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="G281" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="G281" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="H281" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I281" s="6"/>
       <c r="J281" s="6" t="n">
@@ -25402,46 +25340,46 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="N281" s="10" t="s">
         <v>863</v>
-      </c>
-      <c r="N281" s="10" t="s">
-        <v>864</v>
       </c>
       <c r="O281" s="10"/>
       <c r="P281" s="10"/>
       <c r="Q281" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R281" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S281" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T281" s="6"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
       <c r="W281" s="6"/>
       <c r="X281" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y281" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Z281" s="6"/>
       <c r="AA281" s="6"/>
       <c r="AB281" s="6"/>
       <c r="AC281" s="6"/>
       <c r="AD281" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE281" s="9"/>
       <c r="AF281" s="6"/>
       <c r="AG281" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH281" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI281" s="6" t="n">
         <v>3</v>
@@ -25469,13 +25407,13 @@
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="G282" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="G282" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="H282" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I282" s="6"/>
       <c r="J282" s="6" t="n">
@@ -25497,7 +25435,7 @@
       <c r="V282" s="6"/>
       <c r="W282" s="6"/>
       <c r="X282" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
@@ -25505,7 +25443,7 @@
       <c r="AB282" s="6"/>
       <c r="AC282" s="6"/>
       <c r="AD282" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE282" s="9"/>
       <c r="AF282" s="6"/>
@@ -25518,7 +25456,7 @@
         <v>267</v>
       </c>
       <c r="AK282" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AL282" s="6" t="n">
         <v>263</v>
@@ -25539,10 +25477,10 @@
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G283" s="6" t="s">
         <v>874</v>
-      </c>
-      <c r="G283" s="6" t="s">
-        <v>875</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>91</v>
@@ -25554,35 +25492,35 @@
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
       <c r="M283" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="N283" s="10" t="s">
         <v>863</v>
-      </c>
-      <c r="N283" s="10" t="s">
-        <v>864</v>
       </c>
       <c r="O283" s="10"/>
       <c r="P283" s="10"/>
       <c r="Q283" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R283" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S283" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T283" s="6"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
       <c r="W283" s="6"/>
       <c r="X283" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
       <c r="AA283" s="6"/>
       <c r="AB283" s="6"/>
       <c r="AC283" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD283" s="6" t="s">
         <v>97</v>
@@ -25590,10 +25528,10 @@
       <c r="AE283" s="9"/>
       <c r="AF283" s="6"/>
       <c r="AG283" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH283" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI283" s="6" t="n">
         <v>4</v>
@@ -25621,10 +25559,10 @@
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="G284" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="G284" s="6" t="s">
-        <v>877</v>
       </c>
       <c r="H284" s="6" t="s">
         <v>91</v>
@@ -25636,35 +25574,35 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="N284" s="25" t="s">
         <v>878</v>
-      </c>
-      <c r="N284" s="25" t="s">
-        <v>879</v>
       </c>
       <c r="O284" s="10"/>
       <c r="P284" s="10"/>
       <c r="Q284" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R284" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S284" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
       <c r="W284" s="6"/>
       <c r="X284" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y284" s="6"/>
       <c r="Z284" s="6"/>
       <c r="AA284" s="6"/>
       <c r="AB284" s="6"/>
       <c r="AC284" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AD284" s="6" t="s">
         <v>97</v>
@@ -25672,10 +25610,10 @@
       <c r="AE284" s="9"/>
       <c r="AF284" s="6"/>
       <c r="AG284" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH284" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI284" s="6" t="n">
         <v>4</v>
@@ -25703,13 +25641,13 @@
       </c>
       <c r="E285" s="6"/>
       <c r="F285" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="G285" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="G285" s="6" t="s">
+      <c r="H285" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="H285" s="24" t="s">
-        <v>882</v>
       </c>
       <c r="I285" s="6"/>
       <c r="J285" s="6" t="n">
@@ -25721,7 +25659,7 @@
         <v>608</v>
       </c>
       <c r="N285" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O285" s="10"/>
       <c r="P285" s="10"/>
@@ -25730,14 +25668,14 @@
         <v>93</v>
       </c>
       <c r="S285" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T285" s="6"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
       <c r="W285" s="6"/>
       <c r="X285" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y285" s="6"/>
       <c r="Z285" s="6"/>
@@ -25750,10 +25688,10 @@
       <c r="AE285" s="9"/>
       <c r="AF285" s="6"/>
       <c r="AG285" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH285" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI285" s="6" t="n">
         <v>3</v>
@@ -25783,13 +25721,13 @@
         <v>625</v>
       </c>
       <c r="F286" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G286" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="G286" s="6" t="s">
+      <c r="H286" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="H286" s="6" t="s">
-        <v>885</v>
       </c>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
@@ -25797,21 +25735,21 @@
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
       <c r="N286" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O286" s="10"/>
       <c r="P286" s="10"/>
       <c r="Q286" s="10"/>
       <c r="R286" s="6"/>
       <c r="S286" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T286" s="6"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
       <c r="W286" s="6"/>
       <c r="X286" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y286" s="6"/>
       <c r="Z286" s="6"/>
@@ -25819,17 +25757,17 @@
       <c r="AB286" s="6"/>
       <c r="AC286" s="6"/>
       <c r="AD286" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE286" s="9" t="n">
         <v>0.01625</v>
       </c>
       <c r="AF286" s="6"/>
       <c r="AG286" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AH286" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AI286" s="6" t="n">
         <v>2</v>
@@ -25859,13 +25797,13 @@
         <v>625</v>
       </c>
       <c r="F287" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="G287" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="G287" s="6" t="s">
-        <v>887</v>
-      </c>
       <c r="H287" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I287" s="6"/>
       <c r="J287" s="6" t="n">
@@ -25887,7 +25825,7 @@
       <c r="V287" s="6"/>
       <c r="W287" s="6"/>
       <c r="X287" s="27" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
@@ -25895,7 +25833,7 @@
       <c r="AB287" s="6"/>
       <c r="AC287" s="6"/>
       <c r="AD287" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AE287" s="9" t="n">
         <v>0.03</v>
@@ -25933,13 +25871,13 @@
         <v>625</v>
       </c>
       <c r="F288" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="G288" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="G288" s="6" t="s">
+      <c r="H288" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="H288" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="I288" s="6"/>
       <c r="J288" s="6" t="n">
@@ -25953,7 +25891,7 @@
         <v>608</v>
       </c>
       <c r="N288" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O288" s="10"/>
       <c r="P288" s="10"/>
@@ -25962,14 +25900,14 @@
         <v>93</v>
       </c>
       <c r="S288" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T288" s="6"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
       <c r="W288" s="6"/>
       <c r="X288" s="27" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y288" s="6"/>
       <c r="Z288" s="6"/>
@@ -25977,12 +25915,12 @@
       <c r="AB288" s="6"/>
       <c r="AC288" s="6"/>
       <c r="AD288" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE288" s="9"/>
       <c r="AF288" s="6"/>
       <c r="AG288" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AH288" s="6"/>
       <c r="AI288" s="6" t="n">
@@ -26011,10 +25949,10 @@
       </c>
       <c r="E289" s="6"/>
       <c r="F289" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="G289" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="H289" s="6" t="s">
         <v>86</v>
@@ -26054,7 +25992,7 @@
         <v>274</v>
       </c>
       <c r="AK289" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AL289" s="23" t="n">
         <v>400</v>
@@ -26074,16 +26012,16 @@
         <v>620</v>
       </c>
       <c r="E290" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F290" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="F290" s="6" t="s">
+      <c r="G290" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="G290" s="6" t="s">
+      <c r="H290" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="H290" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="I290" s="6"/>
       <c r="J290" s="6" t="n">
@@ -26093,7 +26031,7 @@
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
       <c r="N290" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O290" s="10"/>
       <c r="P290" s="10"/>
@@ -26102,7 +26040,7 @@
         <v>93</v>
       </c>
       <c r="S290" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
@@ -26110,7 +26048,7 @@
       <c r="W290" s="6"/>
       <c r="X290" s="6"/>
       <c r="Y290" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Z290" s="6"/>
       <c r="AA290" s="15"/>
@@ -26150,16 +26088,16 @@
         <v>620</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F291" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="G291" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="G291" s="6" t="s">
-        <v>902</v>
-      </c>
       <c r="H291" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I291" s="6"/>
       <c r="J291" s="6" t="n">
@@ -26169,7 +26107,7 @@
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
       <c r="N291" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O291" s="10"/>
       <c r="P291" s="10"/>
@@ -26178,7 +26116,7 @@
         <v>93</v>
       </c>
       <c r="S291" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T291" s="6"/>
       <c r="U291" s="6"/>
@@ -26186,7 +26124,7 @@
       <c r="W291" s="6"/>
       <c r="X291" s="6"/>
       <c r="Y291" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Z291" s="6"/>
       <c r="AA291" s="15"/>
@@ -26226,16 +26164,16 @@
         <v>620</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F292" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="G292" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="G292" s="6" t="s">
-        <v>905</v>
-      </c>
       <c r="H292" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I292" s="6"/>
       <c r="J292" s="6" t="n">
@@ -26245,7 +26183,7 @@
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
       <c r="N292" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O292" s="10"/>
       <c r="P292" s="10"/>
@@ -26254,7 +26192,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T292" s="6"/>
       <c r="U292" s="6"/>
@@ -26262,7 +26200,7 @@
       <c r="W292" s="6"/>
       <c r="X292" s="6"/>
       <c r="Y292" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Z292" s="6"/>
       <c r="AA292" s="15"/>
@@ -26299,22 +26237,22 @@
         <v>39</v>
       </c>
       <c r="D293" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E293" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="E293" s="26" t="s">
+      <c r="F293" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="F293" s="26" t="s">
+      <c r="G293" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="G293" s="26" t="s">
+      <c r="H293" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="H293" s="6" t="s">
+      <c r="I293" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="I293" s="6" t="s">
-        <v>912</v>
       </c>
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
@@ -26326,7 +26264,7 @@
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
       <c r="S293" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T293" s="6"/>
       <c r="U293" s="6"/>
@@ -26342,7 +26280,7 @@
       <c r="AE293" s="9"/>
       <c r="AF293" s="6"/>
       <c r="AG293" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AH293" s="6"/>
       <c r="AI293" s="6"/>
@@ -26363,22 +26301,22 @@
         <v>39</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E294" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="F294" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="F294" s="6" t="s">
+      <c r="G294" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="G294" s="21" t="s">
-        <v>917</v>
-      </c>
       <c r="H294" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="I294" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="I294" s="6" t="s">
-        <v>912</v>
       </c>
       <c r="J294" s="6"/>
       <c r="K294" s="6"/>
@@ -26390,7 +26328,7 @@
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
       <c r="S294" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T294" s="6"/>
       <c r="U294" s="6"/>
@@ -26425,36 +26363,36 @@
         <v>39</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E295" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="F295" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="F295" s="26" t="s">
+      <c r="G295" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="H295" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="G295" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="H295" s="6" t="s">
+      <c r="I295" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I295" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
       <c r="N295" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
       <c r="S295" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T295" s="6"/>
       <c r="U295" s="6"/>
@@ -26489,36 +26427,36 @@
         <v>39</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E296" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="F296" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="F296" s="26" t="s">
+      <c r="G296" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="H296" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="G296" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="H296" s="6" t="s">
+      <c r="I296" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I296" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J296" s="6"/>
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
       <c r="N296" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O296" s="6"/>
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
       <c r="S296" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T296" s="6"/>
       <c r="U296" s="6"/>
@@ -26553,22 +26491,22 @@
         <v>39</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E297" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="F297" s="26" t="s">
         <v>924</v>
       </c>
-      <c r="F297" s="26" t="s">
+      <c r="G297" s="26" t="s">
         <v>925</v>
       </c>
-      <c r="G297" s="26" t="s">
+      <c r="H297" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="H297" s="6" t="s">
+      <c r="I297" s="6" t="s">
         <v>927</v>
-      </c>
-      <c r="I297" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
@@ -26580,7 +26518,7 @@
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
       <c r="S297" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T297" s="6"/>
       <c r="U297" s="6"/>
@@ -26615,22 +26553,22 @@
         <v>39</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E298" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="F298" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="F298" s="26" t="s">
+      <c r="G298" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="G298" s="26" t="s">
+      <c r="H298" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="H298" s="6" t="s">
-        <v>932</v>
-      </c>
       <c r="I298" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J298" s="6"/>
       <c r="K298" s="6"/>
@@ -26642,7 +26580,7 @@
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
       <c r="S298" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T298" s="6"/>
       <c r="U298" s="6"/>
@@ -26677,36 +26615,36 @@
         <v>39</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E299" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="F299" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="F299" s="26" t="s">
+      <c r="G299" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="G299" s="26" t="s">
+      <c r="H299" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="H299" s="6" t="s">
-        <v>936</v>
-      </c>
       <c r="I299" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
       <c r="N299" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
       <c r="S299" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="T299" s="6"/>
       <c r="U299" s="6"/>
@@ -26741,36 +26679,36 @@
         <v>39</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E300" s="26" t="s">
+        <v>938</v>
+      </c>
+      <c r="F300" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F300" s="26" t="s">
+      <c r="G300" s="26" t="s">
         <v>940</v>
       </c>
-      <c r="G300" s="26" t="s">
+      <c r="H300" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="H300" s="6" t="s">
-        <v>942</v>
-      </c>
       <c r="I300" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J300" s="6"/>
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
       <c r="N300" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
       <c r="S300" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="T300" s="6"/>
       <c r="U300" s="6"/>
@@ -26805,38 +26743,38 @@
         <v>39</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E301" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F301" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F301" s="26" t="s">
+      <c r="G301" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G301" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H301" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I301" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I301" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
       <c r="M301" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="N301" s="12" t="s">
         <v>947</v>
-      </c>
-      <c r="N301" s="12" t="s">
-        <v>948</v>
       </c>
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
       <c r="R301" s="6"/>
       <c r="S301" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T301" s="6"/>
       <c r="U301" s="6"/>
@@ -26871,38 +26809,38 @@
         <v>39</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E302" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F302" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F302" s="26" t="s">
+      <c r="G302" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G302" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H302" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I302" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I302" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J302" s="6"/>
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
       <c r="M302" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="N302" s="12" t="s">
         <v>947</v>
-      </c>
-      <c r="N302" s="12" t="s">
-        <v>948</v>
       </c>
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
       <c r="R302" s="6"/>
       <c r="S302" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T302" s="6"/>
       <c r="U302" s="6"/>
@@ -26937,38 +26875,38 @@
         <v>39</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E303" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F303" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F303" s="26" t="s">
+      <c r="G303" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G303" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H303" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I303" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I303" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
       <c r="M303" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="N303" s="12" t="s">
         <v>947</v>
-      </c>
-      <c r="N303" s="12" t="s">
-        <v>948</v>
       </c>
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
       <c r="R303" s="6"/>
       <c r="S303" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T303" s="6"/>
       <c r="U303" s="6"/>
@@ -27003,38 +26941,38 @@
         <v>39</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E304" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F304" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F304" s="26" t="s">
+      <c r="G304" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G304" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H304" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I304" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I304" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
       <c r="M304" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N304" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
       <c r="R304" s="6"/>
       <c r="S304" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
@@ -27069,38 +27007,38 @@
         <v>39</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E305" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F305" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F305" s="26" t="s">
+      <c r="G305" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G305" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H305" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I305" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I305" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
       <c r="M305" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N305" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
       <c r="S305" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
@@ -27135,38 +27073,38 @@
         <v>39</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E306" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F306" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F306" s="26" t="s">
+      <c r="G306" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G306" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H306" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I306" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I306" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
       <c r="M306" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N306" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
       <c r="S306" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T306" s="6"/>
       <c r="U306" s="6"/>
@@ -27201,38 +27139,38 @@
         <v>39</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E307" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="F307" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="F307" s="26" t="s">
+      <c r="G307" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="G307" s="26" t="s">
-        <v>946</v>
-      </c>
       <c r="H307" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I307" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="I307" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
       <c r="M307" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N307" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
       <c r="S307" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T307" s="6"/>
       <c r="U307" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="965">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3193,6 +3195,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -3675,54 +3683,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN308"/>
+  <dimension ref="1:309"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F308" activeCellId="0" sqref="F308:F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2955465587045"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.2672064777328"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="72.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.1983805668016"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="73.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.5182186234818"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3843,6 +3852,8 @@
       <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
@@ -3904,6 +3915,8 @@
         <v>44</v>
       </c>
       <c r="AM2" s="7"/>
+      <c r="AN2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
@@ -3965,6 +3978,8 @@
         <v>46</v>
       </c>
       <c r="AM3" s="12"/>
+      <c r="AN3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
@@ -4028,6 +4043,8 @@
       <c r="AM4" s="12" t="n">
         <v>301</v>
       </c>
+      <c r="AN4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
@@ -4091,6 +4108,8 @@
       <c r="AM5" s="12" t="n">
         <v>301</v>
       </c>
+      <c r="AN5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
@@ -4152,6 +4171,8 @@
         <v>55</v>
       </c>
       <c r="AM6" s="12"/>
+      <c r="AN6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
@@ -4215,6 +4236,8 @@
       <c r="AM7" s="12" t="n">
         <v>310</v>
       </c>
+      <c r="AN7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
@@ -4278,6 +4301,8 @@
       <c r="AM8" s="12" t="n">
         <v>310</v>
       </c>
+      <c r="AN8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
@@ -4339,6 +4364,8 @@
         <v>274</v>
       </c>
       <c r="AM9" s="12"/>
+      <c r="AN9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
@@ -4402,6 +4429,8 @@
       <c r="AM10" s="15" t="n">
         <v>520</v>
       </c>
+      <c r="AN10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
@@ -4465,6 +4494,8 @@
       <c r="AM11" s="15" t="n">
         <v>520</v>
       </c>
+      <c r="AN11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
@@ -4528,6 +4559,8 @@
       <c r="AM12" s="15" t="n">
         <v>520</v>
       </c>
+      <c r="AN12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
@@ -4591,6 +4624,8 @@
       <c r="AM13" s="15" t="n">
         <v>520</v>
       </c>
+      <c r="AN13" s="0"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
@@ -4654,6 +4689,8 @@
       <c r="AM14" s="15" t="n">
         <v>520</v>
       </c>
+      <c r="AN14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
@@ -4717,6 +4754,8 @@
       <c r="AM15" s="12" t="n">
         <v>301</v>
       </c>
+      <c r="AN15" s="0"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
@@ -4778,6 +4817,8 @@
         <v>81</v>
       </c>
       <c r="AM16" s="7"/>
+      <c r="AN16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
@@ -4841,6 +4882,8 @@
       <c r="AM17" s="15" t="n">
         <v>301</v>
       </c>
+      <c r="AN17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
@@ -4908,6 +4951,8 @@
       <c r="AM18" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
@@ -4989,6 +5034,8 @@
       <c r="AM19" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN19" s="0"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
@@ -5070,6 +5117,8 @@
       <c r="AM20" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN20" s="0"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
@@ -5151,6 +5200,8 @@
       <c r="AM21" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
@@ -5232,6 +5283,8 @@
       <c r="AM22" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
@@ -5313,6 +5366,8 @@
       <c r="AM23" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -5394,6 +5449,8 @@
       <c r="AM24" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
@@ -5475,6 +5532,8 @@
       <c r="AM25" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
@@ -5556,6 +5615,8 @@
       <c r="AM26" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN26" s="0"/>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
@@ -5637,6 +5698,8 @@
       <c r="AM27" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
@@ -5718,6 +5781,8 @@
       <c r="AM28" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
@@ -5799,6 +5864,8 @@
       <c r="AM29" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN29" s="0"/>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
@@ -5880,6 +5947,8 @@
       <c r="AM30" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
@@ -5961,6 +6030,8 @@
       <c r="AM31" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN31" s="0"/>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
@@ -6042,6 +6113,8 @@
       <c r="AM32" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
@@ -6123,6 +6196,8 @@
       <c r="AM33" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
@@ -6204,6 +6279,8 @@
       <c r="AM34" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
@@ -6285,6 +6362,8 @@
       <c r="AM35" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
@@ -6366,6 +6445,8 @@
       <c r="AM36" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN36" s="0"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
@@ -6447,6 +6528,8 @@
       <c r="AM37" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN37" s="0"/>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
@@ -6528,6 +6611,8 @@
       <c r="AM38" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN38" s="0"/>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
@@ -6609,6 +6694,8 @@
       <c r="AM39" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN39" s="0"/>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
@@ -6690,6 +6777,8 @@
       <c r="AM40" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN40" s="0"/>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
@@ -6771,6 +6860,8 @@
       <c r="AM41" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN41" s="0"/>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
@@ -6852,6 +6943,8 @@
       <c r="AM42" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN42" s="0"/>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
@@ -6933,6 +7026,8 @@
       <c r="AM43" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN43" s="0"/>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
@@ -7014,6 +7109,8 @@
       <c r="AM44" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN44" s="0"/>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
@@ -7095,6 +7192,8 @@
       <c r="AM45" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN45" s="0"/>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
@@ -7176,6 +7275,8 @@
       <c r="AM46" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN46" s="0"/>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
@@ -7257,6 +7358,8 @@
       <c r="AM47" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN47" s="0"/>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
@@ -7338,6 +7441,8 @@
       <c r="AM48" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN48" s="0"/>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
@@ -7419,6 +7524,8 @@
       <c r="AM49" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN49" s="0"/>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
@@ -7500,6 +7607,8 @@
       <c r="AM50" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN50" s="0"/>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
@@ -7581,6 +7690,8 @@
       <c r="AM51" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN51" s="0"/>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
@@ -7662,6 +7773,8 @@
       <c r="AM52" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN52" s="0"/>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
@@ -7743,6 +7856,8 @@
       <c r="AM53" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN53" s="0"/>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
@@ -7824,6 +7939,8 @@
       <c r="AM54" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN54" s="0"/>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
@@ -7905,6 +8022,8 @@
       <c r="AM55" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN55" s="0"/>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
@@ -7986,6 +8105,8 @@
       <c r="AM56" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN56" s="0"/>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
@@ -8067,6 +8188,8 @@
       <c r="AM57" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN57" s="0"/>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
@@ -8148,6 +8271,8 @@
       <c r="AM58" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN58" s="0"/>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
@@ -8229,6 +8354,8 @@
       <c r="AM59" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN59" s="0"/>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
@@ -8310,6 +8437,8 @@
       <c r="AM60" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN60" s="0"/>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
@@ -8393,6 +8522,8 @@
       <c r="AM61" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AN61" s="0"/>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
@@ -8460,6 +8591,8 @@
       <c r="AM62" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN62" s="0"/>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
@@ -8541,6 +8674,8 @@
       <c r="AM63" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN63" s="0"/>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
@@ -8622,6 +8757,8 @@
       <c r="AM64" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN64" s="0"/>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
@@ -8703,6 +8840,8 @@
       <c r="AM65" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN65" s="0"/>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
@@ -8784,6 +8923,8 @@
       <c r="AM66" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN66" s="0"/>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
@@ -8865,6 +9006,8 @@
       <c r="AM67" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN67" s="0"/>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
@@ -8946,6 +9089,8 @@
       <c r="AM68" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN68" s="0"/>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
@@ -9027,6 +9172,8 @@
       <c r="AM69" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN69" s="0"/>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
@@ -9108,6 +9255,8 @@
       <c r="AM70" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN70" s="0"/>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
@@ -9189,6 +9338,8 @@
       <c r="AM71" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN71" s="0"/>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
@@ -9270,6 +9421,8 @@
       <c r="AM72" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN72" s="0"/>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
@@ -9351,6 +9504,8 @@
       <c r="AM73" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN73" s="0"/>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
@@ -9432,6 +9587,8 @@
       <c r="AM74" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AN74" s="0"/>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
@@ -9499,6 +9656,8 @@
       <c r="AM75" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN75" s="0"/>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
@@ -9580,6 +9739,8 @@
       <c r="AM76" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN76" s="0"/>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
@@ -9661,6 +9822,8 @@
       <c r="AM77" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN77" s="0"/>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
@@ -9742,6 +9905,8 @@
       <c r="AM78" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN78" s="0"/>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
@@ -9823,6 +9988,8 @@
       <c r="AM79" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN79" s="0"/>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
@@ -9904,6 +10071,8 @@
       <c r="AM80" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN80" s="0"/>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
@@ -9985,6 +10154,8 @@
       <c r="AM81" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN81" s="0"/>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
@@ -10066,6 +10237,8 @@
       <c r="AM82" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN82" s="0"/>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
@@ -10147,6 +10320,8 @@
       <c r="AM83" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN83" s="0"/>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
@@ -10228,6 +10403,8 @@
       <c r="AM84" s="7" t="n">
         <v>58</v>
       </c>
+      <c r="AN84" s="0"/>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
@@ -10295,6 +10472,8 @@
       <c r="AM85" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN85" s="0"/>
+      <c r="AMJ85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
@@ -10376,6 +10555,8 @@
       <c r="AM86" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN86" s="0"/>
+      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
@@ -10457,6 +10638,8 @@
       <c r="AM87" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN87" s="0"/>
+      <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
@@ -10538,6 +10721,8 @@
       <c r="AM88" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN88" s="0"/>
+      <c r="AMJ88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
@@ -10619,6 +10804,8 @@
       <c r="AM89" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN89" s="0"/>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
@@ -10700,6 +10887,8 @@
       <c r="AM90" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN90" s="0"/>
+      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
@@ -10781,6 +10970,8 @@
       <c r="AM91" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN91" s="0"/>
+      <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
@@ -10862,6 +11053,8 @@
       <c r="AM92" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN92" s="0"/>
+      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
@@ -10943,6 +11136,8 @@
       <c r="AM93" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN93" s="0"/>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
@@ -11024,6 +11219,8 @@
       <c r="AM94" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN94" s="0"/>
+      <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
@@ -11105,6 +11302,8 @@
       <c r="AM95" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN95" s="0"/>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
@@ -11186,6 +11385,8 @@
       <c r="AM96" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN96" s="0"/>
+      <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
@@ -11267,6 +11468,8 @@
       <c r="AM97" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN97" s="0"/>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
@@ -11348,6 +11551,8 @@
       <c r="AM98" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN98" s="0"/>
+      <c r="AMJ98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
@@ -11429,6 +11634,8 @@
       <c r="AM99" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN99" s="0"/>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
@@ -11510,6 +11717,8 @@
       <c r="AM100" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="AN100" s="0"/>
+      <c r="AMJ100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
@@ -11577,6 +11786,8 @@
       <c r="AM101" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN101" s="0"/>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
@@ -11658,6 +11869,8 @@
       <c r="AM102" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN102" s="0"/>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
@@ -11739,6 +11952,8 @@
       <c r="AM103" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN103" s="0"/>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
@@ -11820,6 +12035,8 @@
       <c r="AM104" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN104" s="0"/>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
@@ -11901,6 +12118,8 @@
       <c r="AM105" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN105" s="0"/>
+      <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
@@ -11982,6 +12201,8 @@
       <c r="AM106" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN106" s="0"/>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
@@ -12063,6 +12284,8 @@
       <c r="AM107" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN107" s="0"/>
+      <c r="AMJ107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
@@ -12144,6 +12367,8 @@
       <c r="AM108" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN108" s="0"/>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
@@ -12225,6 +12450,8 @@
       <c r="AM109" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN109" s="0"/>
+      <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
@@ -12306,6 +12533,8 @@
       <c r="AM110" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN110" s="0"/>
+      <c r="AMJ110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
@@ -12387,6 +12616,8 @@
       <c r="AM111" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN111" s="0"/>
+      <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
@@ -12468,6 +12699,8 @@
       <c r="AM112" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN112" s="0"/>
+      <c r="AMJ112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
@@ -12549,6 +12782,8 @@
       <c r="AM113" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN113" s="0"/>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
@@ -12630,6 +12865,8 @@
       <c r="AM114" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN114" s="0"/>
+      <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
@@ -12711,6 +12948,8 @@
       <c r="AM115" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN115" s="0"/>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
@@ -12792,6 +13031,8 @@
       <c r="AM116" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN116" s="0"/>
+      <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="n">
@@ -12873,6 +13114,8 @@
       <c r="AM117" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN117" s="0"/>
+      <c r="AMJ117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="n">
@@ -12954,6 +13197,8 @@
       <c r="AM118" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN118" s="0"/>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
@@ -13035,6 +13280,8 @@
       <c r="AM119" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN119" s="0"/>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="n">
@@ -13116,6 +13363,8 @@
       <c r="AM120" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN120" s="0"/>
+      <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="n">
@@ -13197,6 +13446,8 @@
       <c r="AM121" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN121" s="0"/>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="n">
@@ -13278,6 +13529,8 @@
       <c r="AM122" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN122" s="0"/>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="n">
@@ -13359,6 +13612,8 @@
       <c r="AM123" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN123" s="0"/>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="n">
@@ -13440,6 +13695,8 @@
       <c r="AM124" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN124" s="0"/>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="n">
@@ -13521,6 +13778,8 @@
       <c r="AM125" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN125" s="0"/>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="n">
@@ -13602,6 +13861,8 @@
       <c r="AM126" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN126" s="0"/>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
@@ -13683,6 +13944,8 @@
       <c r="AM127" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN127" s="0"/>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="n">
@@ -13764,6 +14027,8 @@
       <c r="AM128" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN128" s="0"/>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="n">
@@ -13845,6 +14110,8 @@
       <c r="AM129" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN129" s="0"/>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="n">
@@ -13926,6 +14193,8 @@
       <c r="AM130" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN130" s="0"/>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="n">
@@ -14007,6 +14276,8 @@
       <c r="AM131" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN131" s="0"/>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="n">
@@ -14088,6 +14359,8 @@
       <c r="AM132" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN132" s="0"/>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="n">
@@ -14171,6 +14444,8 @@
       <c r="AM133" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN133" s="0"/>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="n">
@@ -14252,6 +14527,8 @@
       <c r="AM134" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN134" s="0"/>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="n">
@@ -14333,6 +14610,8 @@
       <c r="AM135" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN135" s="0"/>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="n">
@@ -14414,6 +14693,8 @@
       <c r="AM136" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN136" s="0"/>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
@@ -14495,6 +14776,8 @@
       <c r="AM137" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN137" s="0"/>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="n">
@@ -14576,6 +14859,8 @@
       <c r="AM138" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN138" s="0"/>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="n">
@@ -14657,6 +14942,8 @@
       <c r="AM139" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN139" s="0"/>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="n">
@@ -14738,6 +15025,8 @@
       <c r="AM140" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN140" s="0"/>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
@@ -14819,6 +15108,8 @@
       <c r="AM141" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN141" s="0"/>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="n">
@@ -14900,6 +15191,8 @@
       <c r="AM142" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN142" s="0"/>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="n">
@@ -14981,6 +15274,8 @@
       <c r="AM143" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN143" s="0"/>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="n">
@@ -15062,6 +15357,8 @@
       <c r="AM144" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN144" s="0"/>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="n">
@@ -15143,6 +15440,8 @@
       <c r="AM145" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN145" s="0"/>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="n">
@@ -15224,6 +15523,8 @@
       <c r="AM146" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN146" s="0"/>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="n">
@@ -15305,6 +15606,8 @@
       <c r="AM147" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN147" s="0"/>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="n">
@@ -15386,6 +15689,8 @@
       <c r="AM148" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN148" s="0"/>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
@@ -15467,6 +15772,8 @@
       <c r="AM149" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN149" s="0"/>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
@@ -15548,6 +15855,8 @@
       <c r="AM150" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN150" s="0"/>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="n">
@@ -15629,6 +15938,8 @@
       <c r="AM151" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN151" s="0"/>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="n">
@@ -15710,6 +16021,8 @@
       <c r="AM152" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN152" s="0"/>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="n">
@@ -15791,6 +16104,8 @@
       <c r="AM153" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN153" s="0"/>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
@@ -15872,6 +16187,8 @@
       <c r="AM154" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN154" s="0"/>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
@@ -15953,6 +16270,8 @@
       <c r="AM155" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN155" s="0"/>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
@@ -16034,6 +16353,8 @@
       <c r="AM156" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN156" s="0"/>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
@@ -16115,6 +16436,8 @@
       <c r="AM157" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN157" s="0"/>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
@@ -16196,6 +16519,8 @@
       <c r="AM158" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN158" s="0"/>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
@@ -16277,6 +16602,8 @@
       <c r="AM159" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN159" s="0"/>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
@@ -16358,6 +16685,8 @@
       <c r="AM160" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN160" s="0"/>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
@@ -16439,6 +16768,8 @@
       <c r="AM161" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN161" s="0"/>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
@@ -16520,6 +16851,8 @@
       <c r="AM162" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN162" s="0"/>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
@@ -16601,6 +16934,8 @@
       <c r="AM163" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN163" s="0"/>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
@@ -16682,6 +17017,8 @@
       <c r="AM164" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN164" s="0"/>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
@@ -16763,6 +17100,8 @@
       <c r="AM165" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN165" s="0"/>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
@@ -16844,6 +17183,8 @@
       <c r="AM166" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN166" s="0"/>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
@@ -16925,6 +17266,8 @@
       <c r="AM167" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN167" s="0"/>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
@@ -17006,6 +17349,8 @@
       <c r="AM168" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN168" s="0"/>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
@@ -17087,6 +17432,8 @@
       <c r="AM169" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN169" s="0"/>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
@@ -17168,6 +17515,8 @@
       <c r="AM170" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN170" s="0"/>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
@@ -17249,6 +17598,8 @@
       <c r="AM171" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN171" s="0"/>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
@@ -17330,6 +17681,8 @@
       <c r="AM172" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN172" s="0"/>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
@@ -17411,6 +17764,8 @@
       <c r="AM173" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN173" s="0"/>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
@@ -17492,6 +17847,8 @@
       <c r="AM174" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN174" s="0"/>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
@@ -17573,6 +17930,8 @@
       <c r="AM175" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN175" s="0"/>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
@@ -17654,6 +18013,8 @@
       <c r="AM176" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN176" s="0"/>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
@@ -17735,6 +18096,8 @@
       <c r="AM177" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN177" s="0"/>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
@@ -17816,6 +18179,8 @@
       <c r="AM178" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN178" s="0"/>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="n">
@@ -17897,6 +18262,8 @@
       <c r="AM179" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN179" s="0"/>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="n">
@@ -17978,6 +18345,8 @@
       <c r="AM180" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN180" s="0"/>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="n">
@@ -18059,6 +18428,8 @@
       <c r="AM181" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN181" s="0"/>
+      <c r="AMJ181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="n">
@@ -18140,6 +18511,8 @@
       <c r="AM182" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN182" s="0"/>
+      <c r="AMJ182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="n">
@@ -18221,6 +18594,8 @@
       <c r="AM183" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN183" s="0"/>
+      <c r="AMJ183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="n">
@@ -18302,6 +18677,8 @@
       <c r="AM184" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN184" s="0"/>
+      <c r="AMJ184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="n">
@@ -18383,6 +18760,8 @@
       <c r="AM185" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN185" s="0"/>
+      <c r="AMJ185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="n">
@@ -18464,6 +18843,8 @@
       <c r="AM186" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN186" s="0"/>
+      <c r="AMJ186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="n">
@@ -18545,6 +18926,8 @@
       <c r="AM187" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN187" s="0"/>
+      <c r="AMJ187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="n">
@@ -18626,6 +19009,8 @@
       <c r="AM188" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN188" s="0"/>
+      <c r="AMJ188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="n">
@@ -18707,6 +19092,8 @@
       <c r="AM189" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN189" s="0"/>
+      <c r="AMJ189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="n">
@@ -18788,6 +19175,8 @@
       <c r="AM190" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN190" s="0"/>
+      <c r="AMJ190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="n">
@@ -18869,6 +19258,8 @@
       <c r="AM191" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN191" s="0"/>
+      <c r="AMJ191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="n">
@@ -18950,6 +19341,8 @@
       <c r="AM192" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="AN192" s="0"/>
+      <c r="AMJ192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="n">
@@ -19025,6 +19418,8 @@
       <c r="AM193" s="15" t="n">
         <v>302</v>
       </c>
+      <c r="AN193" s="0"/>
+      <c r="AMJ193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="n">
@@ -19104,6 +19499,8 @@
       <c r="AM194" s="7" t="n">
         <v>177</v>
       </c>
+      <c r="AN194" s="0"/>
+      <c r="AMJ194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="n">
@@ -19179,6 +19576,8 @@
       <c r="AM195" s="7" t="n">
         <v>177</v>
       </c>
+      <c r="AN195" s="0"/>
+      <c r="AMJ195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="n">
@@ -19258,6 +19657,8 @@
       <c r="AM196" s="7" t="n">
         <v>177</v>
       </c>
+      <c r="AN196" s="0"/>
+      <c r="AMJ196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="n">
@@ -19335,6 +19736,8 @@
       <c r="AM197" s="15" t="n">
         <v>302</v>
       </c>
+      <c r="AN197" s="0"/>
+      <c r="AMJ197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="n">
@@ -19412,6 +19815,8 @@
       <c r="AM198" s="7" t="n">
         <v>181</v>
       </c>
+      <c r="AN198" s="0"/>
+      <c r="AMJ198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="n">
@@ -19489,6 +19894,8 @@
       <c r="AM199" s="7" t="n">
         <v>181</v>
       </c>
+      <c r="AN199" s="0"/>
+      <c r="AMJ199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="n">
@@ -19566,6 +19973,8 @@
       <c r="AM200" s="7" t="n">
         <v>181</v>
       </c>
+      <c r="AN200" s="0"/>
+      <c r="AMJ200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="n">
@@ -19641,6 +20050,8 @@
       <c r="AM201" s="15" t="n">
         <v>303</v>
       </c>
+      <c r="AN201" s="0"/>
+      <c r="AMJ201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="n">
@@ -19720,6 +20131,8 @@
       <c r="AM202" s="7" t="n">
         <v>185</v>
       </c>
+      <c r="AN202" s="0"/>
+      <c r="AMJ202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="n">
@@ -19795,6 +20208,8 @@
       <c r="AM203" s="7" t="n">
         <v>185</v>
       </c>
+      <c r="AN203" s="0"/>
+      <c r="AMJ203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="n">
@@ -19868,6 +20283,8 @@
       <c r="AM204" s="7" t="n">
         <v>185</v>
       </c>
+      <c r="AN204" s="0"/>
+      <c r="AMJ204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="n">
@@ -19945,6 +20362,8 @@
       <c r="AM205" s="7" t="n">
         <v>188</v>
       </c>
+      <c r="AN205" s="0"/>
+      <c r="AMJ205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="n">
@@ -20022,6 +20441,8 @@
       <c r="AM206" s="7" t="n">
         <v>188</v>
       </c>
+      <c r="AN206" s="0"/>
+      <c r="AMJ206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="n">
@@ -20101,6 +20522,8 @@
       <c r="AM207" s="15" t="n">
         <v>303</v>
       </c>
+      <c r="AN207" s="0"/>
+      <c r="AMJ207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="n">
@@ -20178,6 +20601,8 @@
       <c r="AM208" s="7" t="n">
         <v>191</v>
       </c>
+      <c r="AN208" s="0"/>
+      <c r="AMJ208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="n">
@@ -20255,6 +20680,8 @@
       <c r="AM209" s="7" t="n">
         <v>191</v>
       </c>
+      <c r="AN209" s="0"/>
+      <c r="AMJ209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="n">
@@ -20332,6 +20759,8 @@
       <c r="AM210" s="7" t="n">
         <v>191</v>
       </c>
+      <c r="AN210" s="0"/>
+      <c r="AMJ210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="n">
@@ -20409,6 +20838,8 @@
       <c r="AM211" s="7" t="n">
         <v>191</v>
       </c>
+      <c r="AN211" s="0"/>
+      <c r="AMJ211" s="0"/>
     </row>
     <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="n">
@@ -20486,6 +20917,8 @@
       <c r="AM212" s="7" t="n">
         <v>191</v>
       </c>
+      <c r="AN212" s="0"/>
+      <c r="AMJ212" s="0"/>
     </row>
     <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="n">
@@ -20561,6 +20994,8 @@
       <c r="AM213" s="15" t="n">
         <v>302</v>
       </c>
+      <c r="AN213" s="0"/>
+      <c r="AMJ213" s="0"/>
     </row>
     <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="n">
@@ -20640,6 +21075,8 @@
       <c r="AM214" s="7" t="n">
         <v>197</v>
       </c>
+      <c r="AN214" s="0"/>
+      <c r="AMJ214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="n">
@@ -20715,6 +21152,8 @@
       <c r="AM215" s="7" t="n">
         <v>197</v>
       </c>
+      <c r="AN215" s="0"/>
+      <c r="AMJ215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="n">
@@ -20794,6 +21233,8 @@
       <c r="AM216" s="7" t="n">
         <v>197</v>
       </c>
+      <c r="AN216" s="0"/>
+      <c r="AMJ216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="n">
@@ -20869,6 +21310,8 @@
       <c r="AM217" s="15" t="n">
         <v>303</v>
       </c>
+      <c r="AN217" s="0"/>
+      <c r="AMJ217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="n">
@@ -20948,6 +21391,8 @@
       <c r="AM218" s="7" t="n">
         <v>201</v>
       </c>
+      <c r="AN218" s="0"/>
+      <c r="AMJ218" s="0"/>
     </row>
     <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="n">
@@ -21023,6 +21468,8 @@
       <c r="AM219" s="7" t="n">
         <v>201</v>
       </c>
+      <c r="AN219" s="0"/>
+      <c r="AMJ219" s="0"/>
     </row>
     <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="n">
@@ -21096,6 +21543,8 @@
       <c r="AM220" s="7" t="n">
         <v>201</v>
       </c>
+      <c r="AN220" s="0"/>
+      <c r="AMJ220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="n">
@@ -21173,6 +21622,8 @@
       <c r="AM221" s="7" t="n">
         <v>204</v>
       </c>
+      <c r="AN221" s="0"/>
+      <c r="AMJ221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="n">
@@ -21250,6 +21701,8 @@
       <c r="AM222" s="7" t="n">
         <v>204</v>
       </c>
+      <c r="AN222" s="0"/>
+      <c r="AMJ222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="n">
@@ -21325,6 +21778,8 @@
       <c r="AM223" s="15" t="n">
         <v>320</v>
       </c>
+      <c r="AN223" s="0"/>
+      <c r="AMJ223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="n">
@@ -21406,6 +21861,8 @@
       <c r="AM224" s="7" t="n">
         <v>207</v>
       </c>
+      <c r="AN224" s="0"/>
+      <c r="AMJ224" s="0"/>
     </row>
     <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="n">
@@ -21481,6 +21938,8 @@
       <c r="AM225" s="7" t="n">
         <v>207</v>
       </c>
+      <c r="AN225" s="0"/>
+      <c r="AMJ225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="n">
@@ -21554,6 +22013,8 @@
       <c r="AM226" s="7" t="n">
         <v>207</v>
       </c>
+      <c r="AN226" s="0"/>
+      <c r="AMJ226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="n">
@@ -21631,6 +22092,8 @@
       <c r="AM227" s="7" t="n">
         <v>210</v>
       </c>
+      <c r="AN227" s="0"/>
+      <c r="AMJ227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="n">
@@ -21708,6 +22171,8 @@
       <c r="AM228" s="7" t="n">
         <v>210</v>
       </c>
+      <c r="AN228" s="0"/>
+      <c r="AMJ228" s="0"/>
     </row>
     <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="n">
@@ -21785,6 +22250,8 @@
       <c r="AM229" s="7" t="n">
         <v>210</v>
       </c>
+      <c r="AN229" s="0"/>
+      <c r="AMJ229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="n">
@@ -21860,6 +22327,8 @@
       <c r="AM230" s="15" t="n">
         <v>302</v>
       </c>
+      <c r="AN230" s="0"/>
+      <c r="AMJ230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="n">
@@ -21939,6 +22408,8 @@
       <c r="AM231" s="7" t="n">
         <v>214</v>
       </c>
+      <c r="AN231" s="0"/>
+      <c r="AMJ231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="n">
@@ -22014,6 +22485,8 @@
       <c r="AM232" s="7" t="n">
         <v>214</v>
       </c>
+      <c r="AN232" s="0"/>
+      <c r="AMJ232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="n">
@@ -22087,6 +22560,8 @@
       <c r="AM233" s="7" t="n">
         <v>214</v>
       </c>
+      <c r="AN233" s="0"/>
+      <c r="AMJ233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="n">
@@ -22166,6 +22641,8 @@
       <c r="AM234" s="7" t="n">
         <v>217</v>
       </c>
+      <c r="AN234" s="0"/>
+      <c r="AMJ234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="n">
@@ -22241,6 +22718,8 @@
       <c r="AM235" s="15" t="n">
         <v>303</v>
       </c>
+      <c r="AN235" s="0"/>
+      <c r="AMJ235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="n">
@@ -22320,6 +22799,8 @@
       <c r="AM236" s="7" t="n">
         <v>219</v>
       </c>
+      <c r="AN236" s="0"/>
+      <c r="AMJ236" s="0"/>
     </row>
     <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="n">
@@ -22395,6 +22876,8 @@
       <c r="AM237" s="7" t="n">
         <v>219</v>
       </c>
+      <c r="AN237" s="0"/>
+      <c r="AMJ237" s="0"/>
     </row>
     <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="n">
@@ -22474,6 +22957,8 @@
       <c r="AM238" s="7" t="n">
         <v>219</v>
       </c>
+      <c r="AN238" s="0"/>
+      <c r="AMJ238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="n">
@@ -22549,6 +23034,8 @@
       <c r="AM239" s="15" t="n">
         <v>321</v>
       </c>
+      <c r="AN239" s="0"/>
+      <c r="AMJ239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="n">
@@ -22628,6 +23115,8 @@
       <c r="AM240" s="7" t="n">
         <v>223</v>
       </c>
+      <c r="AN240" s="0"/>
+      <c r="AMJ240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="n">
@@ -22703,6 +23192,8 @@
       <c r="AM241" s="7" t="n">
         <v>223</v>
       </c>
+      <c r="AN241" s="0"/>
+      <c r="AMJ241" s="0"/>
     </row>
     <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="n">
@@ -22776,6 +23267,8 @@
       <c r="AM242" s="7" t="n">
         <v>223</v>
       </c>
+      <c r="AN242" s="0"/>
+      <c r="AMJ242" s="0"/>
     </row>
     <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="n">
@@ -22853,6 +23346,8 @@
       <c r="AM243" s="7" t="n">
         <v>226</v>
       </c>
+      <c r="AN243" s="0"/>
+      <c r="AMJ243" s="0"/>
     </row>
     <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="n">
@@ -22930,6 +23425,8 @@
       <c r="AM244" s="7" t="n">
         <v>226</v>
       </c>
+      <c r="AN244" s="0"/>
+      <c r="AMJ244" s="0"/>
     </row>
     <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="n">
@@ -23005,6 +23502,8 @@
       <c r="AM245" s="15" t="n">
         <v>302</v>
       </c>
+      <c r="AN245" s="0"/>
+      <c r="AMJ245" s="0"/>
     </row>
     <row r="246" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="n">
@@ -23084,6 +23583,8 @@
       <c r="AM246" s="7" t="n">
         <v>229</v>
       </c>
+      <c r="AN246" s="0"/>
+      <c r="AMJ246" s="0"/>
     </row>
     <row r="247" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="n">
@@ -23159,6 +23660,8 @@
       <c r="AM247" s="7" t="n">
         <v>229</v>
       </c>
+      <c r="AN247" s="0"/>
+      <c r="AMJ247" s="0"/>
     </row>
     <row r="248" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="n">
@@ -23238,6 +23741,8 @@
       <c r="AM248" s="7" t="n">
         <v>229</v>
       </c>
+      <c r="AN248" s="0"/>
+      <c r="AMJ248" s="0"/>
     </row>
     <row r="249" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="n">
@@ -23317,6 +23822,8 @@
       <c r="AM249" s="15" t="n">
         <v>501</v>
       </c>
+      <c r="AN249" s="0"/>
+      <c r="AMJ249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="n">
@@ -23394,6 +23901,8 @@
       <c r="AM250" s="29" t="n">
         <v>501</v>
       </c>
+      <c r="AN250" s="0"/>
+      <c r="AMJ250" s="0"/>
     </row>
     <row r="251" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="n">
@@ -23473,6 +23982,8 @@
       <c r="AM251" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN251" s="0"/>
+      <c r="AMJ251" s="0"/>
     </row>
     <row r="252" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="n">
@@ -23552,6 +24063,8 @@
       <c r="AM252" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN252" s="0"/>
+      <c r="AMJ252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="n">
@@ -23631,6 +24144,8 @@
       <c r="AM253" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN253" s="0"/>
+      <c r="AMJ253" s="0"/>
     </row>
     <row r="254" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="n">
@@ -23710,6 +24225,8 @@
       <c r="AM254" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN254" s="0"/>
+      <c r="AMJ254" s="0"/>
     </row>
     <row r="255" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="n">
@@ -23789,6 +24306,8 @@
       <c r="AM255" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN255" s="0"/>
+      <c r="AMJ255" s="0"/>
     </row>
     <row r="256" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="n">
@@ -23868,6 +24387,8 @@
       <c r="AM256" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN256" s="0"/>
+      <c r="AMJ256" s="0"/>
     </row>
     <row r="257" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="n">
@@ -23947,6 +24468,8 @@
       <c r="AM257" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN257" s="0"/>
+      <c r="AMJ257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="n">
@@ -24026,6 +24549,8 @@
       <c r="AM258" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="AN258" s="0"/>
+      <c r="AMJ258" s="0"/>
     </row>
     <row r="259" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="n">
@@ -24105,6 +24630,8 @@
       <c r="AM259" s="15" t="n">
         <v>502</v>
       </c>
+      <c r="AN259" s="0"/>
+      <c r="AMJ259" s="0"/>
     </row>
     <row r="260" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="n">
@@ -24182,6 +24709,8 @@
       <c r="AM260" s="29" t="n">
         <v>502</v>
       </c>
+      <c r="AN260" s="0"/>
+      <c r="AMJ260" s="0"/>
     </row>
     <row r="261" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="n">
@@ -24261,6 +24790,8 @@
       <c r="AM261" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="AN261" s="0"/>
+      <c r="AMJ261" s="0"/>
     </row>
     <row r="262" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="n">
@@ -24340,6 +24871,8 @@
       <c r="AM262" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="AN262" s="0"/>
+      <c r="AMJ262" s="0"/>
     </row>
     <row r="263" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="n">
@@ -24419,6 +24952,8 @@
       <c r="AM263" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="AN263" s="0"/>
+      <c r="AMJ263" s="0"/>
     </row>
     <row r="264" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="n">
@@ -24498,6 +25033,8 @@
       <c r="AM264" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="AN264" s="0"/>
+      <c r="AMJ264" s="0"/>
     </row>
     <row r="265" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="n">
@@ -24577,6 +25114,8 @@
       <c r="AM265" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="AN265" s="0"/>
+      <c r="AMJ265" s="0"/>
     </row>
     <row r="266" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="n">
@@ -24656,6 +25195,8 @@
       <c r="AM266" s="15" t="n">
         <v>503</v>
       </c>
+      <c r="AN266" s="0"/>
+      <c r="AMJ266" s="0"/>
     </row>
     <row r="267" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="n">
@@ -24733,6 +25274,8 @@
       <c r="AM267" s="29" t="n">
         <v>503</v>
       </c>
+      <c r="AN267" s="0"/>
+      <c r="AMJ267" s="0"/>
     </row>
     <row r="268" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="n">
@@ -24812,6 +25355,8 @@
       <c r="AM268" s="7" t="n">
         <v>251</v>
       </c>
+      <c r="AN268" s="0"/>
+      <c r="AMJ268" s="0"/>
     </row>
     <row r="269" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="n">
@@ -24891,6 +25436,8 @@
       <c r="AM269" s="15" t="n">
         <v>504</v>
       </c>
+      <c r="AN269" s="0"/>
+      <c r="AMJ269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="n">
@@ -24968,6 +25515,8 @@
       <c r="AM270" s="29" t="n">
         <v>504</v>
       </c>
+      <c r="AN270" s="0"/>
+      <c r="AMJ270" s="0"/>
     </row>
     <row r="271" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="n">
@@ -25047,6 +25596,8 @@
       <c r="AM271" s="7" t="n">
         <v>254</v>
       </c>
+      <c r="AN271" s="0"/>
+      <c r="AMJ271" s="0"/>
     </row>
     <row r="272" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="n">
@@ -25126,6 +25677,8 @@
       <c r="AM272" s="7" t="n">
         <v>254</v>
       </c>
+      <c r="AN272" s="0"/>
+      <c r="AMJ272" s="0"/>
     </row>
     <row r="273" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="n">
@@ -25205,6 +25758,8 @@
       <c r="AM273" s="15" t="n">
         <v>505</v>
       </c>
+      <c r="AN273" s="0"/>
+      <c r="AMJ273" s="0"/>
     </row>
     <row r="274" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="n">
@@ -25280,6 +25835,8 @@
       <c r="AM274" s="15" t="n">
         <v>311</v>
       </c>
+      <c r="AN274" s="0"/>
+      <c r="AMJ274" s="0"/>
     </row>
     <row r="275" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="n">
@@ -25357,6 +25914,8 @@
       <c r="AM275" s="7" t="n">
         <v>258</v>
       </c>
+      <c r="AN275" s="0"/>
+      <c r="AMJ275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="n">
@@ -25432,6 +25991,8 @@
       <c r="AM276" s="7" t="n">
         <v>258</v>
       </c>
+      <c r="AN276" s="0"/>
+      <c r="AMJ276" s="0"/>
     </row>
     <row r="277" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="n">
@@ -25511,6 +26072,8 @@
       <c r="AM277" s="32" t="n">
         <v>312</v>
       </c>
+      <c r="AN277" s="0"/>
+      <c r="AMJ277" s="0"/>
     </row>
     <row r="278" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="n">
@@ -25594,6 +26157,8 @@
       <c r="AM278" s="32" t="n">
         <v>312</v>
       </c>
+      <c r="AN278" s="0"/>
+      <c r="AMJ278" s="0"/>
     </row>
     <row r="279" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="n">
@@ -25671,6 +26236,8 @@
       <c r="AM279" s="32" t="n">
         <v>312</v>
       </c>
+      <c r="AN279" s="0"/>
+      <c r="AMJ279" s="0"/>
     </row>
     <row r="280" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="n">
@@ -25754,6 +26321,8 @@
       <c r="AM280" s="7" t="n">
         <v>263</v>
       </c>
+      <c r="AN280" s="0"/>
+      <c r="AMJ280" s="0"/>
     </row>
     <row r="281" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="n">
@@ -25837,6 +26406,8 @@
       <c r="AM281" s="7" t="n">
         <v>263</v>
       </c>
+      <c r="AN281" s="0"/>
+      <c r="AMJ281" s="0"/>
     </row>
     <row r="282" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="n">
@@ -25908,6 +26479,8 @@
       <c r="AM282" s="7" t="n">
         <v>263</v>
       </c>
+      <c r="AN282" s="0"/>
+      <c r="AMJ282" s="0"/>
     </row>
     <row r="283" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="n">
@@ -25991,6 +26564,8 @@
       <c r="AM283" s="7" t="n">
         <v>267</v>
       </c>
+      <c r="AN283" s="0"/>
+      <c r="AMJ283" s="0"/>
     </row>
     <row r="284" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="n">
@@ -26074,6 +26649,8 @@
       <c r="AM284" s="7" t="n">
         <v>267</v>
       </c>
+      <c r="AN284" s="0"/>
+      <c r="AMJ284" s="0"/>
     </row>
     <row r="285" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="n">
@@ -26153,6 +26730,8 @@
       <c r="AM285" s="7" t="n">
         <v>263</v>
       </c>
+      <c r="AN285" s="0"/>
+      <c r="AMJ285" s="0"/>
     </row>
     <row r="286" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="n">
@@ -26230,6 +26809,8 @@
       <c r="AM286" s="32" t="n">
         <v>312</v>
       </c>
+      <c r="AN286" s="0"/>
+      <c r="AMJ286" s="0"/>
     </row>
     <row r="287" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="n">
@@ -26305,6 +26886,8 @@
       <c r="AM287" s="32" t="n">
         <v>301</v>
       </c>
+      <c r="AN287" s="0"/>
+      <c r="AMJ287" s="0"/>
     </row>
     <row r="288" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="n">
@@ -26386,6 +26969,8 @@
       <c r="AM288" s="7" t="n">
         <v>272</v>
       </c>
+      <c r="AN288" s="0"/>
+      <c r="AMJ288" s="0"/>
     </row>
     <row r="289" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="n">
@@ -26451,6 +27036,8 @@
       <c r="AM289" s="32" t="n">
         <v>400</v>
       </c>
+      <c r="AN289" s="0"/>
+      <c r="AMJ289" s="0"/>
     </row>
     <row r="290" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="n">
@@ -26528,6 +27115,8 @@
       <c r="AM290" s="7" t="n">
         <v>274</v>
       </c>
+      <c r="AN290" s="0"/>
+      <c r="AMJ290" s="0"/>
     </row>
     <row r="291" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="n">
@@ -26605,6 +27194,8 @@
       <c r="AM291" s="35" t="n">
         <v>274</v>
       </c>
+      <c r="AN291" s="0"/>
+      <c r="AMJ291" s="0"/>
     </row>
     <row r="292" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="n">
@@ -26684,6 +27275,8 @@
       <c r="AM292" s="35" t="n">
         <v>274</v>
       </c>
+      <c r="AN292" s="0"/>
+      <c r="AMJ292" s="0"/>
     </row>
     <row r="293" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="n">
@@ -26742,14 +27335,15 @@
       <c r="AH293" s="7"/>
       <c r="AI293" s="7"/>
       <c r="AJ293" s="7"/>
-      <c r="AK293" s="7"/>
-      <c r="AL293" s="7" t="n">
+      <c r="AK293" s="7" t="n">
         <v>278</v>
       </c>
-      <c r="AM293" s="14" t="s">
+      <c r="AL293" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="AN293" s="7"/>
+      <c r="AM293" s="7"/>
+      <c r="AN293" s="0"/>
+      <c r="AMJ293" s="0"/>
     </row>
     <row r="294" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="7" t="n">
@@ -26808,14 +27402,15 @@
       <c r="AH294" s="7"/>
       <c r="AI294" s="7"/>
       <c r="AJ294" s="7"/>
-      <c r="AK294" s="7"/>
-      <c r="AL294" s="7" t="n">
+      <c r="AK294" s="7" t="n">
         <v>279</v>
       </c>
-      <c r="AM294" s="14" t="s">
+      <c r="AL294" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="AN294" s="7"/>
+      <c r="AM294" s="7"/>
+      <c r="AN294" s="0"/>
+      <c r="AMJ294" s="0"/>
     </row>
     <row r="295" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="7" t="n">
@@ -26878,14 +27473,15 @@
       <c r="AH295" s="7"/>
       <c r="AI295" s="7"/>
       <c r="AJ295" s="7"/>
-      <c r="AK295" s="7"/>
-      <c r="AL295" s="7" t="n">
+      <c r="AK295" s="7" t="n">
         <v>280</v>
       </c>
-      <c r="AM295" s="43" t="n">
+      <c r="AL295" s="43" t="n">
         <v>275</v>
       </c>
-      <c r="AN295" s="7"/>
+      <c r="AM295" s="7"/>
+      <c r="AN295" s="0"/>
+      <c r="AMJ295" s="0"/>
     </row>
     <row r="296" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="n">
@@ -26948,14 +27544,15 @@
       <c r="AH296" s="7"/>
       <c r="AI296" s="7"/>
       <c r="AJ296" s="7"/>
-      <c r="AK296" s="7"/>
-      <c r="AL296" s="7" t="n">
+      <c r="AK296" s="7" t="n">
         <v>281</v>
       </c>
-      <c r="AM296" s="43" t="n">
+      <c r="AL296" s="43" t="n">
         <v>276</v>
       </c>
-      <c r="AN296" s="7"/>
+      <c r="AM296" s="7"/>
+      <c r="AN296" s="0"/>
+      <c r="AMJ296" s="0"/>
     </row>
     <row r="297" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="n">
@@ -27018,14 +27615,15 @@
       <c r="AH297" s="7"/>
       <c r="AI297" s="7"/>
       <c r="AJ297" s="7"/>
-      <c r="AK297" s="7"/>
-      <c r="AL297" s="7" t="n">
+      <c r="AK297" s="7" t="n">
         <v>282</v>
       </c>
-      <c r="AM297" s="43" t="n">
+      <c r="AL297" s="43" t="n">
         <v>277</v>
       </c>
-      <c r="AN297" s="7"/>
+      <c r="AM297" s="7"/>
+      <c r="AN297" s="0"/>
+      <c r="AMJ297" s="0"/>
     </row>
     <row r="298" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="n">
@@ -27084,14 +27682,15 @@
       <c r="AH298" s="7"/>
       <c r="AI298" s="7"/>
       <c r="AJ298" s="7"/>
-      <c r="AK298" s="7"/>
-      <c r="AL298" s="7" t="n">
+      <c r="AK298" s="7" t="n">
         <v>283</v>
       </c>
-      <c r="AM298" s="14" t="s">
+      <c r="AL298" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AN298" s="7"/>
+      <c r="AM298" s="7"/>
+      <c r="AN298" s="0"/>
+      <c r="AMJ298" s="0"/>
     </row>
     <row r="299" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="n">
@@ -27150,14 +27749,15 @@
       <c r="AH299" s="7"/>
       <c r="AI299" s="7"/>
       <c r="AJ299" s="7"/>
-      <c r="AK299" s="7"/>
+      <c r="AK299" s="7" t="n">
+        <v>284</v>
+      </c>
       <c r="AL299" s="7" t="n">
-        <v>284</v>
-      </c>
-      <c r="AM299" s="7" t="n">
         <v>272</v>
       </c>
-      <c r="AN299" s="7"/>
+      <c r="AM299" s="7"/>
+      <c r="AN299" s="0"/>
+      <c r="AMJ299" s="0"/>
     </row>
     <row r="300" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="n">
@@ -27220,12 +27820,13 @@
       <c r="AH300" s="7"/>
       <c r="AI300" s="7"/>
       <c r="AJ300" s="7"/>
-      <c r="AK300" s="7"/>
-      <c r="AL300" s="7" t="n">
+      <c r="AK300" s="7" t="n">
         <v>285</v>
       </c>
+      <c r="AL300" s="7"/>
       <c r="AM300" s="7"/>
-      <c r="AN300" s="7"/>
+      <c r="AN300" s="0"/>
+      <c r="AMJ300" s="0"/>
     </row>
     <row r="301" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="n">
@@ -27288,12 +27889,13 @@
       <c r="AH301" s="7"/>
       <c r="AI301" s="7"/>
       <c r="AJ301" s="7"/>
-      <c r="AK301" s="7"/>
-      <c r="AL301" s="7" t="n">
+      <c r="AK301" s="7" t="n">
         <v>286</v>
       </c>
+      <c r="AL301" s="7"/>
       <c r="AM301" s="7"/>
-      <c r="AN301" s="7"/>
+      <c r="AN301" s="0"/>
+      <c r="AMJ301" s="0"/>
     </row>
     <row r="302" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="n">
@@ -27356,14 +27958,15 @@
       <c r="AH302" s="7"/>
       <c r="AI302" s="7"/>
       <c r="AJ302" s="7"/>
-      <c r="AK302" s="7"/>
+      <c r="AK302" s="7" t="n">
+        <v>287</v>
+      </c>
       <c r="AL302" s="7" t="n">
-        <v>287</v>
-      </c>
-      <c r="AM302" s="7" t="n">
         <v>177</v>
       </c>
-      <c r="AN302" s="7"/>
+      <c r="AM302" s="7"/>
+      <c r="AN302" s="0"/>
+      <c r="AMJ302" s="0"/>
     </row>
     <row r="303" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="n">
@@ -27426,14 +28029,15 @@
       <c r="AH303" s="7"/>
       <c r="AI303" s="7"/>
       <c r="AJ303" s="7"/>
-      <c r="AK303" s="7"/>
+      <c r="AK303" s="7" t="n">
+        <v>288</v>
+      </c>
       <c r="AL303" s="7" t="n">
-        <v>288</v>
-      </c>
-      <c r="AM303" s="7" t="n">
         <v>185</v>
       </c>
-      <c r="AN303" s="7"/>
+      <c r="AM303" s="7"/>
+      <c r="AN303" s="0"/>
+      <c r="AMJ303" s="0"/>
     </row>
     <row r="304" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="n">
@@ -27496,14 +28100,15 @@
       <c r="AH304" s="7"/>
       <c r="AI304" s="7"/>
       <c r="AJ304" s="7"/>
-      <c r="AK304" s="7"/>
+      <c r="AK304" s="7" t="n">
+        <v>289</v>
+      </c>
       <c r="AL304" s="7" t="n">
-        <v>289</v>
-      </c>
-      <c r="AM304" s="7" t="n">
         <v>197</v>
       </c>
-      <c r="AN304" s="7"/>
+      <c r="AM304" s="7"/>
+      <c r="AN304" s="0"/>
+      <c r="AMJ304" s="0"/>
     </row>
     <row r="305" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="n">
@@ -27566,14 +28171,15 @@
       <c r="AH305" s="7"/>
       <c r="AI305" s="7"/>
       <c r="AJ305" s="7"/>
-      <c r="AK305" s="7"/>
+      <c r="AK305" s="7" t="n">
+        <v>290</v>
+      </c>
       <c r="AL305" s="7" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM305" s="7" t="n">
         <v>207</v>
       </c>
-      <c r="AN305" s="7"/>
+      <c r="AM305" s="7"/>
+      <c r="AN305" s="0"/>
+      <c r="AMJ305" s="0"/>
     </row>
     <row r="306" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="n">
@@ -27636,14 +28242,15 @@
       <c r="AH306" s="7"/>
       <c r="AI306" s="7"/>
       <c r="AJ306" s="7"/>
-      <c r="AK306" s="7"/>
-      <c r="AL306" s="7" t="n">
+      <c r="AK306" s="7" t="n">
         <v>291</v>
       </c>
-      <c r="AM306" s="14" t="s">
+      <c r="AL306" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="AN306" s="7"/>
+      <c r="AM306" s="7"/>
+      <c r="AN306" s="0"/>
+      <c r="AMJ306" s="0"/>
     </row>
     <row r="307" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="n">
@@ -27706,14 +28313,15 @@
       <c r="AH307" s="7"/>
       <c r="AI307" s="7"/>
       <c r="AJ307" s="7"/>
-      <c r="AK307" s="7"/>
-      <c r="AL307" s="7" t="n">
+      <c r="AK307" s="7" t="n">
         <v>292</v>
       </c>
-      <c r="AM307" s="14" t="s">
+      <c r="AL307" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="AN307" s="7"/>
+      <c r="AM307" s="7"/>
+      <c r="AN307" s="0"/>
+      <c r="AMJ307" s="0"/>
     </row>
     <row r="308" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="n">
@@ -27776,14 +28384,78 @@
       <c r="AH308" s="7"/>
       <c r="AI308" s="7"/>
       <c r="AJ308" s="7"/>
-      <c r="AK308" s="7"/>
+      <c r="AK308" s="7" t="n">
+        <v>293</v>
+      </c>
       <c r="AL308" s="7" t="n">
-        <v>293</v>
-      </c>
-      <c r="AM308" s="7" t="n">
         <v>229</v>
       </c>
-      <c r="AN308" s="7"/>
+      <c r="AM308" s="7"/>
+      <c r="AN308" s="0"/>
+      <c r="AMJ308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="7" t="n">
+        <v>521</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="E309" s="35"/>
+      <c r="F309" s="37"/>
+      <c r="G309" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="H309" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="J309" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="K309" s="9"/>
+      <c r="L309" s="9"/>
+      <c r="M309" s="7"/>
+      <c r="N309" s="46"/>
+      <c r="O309" s="7"/>
+      <c r="P309" s="7"/>
+      <c r="Q309" s="7"/>
+      <c r="R309" s="7"/>
+      <c r="S309" s="7"/>
+      <c r="T309" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="U309" s="7"/>
+      <c r="V309" s="7"/>
+      <c r="W309" s="7"/>
+      <c r="X309" s="7"/>
+      <c r="Y309" s="7"/>
+      <c r="Z309" s="7"/>
+      <c r="AA309" s="7"/>
+      <c r="AB309" s="7"/>
+      <c r="AC309" s="7"/>
+      <c r="AD309" s="38"/>
+      <c r="AE309" s="7"/>
+      <c r="AF309" s="7"/>
+      <c r="AG309" s="7"/>
+      <c r="AH309" s="7"/>
+      <c r="AI309" s="7"/>
+      <c r="AJ309" s="7"/>
+      <c r="AK309" s="7" t="n">
+        <v>521</v>
+      </c>
+      <c r="AL309" s="7"/>
+      <c r="AM309" s="7"/>
+      <c r="AN309" s="0"/>
+      <c r="AMJ309" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,10 +11,11 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3080,13 +3081,16 @@
     <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice_snack, No_Juice_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD_snack, No_SSD_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich_Cooler, No_Rich_Cooler</t>
+    <t xml:space="preserve">Juice_snack
+No_Juice_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD_snack
+No_SSD_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich_Cooler
+No_Rich_Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 18</t>
@@ -3578,7 +3582,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3688,46 +3692,46 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F308" activeCellId="0" sqref="F308:F309"/>
+      <selection pane="bottomLeft" activeCell="A298" activeCellId="0" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.5182186234818"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -28458,7 +28462,7 @@
       <c r="AMJ309" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN1"/>
+  <autoFilter ref="A1:AN308"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3013,7 +3014,7 @@
     <t xml:space="preserve">Impulse Activations: Dobriy 0.33L</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Dobry Apple 0.33L in Bakery </t>
+    <t xml:space="preserve">Impulse Activations: Dobry Apple 0.33L in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация: Добрый 0.33 в выпечке</t>
@@ -3689,49 +3690,49 @@
   </sheetPr>
   <dimension ref="1:309"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A298" activeCellId="0" sqref="A298"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="Z292" activeCellId="0" sqref="Z292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.2348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.8744939271255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="116.117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.9109311740891"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="117.186234817814"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -28462,7 +28463,7 @@
       <c r="AMJ309" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN308"/>
+  <autoFilter ref="A1:AN1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3489,51 +3490,51 @@
   </sheetPr>
   <dimension ref="A1:AL309"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.0890688259109"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="58.7570850202429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="83.8582995951417"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="123.157894736842"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="54.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.2024291497976"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="94.2631578947368"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.83400809716599"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="124.259109311741"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.4574898785425"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.4251012145749"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$309</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -3476,6 +3479,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3483,18 +3490,56 @@
   </sheetPr>
   <dimension ref="A1:AL309"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A261" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y280" activeCellId="0" sqref="Y280:Y281"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AK265" activeCellId="0" sqref="AK265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2955465587045"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.78947368421053"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9230769230769"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.74089068825911"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="77.1983805668016"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="113.109311740891"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="132.955465587045"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="22.5384615384615"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.412955465587"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.36842105263158"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="6.47773279352227"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36437246963563"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>293</v>
       </c>
@@ -3670,7 +3715,7 @@
       </c>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>294</v>
       </c>
@@ -3730,7 +3775,7 @@
       </c>
       <c r="AL3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>295</v>
       </c>
@@ -3792,7 +3837,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>296</v>
       </c>
@@ -3854,7 +3899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>297</v>
       </c>
@@ -3914,7 +3959,7 @@
       </c>
       <c r="AL6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>298</v>
       </c>
@@ -3976,7 +4021,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>299</v>
       </c>
@@ -4038,7 +4083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>300</v>
       </c>
@@ -4098,7 +4143,7 @@
       </c>
       <c r="AL9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>301</v>
       </c>
@@ -4160,7 +4205,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>302</v>
       </c>
@@ -4222,7 +4267,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>303</v>
       </c>
@@ -4284,7 +4329,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>304</v>
       </c>
@@ -4346,7 +4391,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>305</v>
       </c>
@@ -4408,7 +4453,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>306</v>
       </c>
@@ -4470,7 +4515,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>307</v>
       </c>
@@ -4530,7 +4575,7 @@
       </c>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>308</v>
       </c>
@@ -4592,7 +4637,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>2</v>
       </c>
@@ -4738,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>3</v>
       </c>
@@ -4818,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>4</v>
       </c>
@@ -4898,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>5</v>
       </c>
@@ -4978,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>6</v>
       </c>
@@ -5058,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>7</v>
       </c>
@@ -5138,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>8</v>
       </c>
@@ -5218,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>9</v>
       </c>
@@ -5298,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>10</v>
       </c>
@@ -5378,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>11</v>
       </c>
@@ -5458,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>12</v>
       </c>
@@ -5538,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>13</v>
       </c>
@@ -5618,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>14</v>
       </c>
@@ -5698,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>15</v>
       </c>
@@ -5778,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>16</v>
       </c>
@@ -5858,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>17</v>
       </c>
@@ -5938,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>18</v>
       </c>
@@ -6018,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>19</v>
       </c>
@@ -6098,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>20</v>
       </c>
@@ -6178,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>21</v>
       </c>
@@ -6258,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>22</v>
       </c>
@@ -6338,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>23</v>
       </c>
@@ -6418,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>24</v>
       </c>
@@ -6498,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>25</v>
       </c>
@@ -6578,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>26</v>
       </c>
@@ -6658,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>27</v>
       </c>
@@ -6738,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>28</v>
       </c>
@@ -6818,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>29</v>
       </c>
@@ -6898,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>30</v>
       </c>
@@ -6978,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>31</v>
       </c>
@@ -7058,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>32</v>
       </c>
@@ -7138,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>33</v>
       </c>
@@ -7218,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>34</v>
       </c>
@@ -7298,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>35</v>
       </c>
@@ -7378,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>36</v>
       </c>
@@ -7458,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>37</v>
       </c>
@@ -7538,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>38</v>
       </c>
@@ -7618,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>39</v>
       </c>
@@ -7698,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
         <v>40</v>
       </c>
@@ -7778,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>41</v>
       </c>
@@ -7858,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>42</v>
       </c>
@@ -7938,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>43</v>
       </c>
@@ -8018,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>44</v>
       </c>
@@ -8098,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>45</v>
       </c>
@@ -8164,7 +8209,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
         <v>46</v>
       </c>
@@ -8244,7 +8289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>47</v>
       </c>
@@ -8324,7 +8369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>48</v>
       </c>
@@ -8404,7 +8449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>49</v>
       </c>
@@ -8484,7 +8529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>50</v>
       </c>
@@ -8564,7 +8609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>51</v>
       </c>
@@ -8644,7 +8689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>52</v>
       </c>
@@ -8724,7 +8769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>53</v>
       </c>
@@ -8804,7 +8849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>54</v>
       </c>
@@ -8884,7 +8929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>55</v>
       </c>
@@ -8964,7 +9009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>56</v>
       </c>
@@ -9044,7 +9089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>57</v>
       </c>
@@ -9124,7 +9169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>58</v>
       </c>
@@ -9190,7 +9235,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>59</v>
       </c>
@@ -9270,7 +9315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>60</v>
       </c>
@@ -9350,7 +9395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <v>61</v>
       </c>
@@ -9430,7 +9475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>62</v>
       </c>
@@ -9510,7 +9555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>63</v>
       </c>
@@ -9590,7 +9635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <v>64</v>
       </c>
@@ -9670,7 +9715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <v>65</v>
       </c>
@@ -9750,7 +9795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <v>66</v>
       </c>
@@ -9830,7 +9875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <v>67</v>
       </c>
@@ -9910,7 +9955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>68</v>
       </c>
@@ -9976,7 +10021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>69</v>
       </c>
@@ -10056,7 +10101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>70</v>
       </c>
@@ -10136,7 +10181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>71</v>
       </c>
@@ -10216,7 +10261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>72</v>
       </c>
@@ -10296,7 +10341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>73</v>
       </c>
@@ -10376,7 +10421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>74</v>
       </c>
@@ -10456,7 +10501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>75</v>
       </c>
@@ -10536,7 +10581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
         <v>76</v>
       </c>
@@ -10616,7 +10661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>77</v>
       </c>
@@ -10696,7 +10741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>78</v>
       </c>
@@ -10776,7 +10821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>79</v>
       </c>
@@ -10856,7 +10901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>80</v>
       </c>
@@ -10936,7 +10981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>81</v>
       </c>
@@ -11016,7 +11061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
         <v>82</v>
       </c>
@@ -11096,7 +11141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
         <v>83</v>
       </c>
@@ -11176,7 +11221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>84</v>
       </c>
@@ -11242,7 +11287,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>85</v>
       </c>
@@ -11322,7 +11367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>86</v>
       </c>
@@ -11402,7 +11447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>87</v>
       </c>
@@ -11482,7 +11527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
         <v>88</v>
       </c>
@@ -11562,7 +11607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>89</v>
       </c>
@@ -11642,7 +11687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>90</v>
       </c>
@@ -11722,7 +11767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>91</v>
       </c>
@@ -11802,7 +11847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>92</v>
       </c>
@@ -11882,7 +11927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>93</v>
       </c>
@@ -11962,7 +12007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>94</v>
       </c>
@@ -12042,7 +12087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>95</v>
       </c>
@@ -12122,7 +12167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>96</v>
       </c>
@@ -12202,7 +12247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>97</v>
       </c>
@@ -12282,7 +12327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>98</v>
       </c>
@@ -12362,7 +12407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
         <v>99</v>
       </c>
@@ -12442,7 +12487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>100</v>
       </c>
@@ -12522,7 +12567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>101</v>
       </c>
@@ -12602,7 +12647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
         <v>102</v>
       </c>
@@ -12682,7 +12727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
         <v>103</v>
       </c>
@@ -12762,7 +12807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
         <v>104</v>
       </c>
@@ -12842,7 +12887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
         <v>105</v>
       </c>
@@ -12922,7 +12967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
         <v>106</v>
       </c>
@@ -13002,7 +13047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
         <v>107</v>
       </c>
@@ -13082,7 +13127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
         <v>108</v>
       </c>
@@ -13162,7 +13207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
         <v>109</v>
       </c>
@@ -13242,7 +13287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
         <v>110</v>
       </c>
@@ -13322,7 +13367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
         <v>111</v>
       </c>
@@ -13402,7 +13447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
         <v>112</v>
       </c>
@@ -13482,7 +13527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
         <v>113</v>
       </c>
@@ -13562,7 +13607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
         <v>114</v>
       </c>
@@ -13642,7 +13687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
         <v>115</v>
       </c>
@@ -13722,7 +13767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
         <v>116</v>
       </c>
@@ -13802,7 +13847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
         <v>117</v>
       </c>
@@ -13882,7 +13927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
         <v>118</v>
       </c>
@@ -13962,7 +14007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
         <v>119</v>
       </c>
@@ -14042,7 +14087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
         <v>120</v>
       </c>
@@ -14122,7 +14167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
         <v>121</v>
       </c>
@@ -14202,7 +14247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
         <v>122</v>
       </c>
@@ -14282,7 +14327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
         <v>123</v>
       </c>
@@ -14362,7 +14407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
         <v>124</v>
       </c>
@@ -14442,7 +14487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
         <v>125</v>
       </c>
@@ -14522,7 +14567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
         <v>126</v>
       </c>
@@ -14602,7 +14647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
         <v>127</v>
       </c>
@@ -14682,7 +14727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
         <v>128</v>
       </c>
@@ -14762,7 +14807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
         <v>129</v>
       </c>
@@ -14842,7 +14887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
         <v>130</v>
       </c>
@@ -14922,7 +14967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
         <v>131</v>
       </c>
@@ -15002,7 +15047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
         <v>132</v>
       </c>
@@ -15082,7 +15127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
         <v>133</v>
       </c>
@@ -15162,7 +15207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
         <v>134</v>
       </c>
@@ -15242,7 +15287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
         <v>135</v>
       </c>
@@ -15322,7 +15367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
         <v>136</v>
       </c>
@@ -15402,7 +15447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
         <v>137</v>
       </c>
@@ -15482,7 +15527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
         <v>138</v>
       </c>
@@ -15562,7 +15607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
         <v>139</v>
       </c>
@@ -15642,7 +15687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
         <v>140</v>
       </c>
@@ -15722,7 +15767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
         <v>141</v>
       </c>
@@ -15802,7 +15847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
         <v>142</v>
       </c>
@@ -15882,7 +15927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
         <v>143</v>
       </c>
@@ -15962,7 +16007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
         <v>144</v>
       </c>
@@ -16042,7 +16087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
         <v>145</v>
       </c>
@@ -16122,7 +16167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
         <v>146</v>
       </c>
@@ -16202,7 +16247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
         <v>147</v>
       </c>
@@ -16282,7 +16327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
         <v>148</v>
       </c>
@@ -16362,7 +16407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
         <v>149</v>
       </c>
@@ -16442,7 +16487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
         <v>150</v>
       </c>
@@ -16522,7 +16567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
         <v>151</v>
       </c>
@@ -16602,7 +16647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
         <v>152</v>
       </c>
@@ -16682,7 +16727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
         <v>153</v>
       </c>
@@ -16762,7 +16807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
         <v>154</v>
       </c>
@@ -16842,7 +16887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
         <v>155</v>
       </c>
@@ -16922,7 +16967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
         <v>156</v>
       </c>
@@ -17002,7 +17047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
         <v>157</v>
       </c>
@@ -17082,7 +17127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
         <v>158</v>
       </c>
@@ -17162,7 +17207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
         <v>159</v>
       </c>
@@ -17242,7 +17287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
         <v>160</v>
       </c>
@@ -17322,7 +17367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
         <v>161</v>
       </c>
@@ -17402,7 +17447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
         <v>162</v>
       </c>
@@ -17482,7 +17527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
         <v>163</v>
       </c>
@@ -17562,7 +17607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
         <v>164</v>
       </c>
@@ -17642,7 +17687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
         <v>165</v>
       </c>
@@ -17722,7 +17767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
         <v>166</v>
       </c>
@@ -17802,7 +17847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
         <v>167</v>
       </c>
@@ -17882,7 +17927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
         <v>168</v>
       </c>
@@ -17962,7 +18007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
         <v>169</v>
       </c>
@@ -18042,7 +18087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
         <v>170</v>
       </c>
@@ -18122,7 +18167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
         <v>171</v>
       </c>
@@ -18202,7 +18247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
         <v>172</v>
       </c>
@@ -18282,7 +18327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
         <v>173</v>
       </c>
@@ -18362,7 +18407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
         <v>174</v>
       </c>
@@ -18442,7 +18487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
         <v>175</v>
       </c>
@@ -18522,7 +18567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
         <v>177</v>
       </c>
@@ -18596,7 +18641,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
         <v>178</v>
       </c>
@@ -18674,7 +18719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
         <v>179</v>
       </c>
@@ -18748,7 +18793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
         <v>180</v>
       </c>
@@ -18826,7 +18871,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
         <v>181</v>
       </c>
@@ -18902,7 +18947,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
         <v>182</v>
       </c>
@@ -18978,7 +19023,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
         <v>183</v>
       </c>
@@ -19054,7 +19099,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
         <v>184</v>
       </c>
@@ -19130,7 +19175,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
         <v>185</v>
       </c>
@@ -19204,7 +19249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
         <v>186</v>
       </c>
@@ -19282,7 +19327,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
         <v>187</v>
       </c>
@@ -19356,7 +19401,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
         <v>188</v>
       </c>
@@ -19428,7 +19473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
         <v>189</v>
       </c>
@@ -19504,7 +19549,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
         <v>190</v>
       </c>
@@ -19580,7 +19625,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
         <v>191</v>
       </c>
@@ -19658,7 +19703,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
         <v>192</v>
       </c>
@@ -19734,7 +19779,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
         <v>193</v>
       </c>
@@ -19810,7 +19855,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
         <v>194</v>
       </c>
@@ -19886,7 +19931,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
         <v>195</v>
       </c>
@@ -19962,7 +20007,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
         <v>196</v>
       </c>
@@ -20038,7 +20083,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
         <v>197</v>
       </c>
@@ -20112,7 +20157,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
         <v>198</v>
       </c>
@@ -20190,7 +20235,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
         <v>199</v>
       </c>
@@ -20264,7 +20309,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
         <v>200</v>
       </c>
@@ -20342,7 +20387,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
         <v>201</v>
       </c>
@@ -20416,7 +20461,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
         <v>202</v>
       </c>
@@ -20494,7 +20539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
         <v>203</v>
       </c>
@@ -20568,7 +20613,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
         <v>204</v>
       </c>
@@ -20640,7 +20685,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
         <v>205</v>
       </c>
@@ -20716,7 +20761,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
         <v>206</v>
       </c>
@@ -20792,7 +20837,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
         <v>207</v>
       </c>
@@ -20866,7 +20911,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
         <v>208</v>
       </c>
@@ -20946,7 +20991,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
         <v>209</v>
       </c>
@@ -21020,7 +21065,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
         <v>210</v>
       </c>
@@ -21092,7 +21137,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
         <v>211</v>
       </c>
@@ -21168,7 +21213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
         <v>212</v>
       </c>
@@ -21244,7 +21289,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
         <v>213</v>
       </c>
@@ -21320,7 +21365,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
         <v>214</v>
       </c>
@@ -21394,7 +21439,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
         <v>215</v>
       </c>
@@ -21472,7 +21517,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
         <v>216</v>
       </c>
@@ -21546,7 +21591,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
         <v>217</v>
       </c>
@@ -21618,7 +21663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
         <v>218</v>
       </c>
@@ -21696,7 +21741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
         <v>219</v>
       </c>
@@ -21770,7 +21815,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
         <v>220</v>
       </c>
@@ -21848,7 +21893,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
         <v>221</v>
       </c>
@@ -21922,7 +21967,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
         <v>222</v>
       </c>
@@ -22000,7 +22045,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
         <v>223</v>
       </c>
@@ -22074,7 +22119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
         <v>224</v>
       </c>
@@ -22152,7 +22197,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
         <v>225</v>
       </c>
@@ -22226,7 +22271,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
         <v>226</v>
       </c>
@@ -22298,7 +22343,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
         <v>227</v>
       </c>
@@ -22374,7 +22419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
         <v>228</v>
       </c>
@@ -22450,7 +22495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
         <v>229</v>
       </c>
@@ -22524,7 +22569,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
         <v>230</v>
       </c>
@@ -22602,7 +22647,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
         <v>231</v>
       </c>
@@ -22676,7 +22721,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
         <v>232</v>
       </c>
@@ -22754,7 +22799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
         <v>233</v>
       </c>
@@ -22832,7 +22877,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
         <v>234</v>
       </c>
@@ -22908,7 +22953,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
         <v>235</v>
       </c>
@@ -22986,7 +23031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
         <v>236</v>
       </c>
@@ -23064,7 +23109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
         <v>237</v>
       </c>
@@ -23142,7 +23187,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
         <v>238</v>
       </c>
@@ -23220,7 +23265,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
         <v>239</v>
       </c>
@@ -23298,7 +23343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
         <v>240</v>
       </c>
@@ -23376,7 +23421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
         <v>241</v>
       </c>
@@ -23454,7 +23499,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
         <v>242</v>
       </c>
@@ -23532,7 +23577,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
         <v>243</v>
       </c>
@@ -23610,7 +23655,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
         <v>244</v>
       </c>
@@ -23686,7 +23731,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
         <v>245</v>
       </c>
@@ -23764,7 +23809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
         <v>246</v>
       </c>
@@ -23842,7 +23887,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
         <v>247</v>
       </c>
@@ -23920,7 +23965,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
         <v>248</v>
       </c>
@@ -23998,7 +24043,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
         <v>249</v>
       </c>
@@ -24076,7 +24121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
         <v>250</v>
       </c>
@@ -24154,7 +24199,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
         <v>251</v>
       </c>
@@ -24230,7 +24275,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
         <v>252</v>
       </c>
@@ -24308,7 +24353,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
         <v>253</v>
       </c>
@@ -24386,7 +24431,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
         <v>254</v>
       </c>
@@ -24462,7 +24507,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
         <v>255</v>
       </c>
@@ -24540,7 +24585,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
         <v>256</v>
       </c>
@@ -24618,7 +24663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
         <v>257</v>
       </c>
@@ -24696,7 +24741,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
         <v>258</v>
       </c>
@@ -24770,7 +24815,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
         <v>259</v>
       </c>
@@ -24846,7 +24891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
         <v>260</v>
       </c>
@@ -24920,7 +24965,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
         <v>261</v>
       </c>
@@ -24998,7 +25043,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
         <v>262</v>
       </c>
@@ -25080,7 +25125,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
         <v>263</v>
       </c>
@@ -25156,7 +25201,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
         <v>265</v>
       </c>
@@ -25238,7 +25283,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
         <v>266</v>
       </c>
@@ -25320,7 +25365,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
         <v>267</v>
       </c>
@@ -25390,7 +25435,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
         <v>268</v>
       </c>
@@ -25472,7 +25517,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
         <v>269</v>
       </c>
@@ -25554,7 +25599,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
         <v>270</v>
       </c>
@@ -25632,7 +25677,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
         <v>271</v>
       </c>
@@ -25708,7 +25753,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
         <v>272</v>
       </c>
@@ -25782,7 +25827,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
         <v>273</v>
       </c>
@@ -25862,7 +25907,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
         <v>274</v>
       </c>
@@ -25926,7 +25971,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
         <v>275</v>
       </c>
@@ -26002,7 +26047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
         <v>276</v>
       </c>
@@ -26078,7 +26123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
         <v>277</v>
       </c>
@@ -26154,7 +26199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
         <v>278</v>
       </c>
@@ -26218,7 +26263,7 @@
       </c>
       <c r="AL293" s="5"/>
     </row>
-    <row r="294" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
         <v>279</v>
       </c>
@@ -26282,7 +26327,7 @@
       </c>
       <c r="AL294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
         <v>280</v>
       </c>
@@ -26350,7 +26395,7 @@
       </c>
       <c r="AL295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
         <v>281</v>
       </c>
@@ -26418,7 +26463,7 @@
       </c>
       <c r="AL296" s="5"/>
     </row>
-    <row r="297" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
         <v>282</v>
       </c>
@@ -26486,7 +26531,7 @@
       </c>
       <c r="AL297" s="5"/>
     </row>
-    <row r="298" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
         <v>283</v>
       </c>
@@ -26550,7 +26595,7 @@
       </c>
       <c r="AL298" s="5"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
         <v>284</v>
       </c>
@@ -26614,7 +26659,7 @@
       </c>
       <c r="AL299" s="5"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
         <v>285</v>
       </c>
@@ -26680,7 +26725,7 @@
       <c r="AK300" s="5"/>
       <c r="AL300" s="5"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
         <v>286</v>
       </c>
@@ -26746,7 +26791,7 @@
       <c r="AK301" s="5"/>
       <c r="AL301" s="5"/>
     </row>
-    <row r="302" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
         <v>287</v>
       </c>
@@ -26814,7 +26859,7 @@
       </c>
       <c r="AL302" s="5"/>
     </row>
-    <row r="303" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
         <v>288</v>
       </c>
@@ -26882,7 +26927,7 @@
       </c>
       <c r="AL303" s="5"/>
     </row>
-    <row r="304" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
         <v>289</v>
       </c>
@@ -26950,7 +26995,7 @@
       </c>
       <c r="AL304" s="5"/>
     </row>
-    <row r="305" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
         <v>290</v>
       </c>
@@ -27018,7 +27063,7 @@
       </c>
       <c r="AL305" s="5"/>
     </row>
-    <row r="306" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
         <v>291</v>
       </c>
@@ -27086,7 +27131,7 @@
       </c>
       <c r="AL306" s="5"/>
     </row>
-    <row r="307" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
         <v>292</v>
       </c>
@@ -27154,7 +27199,7 @@
       </c>
       <c r="AL307" s="5"/>
     </row>
-    <row r="308" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
         <v>293</v>
       </c>
@@ -27222,7 +27267,7 @@
       </c>
       <c r="AL308" s="5"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
         <v>521</v>
       </c>
@@ -27283,6 +27328,7 @@
       <c r="AL309" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL309"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27290,5 +27336,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$309</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$309</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1529,10 +1530,10 @@
     <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
@@ -1580,10 +1581,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
@@ -3254,12 +3255,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3349,7 +3356,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3414,6 +3421,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3426,7 +3441,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3434,11 +3449,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3476,6 +3491,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3490,53 +3565,53 @@
   </sheetPr>
   <dimension ref="A1:AL309"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AK265" activeCellId="0" sqref="AK265"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.78947368421053"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9230769230769"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.74089068825911"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="77.1983805668016"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="132.955465587045"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="22.5384615384615"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.36842105263158"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="6.47773279352227"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36437246963563"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="77.8744939271255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="114.080971659919"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="134.218623481781"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13943,10 +14018,10 @@
       <c r="E135" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="16" t="s">
         <v>432</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -13958,11 +14033,11 @@
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="N135" s="10" t="n">
-        <v>111111</v>
+      <c r="N135" s="17" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
@@ -14423,10 +14498,10 @@
       <c r="E141" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="G141" s="16" t="s">
         <v>449</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -14438,11 +14513,11 @@
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="N141" s="10" t="n">
-        <v>111111</v>
+      <c r="N141" s="17" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
@@ -18609,7 +18684,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
-      <c r="V193" s="16"/>
+      <c r="V193" s="18"/>
       <c r="W193" s="5"/>
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
@@ -18691,7 +18766,7 @@
       </c>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="16"/>
+      <c r="V194" s="18"/>
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
@@ -18841,7 +18916,7 @@
       </c>
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
-      <c r="V196" s="16"/>
+      <c r="V196" s="18"/>
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
@@ -18911,7 +18986,7 @@
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
-      <c r="V197" s="16"/>
+      <c r="V197" s="18"/>
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
@@ -18995,7 +19070,7 @@
       </c>
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
-      <c r="V198" s="16"/>
+      <c r="V198" s="18"/>
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
@@ -19071,7 +19146,7 @@
       </c>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="16"/>
+      <c r="V199" s="18"/>
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
@@ -19147,7 +19222,7 @@
       </c>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
-      <c r="V200" s="16"/>
+      <c r="V200" s="18"/>
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
@@ -19217,7 +19292,7 @@
       <c r="S201" s="5"/>
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
-      <c r="V201" s="16"/>
+      <c r="V201" s="18"/>
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
@@ -19299,7 +19374,7 @@
       </c>
       <c r="T202" s="5"/>
       <c r="U202" s="5"/>
-      <c r="V202" s="16"/>
+      <c r="V202" s="18"/>
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
@@ -19443,7 +19518,7 @@
       <c r="S204" s="5"/>
       <c r="T204" s="5"/>
       <c r="U204" s="5"/>
-      <c r="V204" s="16"/>
+      <c r="V204" s="18"/>
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
@@ -19519,7 +19594,7 @@
       </c>
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
-      <c r="V205" s="16"/>
+      <c r="V205" s="18"/>
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
@@ -19595,7 +19670,7 @@
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
-      <c r="V206" s="16"/>
+      <c r="V206" s="18"/>
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
@@ -19667,7 +19742,7 @@
       <c r="S207" s="5"/>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
-      <c r="V207" s="16"/>
+      <c r="V207" s="18"/>
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
@@ -19751,7 +19826,7 @@
       </c>
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
-      <c r="V208" s="16"/>
+      <c r="V208" s="18"/>
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
@@ -19827,7 +19902,7 @@
       </c>
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
-      <c r="V209" s="16"/>
+      <c r="V209" s="18"/>
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
@@ -19903,7 +19978,7 @@
       </c>
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
-      <c r="V210" s="16"/>
+      <c r="V210" s="18"/>
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
@@ -19979,7 +20054,7 @@
       </c>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="16"/>
+      <c r="V211" s="18"/>
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
@@ -20055,7 +20130,7 @@
       </c>
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
-      <c r="V212" s="16"/>
+      <c r="V212" s="18"/>
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
@@ -20125,7 +20200,7 @@
       <c r="S213" s="5"/>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="16"/>
+      <c r="V213" s="18"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
@@ -20207,7 +20282,7 @@
       </c>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
-      <c r="V214" s="16"/>
+      <c r="V214" s="18"/>
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
@@ -20357,7 +20432,7 @@
       </c>
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
-      <c r="V216" s="16"/>
+      <c r="V216" s="18"/>
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
@@ -20429,7 +20504,7 @@
       <c r="S217" s="5"/>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="16"/>
+      <c r="V217" s="18"/>
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
@@ -20511,7 +20586,7 @@
       </c>
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
-      <c r="V218" s="16"/>
+      <c r="V218" s="18"/>
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
@@ -20655,7 +20730,7 @@
       <c r="S220" s="5"/>
       <c r="T220" s="5"/>
       <c r="U220" s="5"/>
-      <c r="V220" s="16"/>
+      <c r="V220" s="18"/>
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
@@ -20731,7 +20806,7 @@
       </c>
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
-      <c r="V221" s="16"/>
+      <c r="V221" s="18"/>
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
@@ -20807,7 +20882,7 @@
       </c>
       <c r="T222" s="5"/>
       <c r="U222" s="5"/>
-      <c r="V222" s="16"/>
+      <c r="V222" s="18"/>
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
@@ -20879,9 +20954,9 @@
       <c r="S223" s="5"/>
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
-      <c r="V223" s="16"/>
+      <c r="V223" s="18"/>
       <c r="W223" s="5"/>
-      <c r="X223" s="17" t="s">
+      <c r="X223" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y223" s="5"/>
@@ -20963,9 +21038,9 @@
       </c>
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
-      <c r="V224" s="16"/>
+      <c r="V224" s="18"/>
       <c r="W224" s="5"/>
-      <c r="X224" s="17" t="s">
+      <c r="X224" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y224" s="5"/>
@@ -21039,7 +21114,7 @@
         <v>700</v>
       </c>
       <c r="W225" s="5"/>
-      <c r="X225" s="17" t="s">
+      <c r="X225" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y225" s="5"/>
@@ -21107,9 +21182,9 @@
       <c r="S226" s="5"/>
       <c r="T226" s="5"/>
       <c r="U226" s="5"/>
-      <c r="V226" s="16"/>
+      <c r="V226" s="18"/>
       <c r="W226" s="5"/>
-      <c r="X226" s="17" t="s">
+      <c r="X226" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y226" s="5"/>
@@ -21183,9 +21258,9 @@
       </c>
       <c r="T227" s="5"/>
       <c r="U227" s="5"/>
-      <c r="V227" s="16"/>
+      <c r="V227" s="18"/>
       <c r="W227" s="5"/>
-      <c r="X227" s="17" t="s">
+      <c r="X227" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y227" s="5"/>
@@ -21259,9 +21334,9 @@
       </c>
       <c r="T228" s="5"/>
       <c r="U228" s="5"/>
-      <c r="V228" s="16"/>
+      <c r="V228" s="18"/>
       <c r="W228" s="5"/>
-      <c r="X228" s="17" t="s">
+      <c r="X228" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y228" s="5"/>
@@ -21335,9 +21410,9 @@
       </c>
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
-      <c r="V229" s="16"/>
+      <c r="V229" s="18"/>
       <c r="W229" s="5"/>
-      <c r="X229" s="17" t="s">
+      <c r="X229" s="19" t="s">
         <v>76</v>
       </c>
       <c r="Y229" s="5"/>
@@ -21407,7 +21482,7 @@
       <c r="S230" s="5"/>
       <c r="T230" s="5"/>
       <c r="U230" s="5"/>
-      <c r="V230" s="16"/>
+      <c r="V230" s="18"/>
       <c r="W230" s="5"/>
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
@@ -21489,7 +21564,7 @@
       </c>
       <c r="T231" s="5"/>
       <c r="U231" s="5"/>
-      <c r="V231" s="16"/>
+      <c r="V231" s="18"/>
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
@@ -21633,7 +21708,7 @@
       <c r="S233" s="5"/>
       <c r="T233" s="5"/>
       <c r="U233" s="5"/>
-      <c r="V233" s="16"/>
+      <c r="V233" s="18"/>
       <c r="W233" s="5"/>
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
@@ -21711,7 +21786,7 @@
       </c>
       <c r="T234" s="5"/>
       <c r="U234" s="5"/>
-      <c r="V234" s="16"/>
+      <c r="V234" s="18"/>
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
@@ -21783,7 +21858,7 @@
       <c r="S235" s="5"/>
       <c r="T235" s="5"/>
       <c r="U235" s="5"/>
-      <c r="V235" s="16"/>
+      <c r="V235" s="18"/>
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
@@ -21865,7 +21940,7 @@
       </c>
       <c r="T236" s="5"/>
       <c r="U236" s="5"/>
-      <c r="V236" s="16"/>
+      <c r="V236" s="18"/>
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
@@ -22015,7 +22090,7 @@
       </c>
       <c r="T238" s="5"/>
       <c r="U238" s="5"/>
-      <c r="V238" s="16"/>
+      <c r="V238" s="18"/>
       <c r="W238" s="5"/>
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
@@ -22087,7 +22162,7 @@
       <c r="S239" s="5"/>
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
-      <c r="V239" s="16"/>
+      <c r="V239" s="18"/>
       <c r="W239" s="5"/>
       <c r="X239" s="5" t="s">
         <v>81</v>
@@ -22169,7 +22244,7 @@
       </c>
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
-      <c r="V240" s="16"/>
+      <c r="V240" s="18"/>
       <c r="W240" s="5"/>
       <c r="X240" s="5" t="s">
         <v>81</v>
@@ -22313,7 +22388,7 @@
       <c r="S242" s="5"/>
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
-      <c r="V242" s="16"/>
+      <c r="V242" s="18"/>
       <c r="W242" s="5"/>
       <c r="X242" s="5" t="s">
         <v>81</v>
@@ -22389,7 +22464,7 @@
       </c>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="16"/>
+      <c r="V243" s="18"/>
       <c r="W243" s="5"/>
       <c r="X243" s="5" t="s">
         <v>81</v>
@@ -22465,7 +22540,7 @@
       </c>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="16"/>
+      <c r="V244" s="18"/>
       <c r="W244" s="5"/>
       <c r="X244" s="5" t="s">
         <v>81</v>
@@ -22537,7 +22612,7 @@
       <c r="S245" s="5"/>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="16"/>
+      <c r="V245" s="18"/>
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
@@ -22619,7 +22694,7 @@
       </c>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="16"/>
+      <c r="V246" s="18"/>
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
@@ -22769,7 +22844,7 @@
       </c>
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
-      <c r="V248" s="16"/>
+      <c r="V248" s="18"/>
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
@@ -22949,7 +23024,7 @@
       <c r="AK250" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="AL250" s="18" t="n">
+      <c r="AL250" s="20" t="n">
         <v>501</v>
       </c>
     </row>
@@ -23727,7 +23802,7 @@
       <c r="AK260" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="AL260" s="18" t="n">
+      <c r="AL260" s="20" t="n">
         <v>502</v>
       </c>
     </row>
@@ -24271,7 +24346,7 @@
       <c r="AK267" s="15" t="n">
         <v>252</v>
       </c>
-      <c r="AL267" s="18" t="n">
+      <c r="AL267" s="20" t="n">
         <v>503</v>
       </c>
     </row>
@@ -24503,7 +24578,7 @@
       <c r="AK270" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="AL270" s="18" t="n">
+      <c r="AL270" s="20" t="n">
         <v>504</v>
       </c>
     </row>
@@ -24541,7 +24616,7 @@
       <c r="M271" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="N271" s="19" t="n">
+      <c r="N271" s="21" t="n">
         <v>4607042431722</v>
       </c>
       <c r="O271" s="10"/>
@@ -24616,7 +24691,7 @@
       </c>
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
-      <c r="M272" s="18" t="s">
+      <c r="M272" s="20" t="s">
         <v>306</v>
       </c>
       <c r="N272" s="14" t="s">
@@ -25039,7 +25114,7 @@
         <v>261</v>
       </c>
       <c r="AK277" s="5"/>
-      <c r="AL277" s="20" t="n">
+      <c r="AL277" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25121,7 +25196,7 @@
         <v>262</v>
       </c>
       <c r="AK278" s="5"/>
-      <c r="AL278" s="20" t="n">
+      <c r="AL278" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25197,7 +25272,7 @@
       <c r="AK279" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="AL279" s="20" t="n">
+      <c r="AL279" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25254,7 +25329,7 @@
       <c r="X280" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="Y280" s="21" t="s">
+      <c r="Y280" s="23" t="s">
         <v>863</v>
       </c>
       <c r="Z280" s="5"/>
@@ -25336,7 +25411,7 @@
       <c r="X281" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="Y281" s="22" t="s">
+      <c r="Y281" s="24" t="s">
         <v>867</v>
       </c>
       <c r="Z281" s="5"/>
@@ -25749,7 +25824,7 @@
         <v>271</v>
       </c>
       <c r="AK286" s="5"/>
-      <c r="AL286" s="20" t="n">
+      <c r="AL286" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25766,7 +25841,7 @@
       <c r="D287" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E287" s="20" t="s">
+      <c r="E287" s="22" t="s">
         <v>624</v>
       </c>
       <c r="F287" s="5" t="s">
@@ -25823,7 +25898,7 @@
       <c r="AK287" s="15" t="n">
         <v>273</v>
       </c>
-      <c r="AL287" s="20" t="n">
+      <c r="AL287" s="22" t="n">
         <v>301</v>
       </c>
     </row>
@@ -25840,7 +25915,7 @@
       <c r="D288" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E288" s="20" t="s">
+      <c r="E288" s="22" t="s">
         <v>624</v>
       </c>
       <c r="F288" s="5" t="s">
@@ -25967,7 +26042,7 @@
       <c r="AK289" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="AL289" s="20" t="n">
+      <c r="AL289" s="22" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26119,7 +26194,7 @@
         <v>276</v>
       </c>
       <c r="AK291" s="5"/>
-      <c r="AL291" s="20" t="n">
+      <c r="AL291" s="22" t="n">
         <v>274</v>
       </c>
     </row>
@@ -26195,7 +26270,7 @@
         <v>277</v>
       </c>
       <c r="AK292" s="5"/>
-      <c r="AL292" s="20" t="n">
+      <c r="AL292" s="22" t="n">
         <v>274</v>
       </c>
     </row>
@@ -26212,10 +26287,10 @@
       <c r="D293" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E293" s="20" t="s">
+      <c r="E293" s="22" t="s">
         <v>905</v>
       </c>
-      <c r="F293" s="20" t="s">
+      <c r="F293" s="22" t="s">
         <v>906</v>
       </c>
       <c r="G293" s="5" t="s">
@@ -26250,7 +26325,7 @@
       <c r="AB293" s="5"/>
       <c r="AC293" s="5"/>
       <c r="AD293" s="5"/>
-      <c r="AE293" s="23"/>
+      <c r="AE293" s="25"/>
       <c r="AF293" s="5"/>
       <c r="AG293" s="5"/>
       <c r="AH293" s="5"/>
@@ -26279,10 +26354,10 @@
       <c r="E294" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="F294" s="18" t="s">
+      <c r="F294" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="G294" s="18" t="s">
+      <c r="G294" s="20" t="s">
         <v>914</v>
       </c>
       <c r="H294" s="5" t="s">
@@ -26295,7 +26370,7 @@
       <c r="K294" s="7"/>
       <c r="L294" s="7"/>
       <c r="M294" s="5"/>
-      <c r="N294" s="24"/>
+      <c r="N294" s="26"/>
       <c r="O294" s="5"/>
       <c r="P294" s="5"/>
       <c r="Q294" s="5"/>
@@ -26314,7 +26389,7 @@
       <c r="AB294" s="5"/>
       <c r="AC294" s="5"/>
       <c r="AD294" s="5"/>
-      <c r="AE294" s="23"/>
+      <c r="AE294" s="25"/>
       <c r="AF294" s="5"/>
       <c r="AG294" s="5"/>
       <c r="AH294" s="5"/>
@@ -26340,10 +26415,10 @@
       <c r="D295" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E295" s="20" t="s">
+      <c r="E295" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="F295" s="20" t="s">
+      <c r="F295" s="22" t="s">
         <v>917</v>
       </c>
       <c r="G295" s="5" t="s">
@@ -26361,10 +26436,10 @@
       <c r="M295" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="N295" s="25" t="s">
+      <c r="N295" s="27" t="s">
         <v>922</v>
       </c>
-      <c r="O295" s="26"/>
+      <c r="O295" s="28"/>
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
@@ -26382,7 +26457,7 @@
       <c r="AB295" s="5"/>
       <c r="AC295" s="5"/>
       <c r="AD295" s="5"/>
-      <c r="AE295" s="23"/>
+      <c r="AE295" s="25"/>
       <c r="AF295" s="5"/>
       <c r="AG295" s="5"/>
       <c r="AH295" s="5"/>
@@ -26408,10 +26483,10 @@
       <c r="D296" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E296" s="20" t="s">
+      <c r="E296" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="F296" s="20" t="s">
+      <c r="F296" s="22" t="s">
         <v>917</v>
       </c>
       <c r="G296" s="5" t="s">
@@ -26429,10 +26504,10 @@
       <c r="M296" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="N296" s="25" t="s">
+      <c r="N296" s="27" t="s">
         <v>923</v>
       </c>
-      <c r="O296" s="26"/>
+      <c r="O296" s="28"/>
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
@@ -26450,7 +26525,7 @@
       <c r="AB296" s="5"/>
       <c r="AC296" s="5"/>
       <c r="AD296" s="5"/>
-      <c r="AE296" s="23"/>
+      <c r="AE296" s="25"/>
       <c r="AF296" s="5"/>
       <c r="AG296" s="5"/>
       <c r="AH296" s="5"/>
@@ -26476,10 +26551,10 @@
       <c r="D297" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E297" s="20" t="s">
+      <c r="E297" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="F297" s="20" t="s">
+      <c r="F297" s="22" t="s">
         <v>917</v>
       </c>
       <c r="G297" s="5" t="s">
@@ -26497,10 +26572,10 @@
       <c r="M297" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="N297" s="25" t="s">
+      <c r="N297" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="O297" s="26"/>
+      <c r="O297" s="28"/>
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
@@ -26518,7 +26593,7 @@
       <c r="AB297" s="5"/>
       <c r="AC297" s="5"/>
       <c r="AD297" s="5"/>
-      <c r="AE297" s="23"/>
+      <c r="AE297" s="25"/>
       <c r="AF297" s="5"/>
       <c r="AG297" s="5"/>
       <c r="AH297" s="5"/>
@@ -26544,13 +26619,13 @@
       <c r="D298" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E298" s="20" t="s">
+      <c r="E298" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="F298" s="20" t="s">
+      <c r="F298" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="G298" s="18" t="s">
+      <c r="G298" s="20" t="s">
         <v>927</v>
       </c>
       <c r="H298" s="5" t="s">
@@ -26563,7 +26638,7 @@
       <c r="K298" s="7"/>
       <c r="L298" s="7"/>
       <c r="M298" s="5"/>
-      <c r="N298" s="27"/>
+      <c r="N298" s="29"/>
       <c r="O298" s="5"/>
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
@@ -26582,7 +26657,7 @@
       <c r="AB298" s="5"/>
       <c r="AC298" s="5"/>
       <c r="AD298" s="5"/>
-      <c r="AE298" s="23"/>
+      <c r="AE298" s="25"/>
       <c r="AF298" s="5"/>
       <c r="AG298" s="5"/>
       <c r="AH298" s="5"/>
@@ -26608,13 +26683,13 @@
       <c r="D299" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E299" s="20" t="s">
+      <c r="E299" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="F299" s="20" t="s">
+      <c r="F299" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="G299" s="18" t="s">
+      <c r="G299" s="20" t="s">
         <v>932</v>
       </c>
       <c r="H299" s="5" t="s">
@@ -26646,7 +26721,7 @@
       <c r="AB299" s="5"/>
       <c r="AC299" s="5"/>
       <c r="AD299" s="5"/>
-      <c r="AE299" s="23"/>
+      <c r="AE299" s="25"/>
       <c r="AF299" s="5"/>
       <c r="AG299" s="5"/>
       <c r="AH299" s="5"/>
@@ -26672,10 +26747,10 @@
       <c r="D300" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E300" s="20" t="s">
+      <c r="E300" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="F300" s="20" t="s">
+      <c r="F300" s="22" t="s">
         <v>935</v>
       </c>
       <c r="G300" s="5" t="s">
@@ -26714,7 +26789,7 @@
       <c r="AB300" s="5"/>
       <c r="AC300" s="5"/>
       <c r="AD300" s="5"/>
-      <c r="AE300" s="23"/>
+      <c r="AE300" s="25"/>
       <c r="AF300" s="5"/>
       <c r="AG300" s="5"/>
       <c r="AH300" s="5"/>
@@ -26738,10 +26813,10 @@
       <c r="D301" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E301" s="20" t="s">
+      <c r="E301" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="F301" s="20" t="s">
+      <c r="F301" s="22" t="s">
         <v>941</v>
       </c>
       <c r="G301" s="5" t="s">
@@ -26780,7 +26855,7 @@
       <c r="AB301" s="5"/>
       <c r="AC301" s="5"/>
       <c r="AD301" s="5"/>
-      <c r="AE301" s="23"/>
+      <c r="AE301" s="25"/>
       <c r="AF301" s="5"/>
       <c r="AG301" s="5"/>
       <c r="AH301" s="5"/>
@@ -26804,10 +26879,10 @@
       <c r="D302" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E302" s="20" t="s">
+      <c r="E302" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F302" s="20" t="s">
+      <c r="F302" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G302" s="5" t="s">
@@ -26846,7 +26921,7 @@
       <c r="AB302" s="5"/>
       <c r="AC302" s="5"/>
       <c r="AD302" s="5"/>
-      <c r="AE302" s="23"/>
+      <c r="AE302" s="25"/>
       <c r="AF302" s="5"/>
       <c r="AG302" s="5"/>
       <c r="AH302" s="5"/>
@@ -26872,10 +26947,10 @@
       <c r="D303" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E303" s="20" t="s">
+      <c r="E303" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F303" s="20" t="s">
+      <c r="F303" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G303" s="5" t="s">
@@ -26914,7 +26989,7 @@
       <c r="AB303" s="5"/>
       <c r="AC303" s="5"/>
       <c r="AD303" s="5"/>
-      <c r="AE303" s="23"/>
+      <c r="AE303" s="25"/>
       <c r="AF303" s="5"/>
       <c r="AG303" s="5"/>
       <c r="AH303" s="5"/>
@@ -26940,10 +27015,10 @@
       <c r="D304" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E304" s="20" t="s">
+      <c r="E304" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F304" s="20" t="s">
+      <c r="F304" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G304" s="5" t="s">
@@ -26982,7 +27057,7 @@
       <c r="AB304" s="5"/>
       <c r="AC304" s="5"/>
       <c r="AD304" s="5"/>
-      <c r="AE304" s="23"/>
+      <c r="AE304" s="25"/>
       <c r="AF304" s="5"/>
       <c r="AG304" s="5"/>
       <c r="AH304" s="5"/>
@@ -27008,10 +27083,10 @@
       <c r="D305" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E305" s="20" t="s">
+      <c r="E305" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F305" s="20" t="s">
+      <c r="F305" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G305" s="5" t="s">
@@ -27029,7 +27104,7 @@
       <c r="M305" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="N305" s="28" t="s">
+      <c r="N305" s="30" t="s">
         <v>951</v>
       </c>
       <c r="O305" s="5"/>
@@ -27050,7 +27125,7 @@
       <c r="AB305" s="5"/>
       <c r="AC305" s="5"/>
       <c r="AD305" s="5"/>
-      <c r="AE305" s="23"/>
+      <c r="AE305" s="25"/>
       <c r="AF305" s="5"/>
       <c r="AG305" s="5"/>
       <c r="AH305" s="5"/>
@@ -27076,10 +27151,10 @@
       <c r="D306" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E306" s="20" t="s">
+      <c r="E306" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F306" s="20" t="s">
+      <c r="F306" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G306" s="5" t="s">
@@ -27097,7 +27172,7 @@
       <c r="M306" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="N306" s="28" t="s">
+      <c r="N306" s="30" t="s">
         <v>953</v>
       </c>
       <c r="O306" s="5"/>
@@ -27118,7 +27193,7 @@
       <c r="AB306" s="5"/>
       <c r="AC306" s="5"/>
       <c r="AD306" s="5"/>
-      <c r="AE306" s="23"/>
+      <c r="AE306" s="25"/>
       <c r="AF306" s="5"/>
       <c r="AG306" s="5"/>
       <c r="AH306" s="5"/>
@@ -27144,10 +27219,10 @@
       <c r="D307" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E307" s="20" t="s">
+      <c r="E307" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F307" s="20" t="s">
+      <c r="F307" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G307" s="5" t="s">
@@ -27186,7 +27261,7 @@
       <c r="AB307" s="5"/>
       <c r="AC307" s="5"/>
       <c r="AD307" s="5"/>
-      <c r="AE307" s="23"/>
+      <c r="AE307" s="25"/>
       <c r="AF307" s="5"/>
       <c r="AG307" s="5"/>
       <c r="AH307" s="5"/>
@@ -27212,10 +27287,10 @@
       <c r="D308" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E308" s="20" t="s">
+      <c r="E308" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F308" s="20" t="s">
+      <c r="F308" s="22" t="s">
         <v>947</v>
       </c>
       <c r="G308" s="5" t="s">
@@ -27254,7 +27329,7 @@
       <c r="AB308" s="5"/>
       <c r="AC308" s="5"/>
       <c r="AD308" s="5"/>
-      <c r="AE308" s="23"/>
+      <c r="AE308" s="25"/>
       <c r="AF308" s="5"/>
       <c r="AG308" s="5"/>
       <c r="AH308" s="5"/>
@@ -27280,11 +27355,11 @@
       <c r="D309" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E309" s="20"/>
-      <c r="F309" s="20" t="s">
+      <c r="E309" s="22"/>
+      <c r="F309" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="G309" s="20" t="s">
+      <c r="G309" s="22" t="s">
         <v>959</v>
       </c>
       <c r="H309" s="5" t="s">
@@ -27296,7 +27371,7 @@
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="5"/>
-      <c r="M309" s="28"/>
+      <c r="M309" s="30"/>
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
       <c r="P309" s="5"/>
@@ -27314,7 +27389,7 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="5"/>
       <c r="AB309" s="5"/>
-      <c r="AC309" s="23"/>
+      <c r="AC309" s="25"/>
       <c r="AD309" s="5"/>
       <c r="AE309" s="5"/>
       <c r="AF309" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3038,7 +3039,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Rich/Schweppes  in customer cooler</t>
+    <t xml:space="preserve">Impulse Activations: Rich/Schweppes in customer cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация: Rich/Schweppes в ХО клиента</t>
@@ -3419,42 +3420,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="57.0931174089069"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="80.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="81.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="90.4089068825911"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="101.336032388664"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="91.2672064777328"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="131.862348178138"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="160.251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="102.19028340081"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,9 +11,12 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$315</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="977">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3414,48 +3417,50 @@
   </sheetPr>
   <dimension ref="A1:AL315"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A284" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F297" activeCellId="0" sqref="F297"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="F211" activeCellId="0" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="57.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="81.5182186234818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="91.2672064777328"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="131.862348178138"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="160.251012145749"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="102.19028340081"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.6234817813765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="135.396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="164.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="104.87044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -18121,9 +18126,11 @@
         <v>0.01</v>
       </c>
       <c r="AF185" s="8"/>
-      <c r="AG185" s="8"/>
+      <c r="AG185" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="AH185" s="8" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="AI185" s="8" t="n">
         <v>2</v>
@@ -18655,10 +18662,10 @@
       </c>
       <c r="AE192" s="0"/>
       <c r="AF192" s="8"/>
-      <c r="AG192" s="8"/>
-      <c r="AH192" s="8" t="s">
+      <c r="AG192" s="8" t="s">
         <v>607</v>
       </c>
+      <c r="AH192" s="8"/>
       <c r="AI192" s="8" t="n">
         <v>3</v>
       </c>
@@ -19409,10 +19416,10 @@
       </c>
       <c r="AE202" s="0"/>
       <c r="AF202" s="8"/>
-      <c r="AG202" s="8"/>
-      <c r="AH202" s="8" t="s">
+      <c r="AG202" s="8" t="s">
         <v>635</v>
       </c>
+      <c r="AH202" s="8"/>
       <c r="AI202" s="8" t="n">
         <v>3</v>
       </c>
@@ -20375,10 +20382,10 @@
       </c>
       <c r="AE215" s="0"/>
       <c r="AF215" s="8"/>
-      <c r="AG215" s="8"/>
-      <c r="AH215" s="8" t="s">
+      <c r="AG215" s="8" t="s">
         <v>676</v>
       </c>
+      <c r="AH215" s="8"/>
       <c r="AI215" s="8" t="n">
         <v>4</v>
       </c>
@@ -20451,10 +20458,10 @@
       </c>
       <c r="AE216" s="0"/>
       <c r="AF216" s="8"/>
-      <c r="AG216" s="8"/>
-      <c r="AH216" s="8" t="s">
+      <c r="AG216" s="8" t="s">
         <v>679</v>
       </c>
+      <c r="AH216" s="8"/>
       <c r="AI216" s="8" t="n">
         <v>4</v>
       </c>
@@ -20525,9 +20532,11 @@
         <v>0.01</v>
       </c>
       <c r="AF217" s="8"/>
-      <c r="AG217" s="8"/>
+      <c r="AG217" s="8" t="s">
+        <v>682</v>
+      </c>
       <c r="AH217" s="8" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="AI217" s="8" t="n">
         <v>2</v>
@@ -21281,10 +21290,10 @@
       </c>
       <c r="AE227" s="0"/>
       <c r="AF227" s="8"/>
-      <c r="AG227" s="8"/>
-      <c r="AH227" s="8" t="s">
+      <c r="AG227" s="8" t="s">
         <v>676</v>
       </c>
+      <c r="AH227" s="8"/>
       <c r="AI227" s="8" t="n">
         <v>4</v>
       </c>
@@ -21357,10 +21366,10 @@
       </c>
       <c r="AE228" s="0"/>
       <c r="AF228" s="8"/>
-      <c r="AG228" s="8"/>
-      <c r="AH228" s="8" t="s">
+      <c r="AG228" s="8" t="s">
         <v>679</v>
       </c>
+      <c r="AH228" s="8"/>
       <c r="AI228" s="8" t="n">
         <v>4</v>
       </c>
@@ -21795,10 +21804,10 @@
       </c>
       <c r="AE234" s="0"/>
       <c r="AF234" s="8"/>
-      <c r="AG234" s="8"/>
-      <c r="AH234" s="8" t="s">
+      <c r="AG234" s="8" t="s">
         <v>728</v>
       </c>
+      <c r="AH234" s="8"/>
       <c r="AI234" s="8" t="n">
         <v>4</v>
       </c>
@@ -21871,10 +21880,10 @@
       </c>
       <c r="AE235" s="0"/>
       <c r="AF235" s="8"/>
-      <c r="AG235" s="8"/>
-      <c r="AH235" s="8" t="s">
+      <c r="AG235" s="8" t="s">
         <v>731</v>
       </c>
+      <c r="AH235" s="8"/>
       <c r="AI235" s="8" t="n">
         <v>4</v>
       </c>
@@ -22307,10 +22316,10 @@
       </c>
       <c r="AE241" s="0"/>
       <c r="AF241" s="8"/>
-      <c r="AG241" s="8"/>
-      <c r="AH241" s="8" t="s">
+      <c r="AG241" s="8" t="s">
         <v>748</v>
       </c>
+      <c r="AH241" s="8"/>
       <c r="AI241" s="8" t="n">
         <v>4</v>
       </c>
@@ -22383,10 +22392,10 @@
       </c>
       <c r="AE242" s="0"/>
       <c r="AF242" s="8"/>
-      <c r="AG242" s="8"/>
-      <c r="AH242" s="8" t="s">
+      <c r="AG242" s="8" t="s">
         <v>751</v>
       </c>
+      <c r="AH242" s="8"/>
       <c r="AI242" s="8" t="n">
         <v>4</v>
       </c>
@@ -27685,7 +27694,7 @@
       <c r="AL315" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL315"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$315</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$315</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AL$315</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3425,50 +3426,50 @@
   </sheetPr>
   <dimension ref="A1:AL315"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="V198" activeCellId="0" sqref="V198"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AE83" activeCellId="0" sqref="AE83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.1578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.9109311740891"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.1214574898785"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="137.862348178138"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="167.534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="106.692307692308"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.4493927125506"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="139.145748987854"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="169.032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="107.655870445344"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.9838056680162"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -10442,9 +10443,6 @@
       <c r="AD88" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AE88" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AF88" s="8"/>
       <c r="AG88" s="8"/>
       <c r="AH88" s="8"/>
@@ -27702,7 +27700,7 @@
       <c r="AL315" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL315"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$314</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$314</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="978">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2280,6 +2279,12 @@
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L/0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434877, 4607042430619</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -3290,7 +3295,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3301,6 +3306,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -3347,7 +3358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3404,6 +3415,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3421,11 +3436,67 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3435,13 +3506,13 @@
   </sheetPr>
   <dimension ref="A1:AN314"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G272" activeCellId="0" sqref="G272"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N224" activeCellId="0" sqref="N224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
@@ -20788,11 +20859,11 @@
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
-      <c r="O215" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="P215" s="8" t="n">
-        <v>4607042434877</v>
+      <c r="O215" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="P215" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="Q215" s="8"/>
       <c r="R215" s="8"/>
@@ -20820,7 +20891,7 @@
       </c>
       <c r="AH215" s="8"/>
       <c r="AI215" s="8" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AJ215" s="8"/>
       <c r="AK215" s="8" t="n">
@@ -20851,10 +20922,10 @@
         <v>569</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H216" s="8" t="s">
         <v>588</v>
@@ -20897,7 +20968,7 @@
       </c>
       <c r="AH216" s="8"/>
       <c r="AI216" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AJ216" s="8"/>
       <c r="AK216" s="8" t="n">
@@ -20928,10 +20999,10 @@
         <v>594</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H217" s="8" t="s">
         <v>572</v>
@@ -20973,7 +21044,7 @@
       </c>
       <c r="AH217" s="8"/>
       <c r="AI217" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AJ217" s="8" t="s">
         <v>666</v>
@@ -20985,7 +21056,7 @@
         <v>191</v>
       </c>
       <c r="AM217" s="9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AN217" s="8" t="n">
         <v>303</v>
@@ -21008,10 +21079,10 @@
         <v>594</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H218" s="8" t="s">
         <v>55</v>
@@ -21085,10 +21156,10 @@
         <v>594</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>55</v>
@@ -21162,10 +21233,10 @@
         <v>594</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>55</v>
@@ -21239,10 +21310,10 @@
         <v>594</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H221" s="8" t="s">
         <v>55</v>
@@ -21316,10 +21387,10 @@
         <v>594</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H222" s="8" t="s">
         <v>55</v>
@@ -21393,10 +21464,10 @@
         <v>569</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H223" s="8" t="s">
         <v>572</v>
@@ -21446,7 +21517,7 @@
         <v>201</v>
       </c>
       <c r="AM223" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AN223" s="8" t="n">
         <v>303</v>
@@ -21469,10 +21540,10 @@
         <v>569</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H224" s="8" t="s">
         <v>55</v>
@@ -21548,10 +21619,10 @@
         <v>569</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H225" s="8" t="s">
         <v>581</v>
@@ -21578,7 +21649,7 @@
       <c r="V225" s="8"/>
       <c r="W225" s="8"/>
       <c r="X225" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
@@ -21623,10 +21694,10 @@
         <v>569</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H226" s="8" t="s">
         <v>586</v>
@@ -21673,7 +21744,7 @@
         <v>204</v>
       </c>
       <c r="AM226" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AN226" s="8" t="n">
         <v>201</v>
@@ -21696,10 +21767,10 @@
         <v>569</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H227" s="8" t="s">
         <v>588</v>
@@ -21742,7 +21813,7 @@
       </c>
       <c r="AH227" s="8"/>
       <c r="AI227" s="8" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AJ227" s="8"/>
       <c r="AK227" s="8" t="n">
@@ -21773,10 +21844,10 @@
         <v>569</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H228" s="8" t="s">
         <v>588</v>
@@ -21819,7 +21890,7 @@
       </c>
       <c r="AH228" s="8"/>
       <c r="AI228" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AJ228" s="8"/>
       <c r="AK228" s="8" t="n">
@@ -21848,10 +21919,10 @@
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H229" s="8" t="s">
         <v>42</v>
@@ -21913,10 +21984,10 @@
         <v>569</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H230" s="8" t="s">
         <v>572</v>
@@ -21943,7 +22014,7 @@
       <c r="X230" s="8"/>
       <c r="Y230" s="8"/>
       <c r="Z230" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA230" s="8"/>
       <c r="AB230" s="8"/>
@@ -21966,7 +22037,7 @@
         <v>207</v>
       </c>
       <c r="AM230" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AN230" s="8" t="n">
         <v>320</v>
@@ -21989,10 +22060,10 @@
         <v>569</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>55</v>
@@ -22009,27 +22080,27 @@
         <v>577</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q231" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="R231" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="S231" s="8"/>
       <c r="T231" s="8" t="s">
         <v>57</v>
       </c>
       <c r="U231" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V231" s="8"/>
       <c r="W231" s="8"/>
       <c r="X231" s="8"/>
       <c r="Y231" s="8"/>
       <c r="Z231" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA231" s="8"/>
       <c r="AB231" s="8"/>
@@ -22070,10 +22141,10 @@
         <v>569</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H232" s="8" t="s">
         <v>581</v>
@@ -22100,11 +22171,11 @@
       <c r="V232" s="8"/>
       <c r="W232" s="8"/>
       <c r="X232" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Y232" s="8"/>
       <c r="Z232" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA232" s="8"/>
       <c r="AB232" s="8"/>
@@ -22145,10 +22216,10 @@
         <v>569</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H233" s="8" t="s">
         <v>586</v>
@@ -22175,7 +22246,7 @@
       <c r="X233" s="8"/>
       <c r="Y233" s="8"/>
       <c r="Z233" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA233" s="8"/>
       <c r="AB233" s="8"/>
@@ -22195,7 +22266,7 @@
         <v>210</v>
       </c>
       <c r="AM233" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AN233" s="8" t="n">
         <v>207</v>
@@ -22218,10 +22289,10 @@
         <v>569</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H234" s="8" t="s">
         <v>588</v>
@@ -22233,7 +22304,7 @@
       <c r="M234" s="8"/>
       <c r="N234" s="8"/>
       <c r="O234" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P234" s="8" t="s">
         <v>273</v>
@@ -22252,7 +22323,7 @@
       <c r="X234" s="8"/>
       <c r="Y234" s="8"/>
       <c r="Z234" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA234" s="8"/>
       <c r="AB234" s="8"/>
@@ -22264,7 +22335,7 @@
       </c>
       <c r="AH234" s="8"/>
       <c r="AI234" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AJ234" s="8"/>
       <c r="AK234" s="8" t="n">
@@ -22295,10 +22366,10 @@
         <v>569</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H235" s="8" t="s">
         <v>588</v>
@@ -22329,7 +22400,7 @@
       <c r="X235" s="8"/>
       <c r="Y235" s="8"/>
       <c r="Z235" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA235" s="8"/>
       <c r="AB235" s="8"/>
@@ -22341,7 +22412,7 @@
       </c>
       <c r="AH235" s="8"/>
       <c r="AI235" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AJ235" s="8"/>
       <c r="AK235" s="8" t="n">
@@ -22370,10 +22441,10 @@
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>42</v>
@@ -22435,10 +22506,10 @@
         <v>569</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H237" s="8" t="s">
         <v>572</v>
@@ -22465,7 +22536,7 @@
       <c r="X237" s="8"/>
       <c r="Y237" s="8"/>
       <c r="Z237" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA237" s="8"/>
       <c r="AB237" s="8"/>
@@ -22488,7 +22559,7 @@
         <v>223</v>
       </c>
       <c r="AM237" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AN237" s="8" t="n">
         <v>321</v>
@@ -22511,10 +22582,10 @@
         <v>569</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H238" s="8" t="s">
         <v>55</v>
@@ -22549,7 +22620,7 @@
       <c r="X238" s="8"/>
       <c r="Y238" s="8"/>
       <c r="Z238" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA238" s="8"/>
       <c r="AB238" s="8"/>
@@ -22590,10 +22661,10 @@
         <v>569</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H239" s="8" t="s">
         <v>581</v>
@@ -22620,11 +22691,11 @@
       <c r="V239" s="8"/>
       <c r="W239" s="8"/>
       <c r="X239" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Y239" s="8"/>
       <c r="Z239" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA239" s="8"/>
       <c r="AB239" s="8"/>
@@ -22665,10 +22736,10 @@
         <v>569</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H240" s="8" t="s">
         <v>586</v>
@@ -22695,7 +22766,7 @@
       <c r="X240" s="8"/>
       <c r="Y240" s="8"/>
       <c r="Z240" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA240" s="8"/>
       <c r="AB240" s="8"/>
@@ -22715,7 +22786,7 @@
         <v>226</v>
       </c>
       <c r="AM240" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AN240" s="8" t="n">
         <v>223</v>
@@ -22738,10 +22809,10 @@
         <v>569</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H241" s="8" t="s">
         <v>588</v>
@@ -22772,7 +22843,7 @@
       <c r="X241" s="8"/>
       <c r="Y241" s="8"/>
       <c r="Z241" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA241" s="8"/>
       <c r="AB241" s="8"/>
@@ -22784,7 +22855,7 @@
       </c>
       <c r="AH241" s="8"/>
       <c r="AI241" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AJ241" s="8"/>
       <c r="AK241" s="8" t="n">
@@ -22815,10 +22886,10 @@
         <v>569</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H242" s="8" t="s">
         <v>588</v>
@@ -22849,7 +22920,7 @@
       <c r="X242" s="8"/>
       <c r="Y242" s="8"/>
       <c r="Z242" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AA242" s="8"/>
       <c r="AB242" s="8"/>
@@ -22861,7 +22932,7 @@
       </c>
       <c r="AH242" s="8"/>
       <c r="AI242" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AJ242" s="8"/>
       <c r="AK242" s="8" t="n">
@@ -22890,10 +22961,10 @@
       </c>
       <c r="E243" s="8"/>
       <c r="F243" s="8" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>42</v>
@@ -22932,7 +23003,7 @@
         <v>520</v>
       </c>
       <c r="AM243" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AN243" s="8"/>
     </row>
@@ -22951,10 +23022,10 @@
       </c>
       <c r="E244" s="8"/>
       <c r="F244" s="8" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H244" s="8" t="s">
         <v>42</v>
@@ -22993,7 +23064,7 @@
         <v>501</v>
       </c>
       <c r="AM244" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AN244" s="8" t="n">
         <v>520</v>
@@ -23013,19 +23084,19 @@
         <v>589</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H245" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>50</v>
@@ -23056,7 +23127,7 @@
       <c r="X245" s="8"/>
       <c r="Y245" s="8"/>
       <c r="Z245" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA245" s="8"/>
       <c r="AB245" s="8"/>
@@ -23064,7 +23135,7 @@
       <c r="AD245" s="8"/>
       <c r="AE245" s="8"/>
       <c r="AF245" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG245" s="11" t="n">
         <v>0.0725</v>
@@ -23100,13 +23171,13 @@
         <v>594</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H246" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
@@ -23130,14 +23201,14 @@
       <c r="X246" s="8"/>
       <c r="Y246" s="8"/>
       <c r="Z246" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA246" s="8"/>
       <c r="AB246" s="8"/>
       <c r="AC246" s="8"/>
       <c r="AD246" s="8"/>
       <c r="AE246" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF246" s="8" t="s">
         <v>61</v>
@@ -23155,7 +23226,7 @@
         <v>234</v>
       </c>
       <c r="AM246" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AN246" s="8" t="n">
         <v>501</v>
@@ -23178,10 +23249,10 @@
         <v>594</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H247" s="8" t="s">
         <v>55</v>
@@ -23214,14 +23285,14 @@
       <c r="X247" s="8"/>
       <c r="Y247" s="8"/>
       <c r="Z247" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA247" s="8"/>
       <c r="AB247" s="8"/>
       <c r="AC247" s="8"/>
       <c r="AD247" s="8"/>
       <c r="AE247" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF247" s="8" t="s">
         <v>61</v>
@@ -23257,10 +23328,10 @@
         <v>594</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H248" s="8" t="s">
         <v>55</v>
@@ -23293,14 +23364,14 @@
       <c r="X248" s="8"/>
       <c r="Y248" s="8"/>
       <c r="Z248" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA248" s="8"/>
       <c r="AB248" s="8"/>
       <c r="AC248" s="8"/>
       <c r="AD248" s="8"/>
       <c r="AE248" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF248" s="8" t="s">
         <v>61</v>
@@ -23336,10 +23407,10 @@
         <v>594</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H249" s="8" t="s">
         <v>55</v>
@@ -23372,14 +23443,14 @@
       <c r="X249" s="8"/>
       <c r="Y249" s="8"/>
       <c r="Z249" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA249" s="8"/>
       <c r="AB249" s="8"/>
       <c r="AC249" s="8"/>
       <c r="AD249" s="8"/>
       <c r="AE249" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF249" s="8" t="s">
         <v>61</v>
@@ -23415,10 +23486,10 @@
         <v>594</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H250" s="8" t="s">
         <v>55</v>
@@ -23451,14 +23522,14 @@
       <c r="X250" s="8"/>
       <c r="Y250" s="8"/>
       <c r="Z250" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA250" s="8"/>
       <c r="AB250" s="8"/>
       <c r="AC250" s="8"/>
       <c r="AD250" s="8"/>
       <c r="AE250" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF250" s="8" t="s">
         <v>61</v>
@@ -23494,10 +23565,10 @@
         <v>594</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H251" s="8" t="s">
         <v>55</v>
@@ -23530,14 +23601,14 @@
       <c r="X251" s="8"/>
       <c r="Y251" s="8"/>
       <c r="Z251" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA251" s="8"/>
       <c r="AB251" s="8"/>
       <c r="AC251" s="8"/>
       <c r="AD251" s="8"/>
       <c r="AE251" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF251" s="8" t="s">
         <v>61</v>
@@ -23573,10 +23644,10 @@
         <v>594</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H252" s="8" t="s">
         <v>55</v>
@@ -23590,7 +23661,7 @@
       <c r="M252" s="8"/>
       <c r="N252" s="8"/>
       <c r="O252" s="8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P252" s="8" t="s">
         <v>129</v>
@@ -23609,14 +23680,14 @@
       <c r="X252" s="8"/>
       <c r="Y252" s="8"/>
       <c r="Z252" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA252" s="8"/>
       <c r="AB252" s="8"/>
       <c r="AC252" s="8"/>
       <c r="AD252" s="8"/>
       <c r="AE252" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF252" s="8" t="s">
         <v>61</v>
@@ -23652,10 +23723,10 @@
         <v>594</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H253" s="8" t="s">
         <v>55</v>
@@ -23669,7 +23740,7 @@
       <c r="M253" s="8"/>
       <c r="N253" s="8"/>
       <c r="O253" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P253" s="8" t="n">
         <v>5449000064110</v>
@@ -23688,14 +23759,14 @@
       <c r="X253" s="8"/>
       <c r="Y253" s="8"/>
       <c r="Z253" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA253" s="8"/>
       <c r="AB253" s="8"/>
       <c r="AC253" s="8"/>
       <c r="AD253" s="8"/>
       <c r="AE253" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF253" s="8" t="s">
         <v>61</v>
@@ -23730,10 +23801,10 @@
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H254" s="8" t="s">
         <v>42</v>
@@ -23773,7 +23844,7 @@
         <v>502</v>
       </c>
       <c r="AM254" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AN254" s="8" t="n">
         <v>520</v>
@@ -23793,19 +23864,19 @@
         <v>42</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I255" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J255" s="10" t="s">
         <v>304</v>
@@ -23836,7 +23907,7 @@
       <c r="X255" s="8"/>
       <c r="Y255" s="8"/>
       <c r="Z255" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA255" s="8"/>
       <c r="AB255" s="8"/>
@@ -23844,7 +23915,7 @@
       <c r="AD255" s="8"/>
       <c r="AE255" s="8"/>
       <c r="AF255" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG255" s="11" t="n">
         <v>0.0625</v>
@@ -23880,13 +23951,13 @@
         <v>594</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H256" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
@@ -23910,14 +23981,14 @@
       <c r="X256" s="8"/>
       <c r="Y256" s="8"/>
       <c r="Z256" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA256" s="8"/>
       <c r="AB256" s="8"/>
       <c r="AC256" s="8"/>
       <c r="AD256" s="8"/>
       <c r="AE256" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF256" s="8" t="s">
         <v>61</v>
@@ -23935,7 +24006,7 @@
         <v>244</v>
       </c>
       <c r="AM256" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AN256" s="8" t="n">
         <v>502</v>
@@ -23958,10 +24029,10 @@
         <v>594</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H257" s="8" t="s">
         <v>55</v>
@@ -23994,14 +24065,14 @@
       <c r="X257" s="8"/>
       <c r="Y257" s="8"/>
       <c r="Z257" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA257" s="8"/>
       <c r="AB257" s="8"/>
       <c r="AC257" s="8"/>
       <c r="AD257" s="8"/>
       <c r="AE257" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF257" s="8" t="s">
         <v>61</v>
@@ -24038,10 +24109,10 @@
         <v>594</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H258" s="8" t="s">
         <v>55</v>
@@ -24074,14 +24145,14 @@
       <c r="X258" s="8"/>
       <c r="Y258" s="8"/>
       <c r="Z258" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA258" s="8"/>
       <c r="AB258" s="8"/>
       <c r="AC258" s="8"/>
       <c r="AD258" s="8"/>
       <c r="AE258" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF258" s="8" t="s">
         <v>61</v>
@@ -24118,10 +24189,10 @@
         <v>594</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H259" s="8" t="s">
         <v>55</v>
@@ -24154,14 +24225,14 @@
       <c r="X259" s="8"/>
       <c r="Y259" s="8"/>
       <c r="Z259" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA259" s="8"/>
       <c r="AB259" s="8"/>
       <c r="AC259" s="8"/>
       <c r="AD259" s="8"/>
       <c r="AE259" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF259" s="8" t="s">
         <v>61</v>
@@ -24198,10 +24269,10 @@
         <v>594</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H260" s="8" t="s">
         <v>55</v>
@@ -24234,14 +24305,14 @@
       <c r="X260" s="8"/>
       <c r="Y260" s="8"/>
       <c r="Z260" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA260" s="8"/>
       <c r="AB260" s="8"/>
       <c r="AC260" s="8"/>
       <c r="AD260" s="8"/>
       <c r="AE260" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF260" s="8" t="s">
         <v>61</v>
@@ -24278,10 +24349,10 @@
         <v>594</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H261" s="8" t="s">
         <v>55</v>
@@ -24314,14 +24385,14 @@
       <c r="X261" s="8"/>
       <c r="Y261" s="8"/>
       <c r="Z261" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA261" s="8"/>
       <c r="AB261" s="8"/>
       <c r="AC261" s="8"/>
       <c r="AD261" s="8"/>
       <c r="AE261" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF261" s="8" t="s">
         <v>61</v>
@@ -24356,10 +24427,10 @@
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H262" s="8" t="s">
         <v>42</v>
@@ -24399,7 +24470,7 @@
         <v>503</v>
       </c>
       <c r="AM262" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AN262" s="8" t="n">
         <v>520</v>
@@ -24419,19 +24490,19 @@
         <v>42</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J263" s="10" t="s">
         <v>190</v>
@@ -24462,7 +24533,7 @@
       <c r="X263" s="8"/>
       <c r="Y263" s="8"/>
       <c r="Z263" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA263" s="8"/>
       <c r="AB263" s="8"/>
@@ -24470,7 +24541,7 @@
       <c r="AD263" s="8"/>
       <c r="AE263" s="8"/>
       <c r="AF263" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG263" s="11" t="n">
         <v>0.0225</v>
@@ -24506,13 +24577,13 @@
         <v>594</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
@@ -24536,14 +24607,14 @@
       <c r="X264" s="8"/>
       <c r="Y264" s="8"/>
       <c r="Z264" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA264" s="8"/>
       <c r="AB264" s="8"/>
       <c r="AC264" s="8"/>
       <c r="AD264" s="8"/>
       <c r="AE264" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF264" s="8" t="s">
         <v>61</v>
@@ -24584,7 +24655,7 @@
         <v>594</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G265" s="8" t="s">
         <v>199</v>
@@ -24620,14 +24691,14 @@
       <c r="X265" s="8"/>
       <c r="Y265" s="8"/>
       <c r="Z265" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA265" s="8"/>
       <c r="AB265" s="8"/>
       <c r="AC265" s="8"/>
       <c r="AD265" s="8"/>
       <c r="AE265" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF265" s="8" t="s">
         <v>61</v>
@@ -24662,10 +24733,10 @@
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="8" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H266" s="8" t="s">
         <v>42</v>
@@ -24705,7 +24776,7 @@
         <v>504</v>
       </c>
       <c r="AM266" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AN266" s="8" t="n">
         <v>520</v>
@@ -24725,19 +24796,19 @@
         <v>42</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H267" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I267" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J267" s="10" t="s">
         <v>257</v>
@@ -24768,7 +24839,7 @@
       <c r="X267" s="8"/>
       <c r="Y267" s="8"/>
       <c r="Z267" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA267" s="8"/>
       <c r="AB267" s="8"/>
@@ -24776,7 +24847,7 @@
       <c r="AD267" s="8"/>
       <c r="AE267" s="8"/>
       <c r="AF267" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG267" s="11" t="n">
         <v>0.0425</v>
@@ -24812,13 +24883,13 @@
         <v>594</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
@@ -24842,14 +24913,14 @@
       <c r="X268" s="8"/>
       <c r="Y268" s="8"/>
       <c r="Z268" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA268" s="8"/>
       <c r="AB268" s="8"/>
       <c r="AC268" s="8"/>
       <c r="AD268" s="8"/>
       <c r="AE268" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF268" s="8" t="s">
         <v>61</v>
@@ -24867,7 +24938,7 @@
         <v>254</v>
       </c>
       <c r="AM268" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AN268" s="8" t="n">
         <v>504</v>
@@ -24890,10 +24961,10 @@
         <v>594</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H269" s="8" t="s">
         <v>55</v>
@@ -24926,14 +24997,14 @@
       <c r="X269" s="8"/>
       <c r="Y269" s="8"/>
       <c r="Z269" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA269" s="8"/>
       <c r="AB269" s="8"/>
       <c r="AC269" s="8"/>
       <c r="AD269" s="8"/>
       <c r="AE269" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF269" s="8" t="s">
         <v>61</v>
@@ -24970,10 +25041,10 @@
         <v>594</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H270" s="8" t="s">
         <v>55</v>
@@ -25006,14 +25077,14 @@
       <c r="X270" s="8"/>
       <c r="Y270" s="8"/>
       <c r="Z270" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA270" s="8"/>
       <c r="AB270" s="8"/>
       <c r="AC270" s="8"/>
       <c r="AD270" s="8"/>
       <c r="AE270" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AF270" s="8" t="s">
         <v>61</v>
@@ -25048,10 +25119,10 @@
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H271" s="8" t="s">
         <v>42</v>
@@ -25111,19 +25182,19 @@
         <v>42</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H272" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I272" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J272" s="10" t="s">
         <v>228</v>
@@ -25154,7 +25225,7 @@
       <c r="X272" s="8"/>
       <c r="Y272" s="8"/>
       <c r="Z272" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA272" s="8"/>
       <c r="AB272" s="8"/>
@@ -25162,7 +25233,7 @@
       <c r="AD272" s="8"/>
       <c r="AE272" s="8"/>
       <c r="AF272" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG272" s="11" t="n">
         <v>0.04</v>
@@ -25196,10 +25267,10 @@
       </c>
       <c r="E273" s="8"/>
       <c r="F273" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H273" s="8" t="s">
         <v>42</v>
@@ -25239,7 +25310,7 @@
         <v>310</v>
       </c>
       <c r="AM273" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AN273" s="8"/>
     </row>
@@ -25258,10 +25329,10 @@
       </c>
       <c r="E274" s="8"/>
       <c r="F274" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H274" s="8" t="s">
         <v>42</v>
@@ -25321,16 +25392,16 @@
         <v>42</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H275" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
@@ -25344,7 +25415,7 @@
       <c r="R275" s="8"/>
       <c r="S275" s="8"/>
       <c r="T275" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="U275" s="8"/>
       <c r="V275" s="8"/>
@@ -25352,7 +25423,7 @@
       <c r="X275" s="8"/>
       <c r="Y275" s="8"/>
       <c r="Z275" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA275" s="8"/>
       <c r="AB275" s="8"/>
@@ -25360,14 +25431,14 @@
       <c r="AD275" s="8"/>
       <c r="AE275" s="8"/>
       <c r="AF275" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG275" s="11" t="n">
         <v>0.065</v>
       </c>
       <c r="AH275" s="8"/>
       <c r="AI275" s="8" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AJ275" s="8"/>
       <c r="AK275" s="8" t="n">
@@ -25377,7 +25448,7 @@
         <v>258</v>
       </c>
       <c r="AM275" s="9" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AN275" s="8" t="n">
         <v>311</v>
@@ -25397,16 +25468,16 @@
         <v>42</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H276" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
@@ -25422,21 +25493,21 @@
         <v>577</v>
       </c>
       <c r="P276" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q276" s="8"/>
       <c r="R276" s="8"/>
       <c r="S276" s="8"/>
       <c r="T276" s="8"/>
       <c r="U276" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V276" s="8"/>
       <c r="W276" s="8"/>
       <c r="X276" s="8"/>
       <c r="Y276" s="8"/>
       <c r="Z276" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA276" s="8"/>
       <c r="AB276" s="8"/>
@@ -25475,16 +25546,16 @@
         <v>42</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H277" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
@@ -25498,21 +25569,21 @@
         <v>577</v>
       </c>
       <c r="P277" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q277" s="8"/>
       <c r="R277" s="8"/>
       <c r="S277" s="8"/>
       <c r="T277" s="8"/>
       <c r="U277" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V277" s="8"/>
       <c r="W277" s="8"/>
       <c r="X277" s="8"/>
       <c r="Y277" s="8"/>
       <c r="Z277" s="8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AA277" s="8"/>
       <c r="AB277" s="8"/>
@@ -25552,10 +25623,10 @@
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="8" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="H278" s="8" t="s">
         <v>42</v>
@@ -25595,7 +25666,7 @@
         <v>312</v>
       </c>
       <c r="AM278" s="9" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AN278" s="8" t="n">
         <v>310</v>
@@ -25618,10 +25689,10 @@
         <v>594</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H279" s="8" t="s">
         <v>581</v>
@@ -25641,16 +25712,16 @@
       <c r="S279" s="8"/>
       <c r="T279" s="8"/>
       <c r="U279" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V279" s="8"/>
       <c r="W279" s="8"/>
       <c r="X279" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="Y279" s="8"/>
       <c r="Z279" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA279" s="8"/>
       <c r="AB279" s="8"/>
@@ -25665,10 +25736,10 @@
       </c>
       <c r="AH279" s="8"/>
       <c r="AI279" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AJ279" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK279" s="8" t="n">
         <v>2</v>
@@ -25698,13 +25769,13 @@
         <v>594</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
@@ -25720,21 +25791,21 @@
         <v>577</v>
       </c>
       <c r="P280" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q280" s="8"/>
       <c r="R280" s="8"/>
       <c r="S280" s="8"/>
       <c r="T280" s="8"/>
       <c r="U280" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V280" s="8"/>
       <c r="W280" s="8"/>
       <c r="X280" s="8"/>
       <c r="Y280" s="8"/>
       <c r="Z280" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA280" s="8"/>
       <c r="AB280" s="8"/>
@@ -25749,10 +25820,10 @@
       </c>
       <c r="AH280" s="8"/>
       <c r="AI280" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AJ280" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK280" s="8" t="n">
         <v>2</v>
@@ -25782,10 +25853,10 @@
         <v>594</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H281" s="8" t="s">
         <v>49</v>
@@ -25810,7 +25881,7 @@
       <c r="X281" s="8"/>
       <c r="Y281" s="8"/>
       <c r="Z281" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA281" s="8"/>
       <c r="AB281" s="8"/>
@@ -25818,17 +25889,17 @@
       <c r="AD281" s="8"/>
       <c r="AE281" s="8"/>
       <c r="AF281" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG281" s="11" t="n">
         <v>0.01625</v>
       </c>
       <c r="AH281" s="8"/>
       <c r="AI281" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AJ281" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK281" s="8" t="n">
         <v>2</v>
@@ -25837,7 +25908,7 @@
         <v>263</v>
       </c>
       <c r="AM281" s="9" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AN281" s="8" t="n">
         <v>312</v>
@@ -25858,13 +25929,13 @@
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="8" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
@@ -25875,31 +25946,31 @@
       <c r="M282" s="8"/>
       <c r="N282" s="8"/>
       <c r="O282" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="P282" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="Q282" s="8"/>
       <c r="R282" s="8"/>
       <c r="S282" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T282" s="8" t="s">
         <v>57</v>
       </c>
       <c r="U282" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="V282" s="8"/>
       <c r="W282" s="8"/>
       <c r="X282" s="8"/>
       <c r="Y282" s="8"/>
       <c r="Z282" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA282" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AB282" s="8"/>
       <c r="AC282" s="8"/>
@@ -25911,10 +25982,10 @@
       <c r="AG282" s="7"/>
       <c r="AH282" s="8"/>
       <c r="AI282" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AJ282" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK282" s="8" t="n">
         <v>3</v>
@@ -25942,13 +26013,13 @@
       </c>
       <c r="E283" s="8"/>
       <c r="F283" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
@@ -25959,31 +26030,31 @@
       <c r="M283" s="8"/>
       <c r="N283" s="8"/>
       <c r="O283" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="P283" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="Q283" s="8"/>
       <c r="R283" s="8"/>
       <c r="S283" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T283" s="8" t="s">
         <v>57</v>
       </c>
       <c r="U283" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="V283" s="8"/>
       <c r="W283" s="8"/>
       <c r="X283" s="8"/>
       <c r="Y283" s="8"/>
       <c r="Z283" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA283" s="8" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AB283" s="8"/>
       <c r="AC283" s="8"/>
@@ -25995,10 +26066,10 @@
       <c r="AG283" s="7"/>
       <c r="AH283" s="8"/>
       <c r="AI283" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AJ283" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK283" s="8" t="n">
         <v>3</v>
@@ -26026,10 +26097,10 @@
       </c>
       <c r="E284" s="8"/>
       <c r="F284" s="8" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="H284" s="8" t="s">
         <v>586</v>
@@ -26056,7 +26127,7 @@
       <c r="X284" s="8"/>
       <c r="Y284" s="8"/>
       <c r="Z284" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA284" s="8"/>
       <c r="AB284" s="8"/>
@@ -26077,7 +26148,7 @@
         <v>267</v>
       </c>
       <c r="AM284" s="9" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AN284" s="8" t="n">
         <v>263</v>
@@ -26098,10 +26169,10 @@
       </c>
       <c r="E285" s="8"/>
       <c r="F285" s="8" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H285" s="8" t="s">
         <v>55</v>
@@ -26115,35 +26186,35 @@
       <c r="M285" s="8"/>
       <c r="N285" s="8"/>
       <c r="O285" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="P285" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="Q285" s="8"/>
       <c r="R285" s="8"/>
       <c r="S285" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T285" s="8" t="s">
         <v>57</v>
       </c>
       <c r="U285" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="V285" s="8"/>
       <c r="W285" s="8"/>
       <c r="X285" s="8"/>
       <c r="Y285" s="8"/>
       <c r="Z285" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA285" s="8"/>
       <c r="AB285" s="8"/>
       <c r="AC285" s="8"/>
       <c r="AD285" s="8"/>
       <c r="AE285" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AF285" s="8" t="s">
         <v>61</v>
@@ -26151,10 +26222,10 @@
       <c r="AG285" s="7"/>
       <c r="AH285" s="8"/>
       <c r="AI285" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AJ285" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK285" s="8" t="n">
         <v>4</v>
@@ -26182,10 +26253,10 @@
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>55</v>
@@ -26199,35 +26270,35 @@
       <c r="M286" s="8"/>
       <c r="N286" s="8"/>
       <c r="O286" s="8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="P286" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="Q286" s="8"/>
       <c r="R286" s="8"/>
       <c r="S286" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="T286" s="8" t="s">
         <v>57</v>
       </c>
       <c r="U286" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="V286" s="8"/>
       <c r="W286" s="8"/>
       <c r="X286" s="8"/>
       <c r="Y286" s="8"/>
       <c r="Z286" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA286" s="8"/>
       <c r="AB286" s="8"/>
       <c r="AC286" s="8"/>
       <c r="AD286" s="8"/>
       <c r="AE286" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AF286" s="8" t="s">
         <v>61</v>
@@ -26235,10 +26306,10 @@
       <c r="AG286" s="7"/>
       <c r="AH286" s="8"/>
       <c r="AI286" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AJ286" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK286" s="8" t="n">
         <v>4</v>
@@ -26266,13 +26337,13 @@
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
@@ -26286,7 +26357,7 @@
         <v>577</v>
       </c>
       <c r="P287" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q287" s="8"/>
       <c r="R287" s="8"/>
@@ -26295,14 +26366,14 @@
         <v>57</v>
       </c>
       <c r="U287" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V287" s="8"/>
       <c r="W287" s="8"/>
       <c r="X287" s="8"/>
       <c r="Y287" s="8"/>
       <c r="Z287" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA287" s="8"/>
       <c r="AB287" s="8"/>
@@ -26315,10 +26386,10 @@
       <c r="AG287" s="7"/>
       <c r="AH287" s="8"/>
       <c r="AI287" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AJ287" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK287" s="8" t="n">
         <v>3</v>
@@ -26348,13 +26419,13 @@
         <v>594</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
@@ -26364,21 +26435,21 @@
       <c r="N288" s="8"/>
       <c r="O288" s="8"/>
       <c r="P288" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q288" s="8"/>
       <c r="R288" s="8"/>
       <c r="S288" s="8"/>
       <c r="T288" s="8"/>
       <c r="U288" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V288" s="8"/>
       <c r="W288" s="8"/>
       <c r="X288" s="8"/>
       <c r="Y288" s="8"/>
       <c r="Z288" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA288" s="8"/>
       <c r="AB288" s="8"/>
@@ -26386,17 +26457,17 @@
       <c r="AD288" s="8"/>
       <c r="AE288" s="8"/>
       <c r="AF288" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG288" s="11" t="n">
         <v>0.01625</v>
       </c>
       <c r="AH288" s="8"/>
       <c r="AI288" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AJ288" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK288" s="8" t="n">
         <v>2</v>
@@ -26426,13 +26497,13 @@
         <v>594</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
@@ -26456,7 +26527,7 @@
       <c r="X289" s="8"/>
       <c r="Y289" s="8"/>
       <c r="Z289" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="AA289" s="8"/>
       <c r="AB289" s="8"/>
@@ -26464,7 +26535,7 @@
       <c r="AD289" s="8"/>
       <c r="AE289" s="8"/>
       <c r="AF289" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AG289" s="11" t="n">
         <v>0.03</v>
@@ -26502,13 +26573,13 @@
         <v>594</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
@@ -26524,7 +26595,7 @@
         <v>577</v>
       </c>
       <c r="P290" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q290" s="8"/>
       <c r="R290" s="8"/>
@@ -26533,14 +26604,14 @@
         <v>57</v>
       </c>
       <c r="U290" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="V290" s="8"/>
       <c r="W290" s="8"/>
       <c r="X290" s="8"/>
       <c r="Y290" s="8"/>
       <c r="Z290" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="AA290" s="8"/>
       <c r="AB290" s="8"/>
@@ -26548,12 +26619,12 @@
       <c r="AD290" s="8"/>
       <c r="AE290" s="8"/>
       <c r="AF290" s="8" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AG290" s="7"/>
       <c r="AH290" s="8"/>
       <c r="AI290" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AJ290" s="8"/>
       <c r="AK290" s="8" t="n">
@@ -26582,10 +26653,10 @@
       </c>
       <c r="E291" s="8"/>
       <c r="F291" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G291" s="8" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H291" s="8" t="s">
         <v>42</v>
@@ -26644,10 +26715,10 @@
       </c>
       <c r="E292" s="8"/>
       <c r="F292" s="8" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H292" s="8" t="s">
         <v>49</v>
@@ -26689,7 +26760,7 @@
         <v>274</v>
       </c>
       <c r="AM292" s="9" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AN292" s="8" t="n">
         <v>400</v>
@@ -26709,16 +26780,16 @@
         <v>589</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
@@ -26730,7 +26801,7 @@
       <c r="N293" s="8"/>
       <c r="O293" s="8"/>
       <c r="P293" s="8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="Q293" s="8"/>
       <c r="R293" s="8"/>
@@ -26739,7 +26810,7 @@
         <v>57</v>
       </c>
       <c r="U293" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V293" s="8"/>
       <c r="W293" s="8"/>
@@ -26747,7 +26818,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
       <c r="AA293" s="8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AB293" s="8"/>
       <c r="AC293" s="8"/>
@@ -26787,16 +26858,16 @@
         <v>589</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F294" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="H294" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="G294" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="H294" s="8" t="s">
-        <v>908</v>
       </c>
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
@@ -26808,7 +26879,7 @@
       <c r="N294" s="8"/>
       <c r="O294" s="8"/>
       <c r="P294" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="Q294" s="8"/>
       <c r="R294" s="8"/>
@@ -26817,7 +26888,7 @@
         <v>57</v>
       </c>
       <c r="U294" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V294" s="8"/>
       <c r="W294" s="8"/>
@@ -26825,7 +26896,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
       <c r="AA294" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AB294" s="8"/>
       <c r="AC294" s="8"/>
@@ -26865,16 +26936,16 @@
         <v>589</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
@@ -26886,7 +26957,7 @@
       <c r="N295" s="8"/>
       <c r="O295" s="8"/>
       <c r="P295" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="Q295" s="8"/>
       <c r="R295" s="8"/>
@@ -26895,7 +26966,7 @@
         <v>57</v>
       </c>
       <c r="U295" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V295" s="8"/>
       <c r="W295" s="8"/>
@@ -26903,7 +26974,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
       <c r="AA295" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="AB295" s="8"/>
       <c r="AC295" s="8"/>
@@ -26943,16 +27014,16 @@
         <v>589</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
@@ -26964,7 +27035,7 @@
       <c r="N296" s="8"/>
       <c r="O296" s="8"/>
       <c r="P296" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="Q296" s="8"/>
       <c r="R296" s="8"/>
@@ -26973,7 +27044,7 @@
         <v>57</v>
       </c>
       <c r="U296" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V296" s="8"/>
       <c r="W296" s="8"/>
@@ -26981,7 +27052,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
       <c r="AA296" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AB296" s="8"/>
       <c r="AC296" s="8"/>
@@ -27018,24 +27089,24 @@
         <v>41</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
       <c r="K297" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L297" s="8"/>
       <c r="M297" s="8"/>
@@ -27047,7 +27118,7 @@
       <c r="S297" s="8"/>
       <c r="T297" s="8"/>
       <c r="U297" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V297" s="8"/>
       <c r="W297" s="8"/>
@@ -27060,7 +27131,7 @@
       <c r="AD297" s="8"/>
       <c r="AE297" s="8"/>
       <c r="AF297" s="8"/>
-      <c r="AG297" s="14"/>
+      <c r="AG297" s="15"/>
       <c r="AH297" s="8"/>
       <c r="AI297" s="8"/>
       <c r="AJ297" s="8"/>
@@ -27069,7 +27140,7 @@
         <v>278</v>
       </c>
       <c r="AM297" s="9" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="AN297" s="8"/>
     </row>
@@ -27084,24 +27155,24 @@
         <v>41</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H298" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
       <c r="K298" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L298" s="8"/>
       <c r="M298" s="8"/>
@@ -27113,7 +27184,7 @@
       <c r="S298" s="8"/>
       <c r="T298" s="8"/>
       <c r="U298" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V298" s="8"/>
       <c r="W298" s="8"/>
@@ -27126,7 +27197,7 @@
       <c r="AD298" s="8"/>
       <c r="AE298" s="8"/>
       <c r="AF298" s="8"/>
-      <c r="AG298" s="14"/>
+      <c r="AG298" s="15"/>
       <c r="AH298" s="8"/>
       <c r="AI298" s="8"/>
       <c r="AJ298" s="8"/>
@@ -27135,7 +27206,7 @@
         <v>279</v>
       </c>
       <c r="AM298" s="9" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="AN298" s="8"/>
     </row>
@@ -27150,40 +27221,40 @@
         <v>41</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H299" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
       <c r="K299" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L299" s="8"/>
       <c r="M299" s="8"/>
       <c r="N299" s="8"/>
       <c r="O299" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="P299" s="15" t="s">
-        <v>937</v>
+        <v>938</v>
+      </c>
+      <c r="P299" s="16" t="s">
+        <v>939</v>
       </c>
       <c r="Q299" s="8"/>
       <c r="R299" s="8"/>
       <c r="S299" s="8"/>
       <c r="T299" s="8"/>
       <c r="U299" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V299" s="8"/>
       <c r="W299" s="8"/>
@@ -27196,7 +27267,7 @@
       <c r="AD299" s="8"/>
       <c r="AE299" s="8"/>
       <c r="AF299" s="8"/>
-      <c r="AG299" s="14"/>
+      <c r="AG299" s="15"/>
       <c r="AH299" s="8"/>
       <c r="AI299" s="8"/>
       <c r="AJ299" s="8"/>
@@ -27220,40 +27291,40 @@
         <v>41</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G300" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H300" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="K300" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L300" s="8"/>
       <c r="M300" s="8"/>
       <c r="N300" s="8"/>
       <c r="O300" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="P300" s="15" t="s">
         <v>938</v>
+      </c>
+      <c r="P300" s="16" t="s">
+        <v>940</v>
       </c>
       <c r="Q300" s="8"/>
       <c r="R300" s="8"/>
       <c r="S300" s="8"/>
       <c r="T300" s="8"/>
       <c r="U300" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V300" s="8"/>
       <c r="W300" s="8"/>
@@ -27266,7 +27337,7 @@
       <c r="AD300" s="8"/>
       <c r="AE300" s="8"/>
       <c r="AF300" s="8"/>
-      <c r="AG300" s="14"/>
+      <c r="AG300" s="15"/>
       <c r="AH300" s="8"/>
       <c r="AI300" s="8"/>
       <c r="AJ300" s="8"/>
@@ -27290,40 +27361,40 @@
         <v>41</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
       <c r="K301" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L301" s="8"/>
       <c r="M301" s="8"/>
       <c r="N301" s="8"/>
       <c r="O301" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="P301" s="15" t="s">
-        <v>939</v>
+        <v>938</v>
+      </c>
+      <c r="P301" s="16" t="s">
+        <v>941</v>
       </c>
       <c r="Q301" s="8"/>
       <c r="R301" s="8"/>
       <c r="S301" s="8"/>
       <c r="T301" s="8"/>
       <c r="U301" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V301" s="8"/>
       <c r="W301" s="8"/>
@@ -27336,7 +27407,7 @@
       <c r="AD301" s="8"/>
       <c r="AE301" s="8"/>
       <c r="AF301" s="8"/>
-      <c r="AG301" s="14"/>
+      <c r="AG301" s="15"/>
       <c r="AH301" s="8"/>
       <c r="AI301" s="8"/>
       <c r="AJ301" s="8"/>
@@ -27360,40 +27431,40 @@
         <v>41</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
       <c r="K302" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L302" s="8"/>
       <c r="M302" s="8"/>
       <c r="N302" s="8"/>
       <c r="O302" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="P302" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
+      </c>
+      <c r="P302" s="16" t="s">
+        <v>942</v>
       </c>
       <c r="Q302" s="8"/>
       <c r="R302" s="8"/>
       <c r="S302" s="8"/>
       <c r="T302" s="8"/>
       <c r="U302" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V302" s="8"/>
       <c r="W302" s="8"/>
@@ -27406,7 +27477,7 @@
       <c r="AD302" s="8"/>
       <c r="AE302" s="8"/>
       <c r="AF302" s="8"/>
-      <c r="AG302" s="14"/>
+      <c r="AG302" s="15"/>
       <c r="AH302" s="8"/>
       <c r="AI302" s="8"/>
       <c r="AJ302" s="8"/>
@@ -27430,24 +27501,24 @@
         <v>41</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H303" s="8" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
       <c r="K303" s="8" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="L303" s="8"/>
       <c r="M303" s="8"/>
@@ -27459,7 +27530,7 @@
       <c r="S303" s="8"/>
       <c r="T303" s="8"/>
       <c r="U303" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V303" s="8"/>
       <c r="W303" s="8"/>
@@ -27472,7 +27543,7 @@
       <c r="AD303" s="8"/>
       <c r="AE303" s="8"/>
       <c r="AF303" s="8"/>
-      <c r="AG303" s="14"/>
+      <c r="AG303" s="15"/>
       <c r="AH303" s="8"/>
       <c r="AI303" s="8"/>
       <c r="AJ303" s="8"/>
@@ -27481,7 +27552,7 @@
         <v>283</v>
       </c>
       <c r="AM303" s="9" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AN303" s="8"/>
     </row>
@@ -27496,24 +27567,24 @@
         <v>41</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H304" s="8" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
       <c r="K304" s="8" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="L304" s="8"/>
       <c r="M304" s="8"/>
@@ -27525,7 +27596,7 @@
       <c r="S304" s="8"/>
       <c r="T304" s="8"/>
       <c r="U304" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V304" s="8"/>
       <c r="W304" s="8"/>
@@ -27538,7 +27609,7 @@
       <c r="AD304" s="8"/>
       <c r="AE304" s="8"/>
       <c r="AF304" s="8"/>
-      <c r="AG304" s="14"/>
+      <c r="AG304" s="15"/>
       <c r="AH304" s="8"/>
       <c r="AI304" s="8"/>
       <c r="AJ304" s="8"/>
@@ -27562,45 +27633,45 @@
         <v>41</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
       <c r="K305" s="8" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="L305" s="8"/>
       <c r="M305" s="8"/>
       <c r="N305" s="8"/>
       <c r="O305" s="8"/>
       <c r="P305" s="8" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="Q305" s="8"/>
       <c r="R305" s="8"/>
       <c r="S305" s="8"/>
       <c r="T305" s="8"/>
       <c r="U305" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="V305" s="8"/>
       <c r="W305" s="8"/>
       <c r="X305" s="8"/>
       <c r="Y305" s="8"/>
       <c r="Z305" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AA305" s="8"/>
       <c r="AB305" s="8"/>
@@ -27608,7 +27679,7 @@
       <c r="AD305" s="8"/>
       <c r="AE305" s="8"/>
       <c r="AF305" s="8"/>
-      <c r="AG305" s="14"/>
+      <c r="AG305" s="15"/>
       <c r="AH305" s="8"/>
       <c r="AI305" s="8"/>
       <c r="AJ305" s="8"/>
@@ -27630,45 +27701,45 @@
         <v>41</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
       <c r="K306" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L306" s="8"/>
       <c r="M306" s="8"/>
       <c r="N306" s="8"/>
       <c r="O306" s="8"/>
       <c r="P306" s="8" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="Q306" s="8"/>
       <c r="R306" s="8"/>
       <c r="S306" s="8"/>
       <c r="T306" s="8"/>
       <c r="U306" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="V306" s="8"/>
       <c r="W306" s="8"/>
       <c r="X306" s="8"/>
       <c r="Y306" s="8"/>
       <c r="Z306" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="AA306" s="8"/>
       <c r="AB306" s="8"/>
@@ -27676,7 +27747,7 @@
       <c r="AD306" s="8"/>
       <c r="AE306" s="8"/>
       <c r="AF306" s="8"/>
-      <c r="AG306" s="14"/>
+      <c r="AG306" s="15"/>
       <c r="AH306" s="8"/>
       <c r="AI306" s="8"/>
       <c r="AJ306" s="8"/>
@@ -27698,40 +27769,40 @@
         <v>41</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H307" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
       <c r="K307" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L307" s="8"/>
       <c r="M307" s="8"/>
       <c r="N307" s="8"/>
       <c r="O307" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P307" s="15" t="s">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="P307" s="16" t="s">
+        <v>968</v>
       </c>
       <c r="Q307" s="8"/>
       <c r="R307" s="8"/>
       <c r="S307" s="8"/>
       <c r="T307" s="8"/>
       <c r="U307" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V307" s="8"/>
       <c r="W307" s="8"/>
@@ -27744,7 +27815,7 @@
       <c r="AD307" s="8"/>
       <c r="AE307" s="8"/>
       <c r="AF307" s="8"/>
-      <c r="AG307" s="14"/>
+      <c r="AG307" s="15"/>
       <c r="AH307" s="8"/>
       <c r="AI307" s="8"/>
       <c r="AJ307" s="8"/>
@@ -27768,40 +27839,40 @@
         <v>41</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
       <c r="K308" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L308" s="8"/>
       <c r="M308" s="8"/>
       <c r="N308" s="8"/>
       <c r="O308" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P308" s="15" t="s">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="P308" s="16" t="s">
+        <v>968</v>
       </c>
       <c r="Q308" s="8"/>
       <c r="R308" s="8"/>
       <c r="S308" s="8"/>
       <c r="T308" s="8"/>
       <c r="U308" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V308" s="8"/>
       <c r="W308" s="8"/>
@@ -27814,7 +27885,7 @@
       <c r="AD308" s="8"/>
       <c r="AE308" s="8"/>
       <c r="AF308" s="8"/>
-      <c r="AG308" s="14"/>
+      <c r="AG308" s="15"/>
       <c r="AH308" s="8"/>
       <c r="AI308" s="8"/>
       <c r="AJ308" s="8"/>
@@ -27838,40 +27909,40 @@
         <v>41</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
       <c r="K309" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L309" s="8"/>
       <c r="M309" s="8"/>
       <c r="N309" s="8"/>
       <c r="O309" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P309" s="15" t="s">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="P309" s="16" t="s">
+        <v>968</v>
       </c>
       <c r="Q309" s="8"/>
       <c r="R309" s="8"/>
       <c r="S309" s="8"/>
       <c r="T309" s="8"/>
       <c r="U309" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V309" s="8"/>
       <c r="W309" s="8"/>
@@ -27884,7 +27955,7 @@
       <c r="AD309" s="8"/>
       <c r="AE309" s="8"/>
       <c r="AF309" s="8"/>
-      <c r="AG309" s="14"/>
+      <c r="AG309" s="15"/>
       <c r="AH309" s="8"/>
       <c r="AI309" s="8"/>
       <c r="AJ309" s="8"/>
@@ -27908,40 +27979,40 @@
         <v>41</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
       <c r="K310" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L310" s="8"/>
       <c r="M310" s="8"/>
       <c r="N310" s="8"/>
       <c r="O310" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P310" s="15" t="s">
         <v>967</v>
+      </c>
+      <c r="P310" s="16" t="s">
+        <v>969</v>
       </c>
       <c r="Q310" s="8"/>
       <c r="R310" s="8"/>
       <c r="S310" s="8"/>
       <c r="T310" s="8"/>
       <c r="U310" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V310" s="8"/>
       <c r="W310" s="8"/>
@@ -27954,7 +28025,7 @@
       <c r="AD310" s="8"/>
       <c r="AE310" s="8"/>
       <c r="AF310" s="8"/>
-      <c r="AG310" s="14"/>
+      <c r="AG310" s="15"/>
       <c r="AH310" s="8"/>
       <c r="AI310" s="8"/>
       <c r="AJ310" s="8"/>
@@ -27978,40 +28049,40 @@
         <v>41</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H311" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
       <c r="K311" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L311" s="8"/>
       <c r="M311" s="8"/>
       <c r="N311" s="8"/>
       <c r="O311" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P311" s="15" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="P311" s="16" t="s">
+        <v>971</v>
       </c>
       <c r="Q311" s="8"/>
       <c r="R311" s="8"/>
       <c r="S311" s="8"/>
       <c r="T311" s="8"/>
       <c r="U311" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V311" s="8"/>
       <c r="W311" s="8"/>
@@ -28024,7 +28095,7 @@
       <c r="AD311" s="8"/>
       <c r="AE311" s="8"/>
       <c r="AF311" s="8"/>
-      <c r="AG311" s="14"/>
+      <c r="AG311" s="15"/>
       <c r="AH311" s="8"/>
       <c r="AI311" s="8"/>
       <c r="AJ311" s="8"/>
@@ -28033,7 +28104,7 @@
         <v>291</v>
       </c>
       <c r="AM311" s="9" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AN311" s="8"/>
     </row>
@@ -28048,40 +28119,40 @@
         <v>41</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H312" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
       <c r="K312" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L312" s="8"/>
       <c r="M312" s="8"/>
       <c r="N312" s="8"/>
       <c r="O312" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P312" s="15" t="s">
-        <v>971</v>
+        <v>967</v>
+      </c>
+      <c r="P312" s="16" t="s">
+        <v>973</v>
       </c>
       <c r="Q312" s="8"/>
       <c r="R312" s="8"/>
       <c r="S312" s="8"/>
       <c r="T312" s="8"/>
       <c r="U312" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V312" s="8"/>
       <c r="W312" s="8"/>
@@ -28094,7 +28165,7 @@
       <c r="AD312" s="8"/>
       <c r="AE312" s="8"/>
       <c r="AF312" s="8"/>
-      <c r="AG312" s="14"/>
+      <c r="AG312" s="15"/>
       <c r="AH312" s="8"/>
       <c r="AI312" s="8"/>
       <c r="AJ312" s="8"/>
@@ -28103,7 +28174,7 @@
         <v>292</v>
       </c>
       <c r="AM312" s="9" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="AN312" s="8"/>
     </row>
@@ -28118,40 +28189,40 @@
         <v>41</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H313" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
       <c r="K313" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L313" s="8"/>
       <c r="M313" s="8"/>
       <c r="N313" s="8"/>
       <c r="O313" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="P313" s="15" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="P313" s="16" t="s">
+        <v>975</v>
       </c>
       <c r="Q313" s="8"/>
       <c r="R313" s="8"/>
       <c r="S313" s="8"/>
       <c r="T313" s="8"/>
       <c r="U313" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V313" s="8"/>
       <c r="W313" s="8"/>
@@ -28164,7 +28235,7 @@
       <c r="AD313" s="8"/>
       <c r="AE313" s="8"/>
       <c r="AF313" s="8"/>
-      <c r="AG313" s="14"/>
+      <c r="AG313" s="15"/>
       <c r="AH313" s="8"/>
       <c r="AI313" s="8"/>
       <c r="AJ313" s="8"/>
@@ -28188,22 +28259,22 @@
         <v>41</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E314" s="8"/>
       <c r="F314" s="8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
       <c r="K314" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L314" s="8"/>
       <c r="M314" s="8"/>
@@ -28215,7 +28286,7 @@
       <c r="S314" s="8"/>
       <c r="T314" s="8"/>
       <c r="U314" s="8" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="V314" s="8"/>
       <c r="W314" s="8"/>
@@ -28228,7 +28299,7 @@
       <c r="AD314" s="8"/>
       <c r="AE314" s="8"/>
       <c r="AF314" s="8"/>
-      <c r="AG314" s="14"/>
+      <c r="AG314" s="15"/>
       <c r="AH314" s="8"/>
       <c r="AI314" s="8"/>
       <c r="AJ314" s="8"/>
@@ -28240,7 +28311,6 @@
       <c r="AN314" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN314"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28248,6 +28318,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>